--- a/src/main/java/testdata/TestData.xlsx
+++ b/src/main/java/testdata/TestData.xlsx
@@ -5,17 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://optimuminfosys-my.sharepoint.com/personal/rajapandi_ramamoorthy_theoptimum_net/Documents/Automation project/WTT_Automation/src/main/java/testdata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Selvakannan A\Automation_Code\WTTAutomation\src\main\java\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_81F31C594E5E33B9FCFB619B56D1C19B235133E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA939C5E-320E-47C0-9B79-90B42B0ABD0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="contacts" sheetId="1" r:id="rId1"/>
-    <sheet name="deals" sheetId="2" r:id="rId2"/>
-    <sheet name="tasks" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="150000"/>
   <extLst>
@@ -416,9 +414,9 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -432,7 +430,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -446,7 +444,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -460,7 +458,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -477,28 +475,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/src/main/java/testdata/TestData.xlsx
+++ b/src/main/java/testdata/TestData.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Selvakannan A\Automation_Code\WTTAutomation\src\main\java\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA939C5E-320E-47C0-9B79-90B42B0ABD0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2913D770-5348-40D7-AB3E-386752E34963}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1860" yWindow="1860" windowWidth="15375" windowHeight="7875" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="contacts" sheetId="1" r:id="rId1"/>
+    <sheet name="EventCreation" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="150000"/>
   <extLst>
@@ -28,54 +28,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>title</t>
+    <t>text_event_core_tab_creation_EventName</t>
   </si>
   <si>
-    <t>firstname</t>
-  </si>
-  <si>
-    <t>lastname</t>
-  </si>
-  <si>
-    <t>company</t>
-  </si>
-  <si>
-    <t>Mr.</t>
-  </si>
-  <si>
-    <t>Tom</t>
-  </si>
-  <si>
-    <t>Peter</t>
-  </si>
-  <si>
-    <t>Google</t>
-  </si>
-  <si>
-    <t>Dr.</t>
-  </si>
-  <si>
-    <t>David</t>
-  </si>
-  <si>
-    <t>Cris</t>
-  </si>
-  <si>
-    <t>Amazon</t>
-  </si>
-  <si>
-    <t>Mrs.</t>
-  </si>
-  <si>
-    <t>Mukta</t>
-  </si>
-  <si>
-    <t>Sharma</t>
-  </si>
-  <si>
-    <t>Ebay</t>
+    <t>test</t>
   </si>
 </sst>
 </file>
@@ -408,68 +366,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="38.625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/testdata/TestData.xlsx
+++ b/src/main/java/testdata/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Selvakannan A\Automation_Code\WTTAutomation\src\main\java\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2913D770-5348-40D7-AB3E-386752E34963}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70EFC1E9-79FF-4214-BD10-47BB394A9B92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="1860" windowWidth="15375" windowHeight="7875" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EventCreation" sheetId="1" r:id="rId1"/>
@@ -28,12 +28,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>text_event_core_tab_creation_EventName</t>
   </si>
   <si>
-    <t>test</t>
+    <t>text_event_core_tab_creation_EventName1</t>
+  </si>
+  <si>
+    <t>test2</t>
+  </si>
+  <si>
+    <t>test11</t>
   </si>
 </sst>
 </file>
@@ -366,25 +372,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="38.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/testdata/TestData.xlsx
+++ b/src/main/java/testdata/TestData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Selvakannan A\Automation_Code\WTTAutomation\src\main\java\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Selvakannan A\Automation Code\WTTAutomation\src\main\java\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70EFC1E9-79FF-4214-BD10-47BB394A9B92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9C52138-9C80-4FC2-BD1C-9DB9750543C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,18 +28,1854 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1214" uniqueCount="616">
   <si>
     <t>text_event_core_tab_creation_EventName</t>
   </si>
   <si>
-    <t>text_event_core_tab_creation_EventName1</t>
-  </si>
-  <si>
-    <t>test2</t>
-  </si>
-  <si>
-    <t>test11</t>
+    <t>tab_event</t>
+  </si>
+  <si>
+    <t>button_event_core_tab_creation</t>
+  </si>
+  <si>
+    <t>button_event_core_tab_creation_EventCoreType</t>
+  </si>
+  <si>
+    <t>toggle_event_core_tab_creation_IsClosedEvent</t>
+  </si>
+  <si>
+    <t>toggle_event_core_tab_creation_IsAIEnabled</t>
+  </si>
+  <si>
+    <t>toggle_event_core_tab_creation_IsBettingEnabled</t>
+  </si>
+  <si>
+    <t>toggle_event_core_tab_creation_IsFrontEndPlatformVisible</t>
+  </si>
+  <si>
+    <t>toggle_event_core_tab_creation_Active</t>
+  </si>
+  <si>
+    <t>toggle_event_core_tab_creation_ShowOrganizerinOES</t>
+  </si>
+  <si>
+    <t>button_event_core_tab_creation_SelectOrganization</t>
+  </si>
+  <si>
+    <t>checkbox_event_core_tab_creation_SelectOrganizationsearchresult</t>
+  </si>
+  <si>
+    <t>button_event_core_tab_creation_SelectCurrency</t>
+  </si>
+  <si>
+    <t>checkbox_event_creation_SelectCurrencysearchresult</t>
+  </si>
+  <si>
+    <t>text_event_core_tab_creation_Tags</t>
+  </si>
+  <si>
+    <t>text_event_core_tab_creation_Website</t>
+  </si>
+  <si>
+    <t>text_event_creation_WYCDeadlineHours</t>
+  </si>
+  <si>
+    <t>button_event_core_tab_creation_SelectTimeZone</t>
+  </si>
+  <si>
+    <t>checkbox_event_core_tab_creation_SelectTimeZonesearchresult</t>
+  </si>
+  <si>
+    <t>button_event_core_tab_creation_SelectVenue</t>
+  </si>
+  <si>
+    <t>text_event_core_tab_creation_GPSCoOrdinates</t>
+  </si>
+  <si>
+    <t>text_event_core_tab_creation_AddressLine1</t>
+  </si>
+  <si>
+    <t>text_event_core_tab_creation_AddressLine2</t>
+  </si>
+  <si>
+    <t>text_event_core_tab_creation_AddressLine3</t>
+  </si>
+  <si>
+    <t>text_event_core_tab_creation_City</t>
+  </si>
+  <si>
+    <t>text_event_core_tab_creation_State</t>
+  </si>
+  <si>
+    <t>button_event_core_tab_creation_Country</t>
+  </si>
+  <si>
+    <t>text_event_creation_Postcode</t>
+  </si>
+  <si>
+    <t>button_event_creation_TournamentCategoryGroup</t>
+  </si>
+  <si>
+    <t>button_event_creation_TournamentAgeCategory</t>
+  </si>
+  <si>
+    <t>checkbox_event_creation_TournamentAgeCategorysearchresult</t>
+  </si>
+  <si>
+    <t>tab_event_creation_Competition</t>
+  </si>
+  <si>
+    <t>button_event_creation_Competition_PrefillfromTournamentCompetitionRoundTemplates</t>
+  </si>
+  <si>
+    <t>text_event_creation_Competition_NofQualificationRounds</t>
+  </si>
+  <si>
+    <t>text_event_creation_Competition_NoofTotalMatches</t>
+  </si>
+  <si>
+    <t>button_event_creation_Competition_EntriesRankingYear</t>
+  </si>
+  <si>
+    <t>button_event_creation_Competition_EntriesRankingWeek</t>
+  </si>
+  <si>
+    <t>button_event_creation_Competition_CountRankingYear</t>
+  </si>
+  <si>
+    <t>button_event_creation_Competition_CountRankingWeek</t>
+  </si>
+  <si>
+    <t>button_event_creation_Competition_SeedingRankingYear</t>
+  </si>
+  <si>
+    <t>button_event_creation_Competition_SeedingRankingWeek</t>
+  </si>
+  <si>
+    <t>button_event_creation_Competition_RankingExpiryYear</t>
+  </si>
+  <si>
+    <t>button_event_creation_Competition_RankingExpiryWeek</t>
+  </si>
+  <si>
+    <t>button_event_creation_Competition_SystemofPlay</t>
+  </si>
+  <si>
+    <t>text_event_creation_Competition_SystemofPlaysearch</t>
+  </si>
+  <si>
+    <t>check_event_creation_Competition_SystemofPlayGroupBased</t>
+  </si>
+  <si>
+    <t>check_event_creation_Competition_SystemofPlayKnockout</t>
+  </si>
+  <si>
+    <t>text_event_creation_Competition_PlayingSystem</t>
+  </si>
+  <si>
+    <t>text_event_creation_Competition_OverallPrizeMoney</t>
+  </si>
+  <si>
+    <t>text_event_creation_Competition_PrizeMoneyTax</t>
+  </si>
+  <si>
+    <t>text_event_creation_Competition_PrizeComments</t>
+  </si>
+  <si>
+    <t>tab_event_creation_ParticipantOrganizations</t>
+  </si>
+  <si>
+    <t>button_event_creation_ParticipantOrganizations_AddNew</t>
+  </si>
+  <si>
+    <t>button_event_creation_ParticipantOrganizations_DeleteAll</t>
+  </si>
+  <si>
+    <t>text_event_creation_ParticipantOrganizations_searchText</t>
+  </si>
+  <si>
+    <t>button_event_creation_ParticipantOrganizations_Organization</t>
+  </si>
+  <si>
+    <t>checkbox_event_creation_ParticipantOrganizations_Organizationsearchresult</t>
+  </si>
+  <si>
+    <t>button_event_creation_ParticipantOrganizations_Organizationclose</t>
+  </si>
+  <si>
+    <t>checkbox_event_creation_selectallcontitent</t>
+  </si>
+  <si>
+    <t>checkbox_event_creation_deselectallcontitent</t>
+  </si>
+  <si>
+    <t>button_event_creation_Proceed</t>
+  </si>
+  <si>
+    <t>button_event_creation_Cancel</t>
+  </si>
+  <si>
+    <t>tab_event_creation_ProfileQuotas</t>
+  </si>
+  <si>
+    <t>button_event_creation_ProfileQuotas_AddNew</t>
+  </si>
+  <si>
+    <t>button_event_creation_ProfileQuotas_DeleteAll</t>
+  </si>
+  <si>
+    <t>button_event_creation_ProfileQuotas_Profile</t>
+  </si>
+  <si>
+    <t>button_event_creation_ProfileQuotas_Profilearrowicon</t>
+  </si>
+  <si>
+    <t>text_event_creation_ProfileQuotas_Profilesearch</t>
+  </si>
+  <si>
+    <t>checkbox_event_creation_ProfileQuotas_ProfilesearchCoach</t>
+  </si>
+  <si>
+    <t>checkbox_event_creation_ProfileQuotas_ProfilesearchDaughter</t>
+  </si>
+  <si>
+    <t>checkbox_event_creation_ProfileQuotas_ProfilesearchFather</t>
+  </si>
+  <si>
+    <t>checkbox_event_creation_ProfileQuotas_ProfilesearchMother</t>
+  </si>
+  <si>
+    <t>checkbox_event_creation_ProfileQuotas_ProfilesearchPlayer</t>
+  </si>
+  <si>
+    <t>checkbox_event_creation_ProfileQuotas_ProfilesearchPlayerGuest</t>
+  </si>
+  <si>
+    <t>checkbox_event_creation_ProfileQuotas_ProfilesearchReferee</t>
+  </si>
+  <si>
+    <t>checkbox_event_creation_ProfileQuotas_ProfilesearchSon</t>
+  </si>
+  <si>
+    <t>checkbox_event_creation_ProfileQuotas_ProfilesearchSpouse</t>
+  </si>
+  <si>
+    <t>checkbox_event_creation_ProfileQuotas_ProfilesearchUmpire</t>
+  </si>
+  <si>
+    <t>text_event_creation_ProfileQuotas_ProfilesearchAccreditationCode</t>
+  </si>
+  <si>
+    <t>text_event_creation_ProfileQuotas_ProfilesearchHostCount</t>
+  </si>
+  <si>
+    <t>text_event_creation_ProfileQuotas_ProfilesearchGeneralCount</t>
+  </si>
+  <si>
+    <t>button_event_creation_ProfileQuotas_ProfileProceed</t>
+  </si>
+  <si>
+    <t>button_event_creation_ProfileQuotas_ProfileCancel</t>
+  </si>
+  <si>
+    <t>tab_event_creation_KeyPersons</t>
+  </si>
+  <si>
+    <t>button_event_creation_KeyPersonsAddNew</t>
+  </si>
+  <si>
+    <t>text_event_creation_KeyPersonssearchbar</t>
+  </si>
+  <si>
+    <t>button_event_creation_KeyPersonsProfile</t>
+  </si>
+  <si>
+    <t>text_event_creation_KeyPersonsProfilesearch</t>
+  </si>
+  <si>
+    <t>checkbox_event_creation_KeyPersonsProfileTournamentSupervisor</t>
+  </si>
+  <si>
+    <t>button_event_creation_KeyPersonsIndividualName</t>
+  </si>
+  <si>
+    <t>button_event_creation_KeyPersonsIndividualNamedownarrowicon</t>
+  </si>
+  <si>
+    <t>button_event_creation_KeyPersonsIndividualNameuparrowicon</t>
+  </si>
+  <si>
+    <t>text_event_creation_KeyPersonsIndividualNamesearch</t>
+  </si>
+  <si>
+    <t>text_event_creation_KeyPersonsIndividualNamesearchresult</t>
+  </si>
+  <si>
+    <t>toggle_event_creation_KeyPersonsactive</t>
+  </si>
+  <si>
+    <t>button_event_creation_KeyPersonsdeleteall</t>
+  </si>
+  <si>
+    <t>button_event_creation_KeyPersonsProceed</t>
+  </si>
+  <si>
+    <t>button_event_creation_KeyPersonsCancel</t>
+  </si>
+  <si>
+    <t>tab_event_creation_Dates</t>
+  </si>
+  <si>
+    <t>text_event_creation_Dates_Startingdate</t>
+  </si>
+  <si>
+    <t>text_event_creation_Dates_Enddate</t>
+  </si>
+  <si>
+    <t>tab_event_creation_Draws</t>
+  </si>
+  <si>
+    <t>button_event_creation_Draws_AddNew</t>
+  </si>
+  <si>
+    <t>button_event_creation_Draws_DrawName</t>
+  </si>
+  <si>
+    <t>button_event_creation_Draws_StartDateTime</t>
+  </si>
+  <si>
+    <t>button_event_creation_Draws_TimeZone</t>
+  </si>
+  <si>
+    <t>text_event_creation_Draws_TimeZonesearch</t>
+  </si>
+  <si>
+    <t>checkbox_event_creation_Draws_TimeZonesearchresult</t>
+  </si>
+  <si>
+    <t>text_event_creation_Draws_Venue</t>
+  </si>
+  <si>
+    <t>button_event_creation_Draws_EndDate</t>
+  </si>
+  <si>
+    <t>button_event_creation_Draws_DrawNames_AddNew</t>
+  </si>
+  <si>
+    <t>button_event_creation_Draws_DrawNames_SelectDefaultLanguageCode</t>
+  </si>
+  <si>
+    <t>button_event_creation_Draws_DrawNames_Remove</t>
+  </si>
+  <si>
+    <t>button_event_creation_Draws_DeleteAll</t>
+  </si>
+  <si>
+    <t>text_event_creation_Draws_searchbar</t>
+  </si>
+  <si>
+    <t>button_event_creation_Draws_table_view</t>
+  </si>
+  <si>
+    <t>button_event_creation_Draws_table_Edit</t>
+  </si>
+  <si>
+    <t>button_event_creation_Draws_table_Delete</t>
+  </si>
+  <si>
+    <t>text_event_creation_Draws_view_DrawName</t>
+  </si>
+  <si>
+    <t>text_event_creation_Draws_view_StartDateTime</t>
+  </si>
+  <si>
+    <t>text_event_creation_Draws_view_TimeZone</t>
+  </si>
+  <si>
+    <t>text_event_creation_Draws_view_Venue</t>
+  </si>
+  <si>
+    <t>text_event_creation_Draws_view_EndDateTime</t>
+  </si>
+  <si>
+    <t>text_event_creation_Draws_view_table_drawname</t>
+  </si>
+  <si>
+    <t>text_event_creation_Draws_view_table_Language</t>
+  </si>
+  <si>
+    <t>button_event_creation_Draws_view_close</t>
+  </si>
+  <si>
+    <t>tab_event_creation_MatchConfiguration</t>
+  </si>
+  <si>
+    <t>text_event_creation_MatchConfiguration_QuickAction</t>
+  </si>
+  <si>
+    <t>text_event_creation_MatchConfiguration_Refresh</t>
+  </si>
+  <si>
+    <t>button_event_creation_MatchConfiguration_PrefillfromMatchConfigurationTemplates</t>
+  </si>
+  <si>
+    <t>text_event_creation_MatchConfiguration__MaxPointsGame</t>
+  </si>
+  <si>
+    <t>text_event_creation_MatchConfiguration__AdvantageGame</t>
+  </si>
+  <si>
+    <t>text_event_creation_MatchConfiguration__SuddenDeathPoint</t>
+  </si>
+  <si>
+    <t>text_event_creation_MatchConfiguration__BestOfXGames</t>
+  </si>
+  <si>
+    <t>text_event_creation_MatchConfiguration__MaxChallengesCompetitor</t>
+  </si>
+  <si>
+    <t>text_event_creation_MatchConfiguration__TeamMatchTotalForXT</t>
+  </si>
+  <si>
+    <t>text_event_creation_MatchConfiguration__TeamMatchBestOfXGamesForXT</t>
+  </si>
+  <si>
+    <t>text_event_creation_MatchConfiguration_TeamMatchWinnerNumberOfGamesForXT</t>
+  </si>
+  <si>
+    <t>text_event_creation_MatchConfiguration_TeamMatchSequenceForXT</t>
+  </si>
+  <si>
+    <t>toggle_event_creation_MatchConfiguration_TTRReview</t>
+  </si>
+  <si>
+    <t>toggle_event_creation_MatchConfiguration_YellowCard</t>
+  </si>
+  <si>
+    <t>toggle_event_creation_MatchConfiguration_YellowRed1</t>
+  </si>
+  <si>
+    <t>toggle_event_creation_MatchConfiguration_YellowRed2</t>
+  </si>
+  <si>
+    <t>toggle_event_creation_MatchConfiguration_Active</t>
+  </si>
+  <si>
+    <t>text_event_creation_MatchConfiguration_MatchConfigurations_Close</t>
+  </si>
+  <si>
+    <t>button_event_creation_MatchConfiguration_MatchConfigurations_createMatchConfiguration</t>
+  </si>
+  <si>
+    <t>text_event_creation_MatchConfiguration_MatchConfigurations_createMatchConfiguration_MatchConfigName</t>
+  </si>
+  <si>
+    <t>text_event_creation_MatchConfiguration_MatchConfigurations_createMatchConfiguration_BestOfXGames</t>
+  </si>
+  <si>
+    <t>text_event_creation_MatchConfiguration_MatchConfigurations_createMatchConfiguration_MaxPointsGame</t>
+  </si>
+  <si>
+    <t>text_event_creation_MatchConfiguration_MatchConfigurations_createMatchConfiguration_AdvantageGame</t>
+  </si>
+  <si>
+    <t>text_event_creation_MatchConfiguration_MatchConfigurations_createMatchConfiguration_SuddenDeathPoint</t>
+  </si>
+  <si>
+    <t>text_event_creation_MatchConfiguration_MatchConfigurations_createMatchConfiguration_MaxChallengesCompetitor</t>
+  </si>
+  <si>
+    <t>text_event_creation_MatchConfiguration_MatchConfigurations_createMatchConfiguration_TeamMatchTotalForXT</t>
+  </si>
+  <si>
+    <t>text_event_creation_MatchConfiguration_MatchConfigurations_createMatchConfiguration_TeamMatchBestOfXGamesForXT</t>
+  </si>
+  <si>
+    <t>text_event_creation_MatchConfiguration_MatchConfigurations_createMatchConfiguration_TeamMatchSequenceForXT</t>
+  </si>
+  <si>
+    <t>toggle_event_creation_MatchConfiguration_MatchConfigurations_createMatchConfiguration_TTRReview</t>
+  </si>
+  <si>
+    <t>toggle_event_creation_MatchConfiguration_MatchConfigurations_createMatchConfiguration_YellowCard</t>
+  </si>
+  <si>
+    <t>toggle_event_creation_MatchConfiguration_MatchConfigurations_createMatchConfiguration_YellowRed1</t>
+  </si>
+  <si>
+    <t>toggle_event_creation_MatchConfiguration_MatchConfigurations_createMatchConfiguration_YellowRed2</t>
+  </si>
+  <si>
+    <t>toggle_event_creation_MatchConfiguration_MatchConfigurations_createMatchConfiguration_Active</t>
+  </si>
+  <si>
+    <t>button_event_creation_MatchConfiguration_MatchConfigurations_createMatchConfiguration_Save</t>
+  </si>
+  <si>
+    <t>button_event_creation_MatchConfiguration_MatchConfigurations_createMatchConfiguration_Cancel</t>
+  </si>
+  <si>
+    <t>tab_event_creation_Logos</t>
+  </si>
+  <si>
+    <t>button_event_creation_Logos_additem</t>
+  </si>
+  <si>
+    <t>text_event_creation_Logos_search</t>
+  </si>
+  <si>
+    <t>text_event_creation_Logos_AddLogos_LogoName</t>
+  </si>
+  <si>
+    <t>text_event_creation_Logos_AddLogos_LogoArea</t>
+  </si>
+  <si>
+    <t>button_event_creation_Logos_AddLogos_LogoType</t>
+  </si>
+  <si>
+    <t>button_event_creation_Logos_AddLogos_LogoType_QuickAction</t>
+  </si>
+  <si>
+    <t>button_event_creation_Logos_AddLogos_LogoType_addLogoTypes_Close</t>
+  </si>
+  <si>
+    <t>button_event_creation_Logos_AddLogos_LogoType_addLogoTypes_createLogoType</t>
+  </si>
+  <si>
+    <t>text_event_creation_Logos_AddLogos_LogoType_addLogoTypes_createLogoType_Type</t>
+  </si>
+  <si>
+    <t>text_event_creation_Logos_AddLogos_LogoType_addLogoTypes_createLogoType_Width</t>
+  </si>
+  <si>
+    <t>text_event_creation_Logos_AddLogos_LogoType_addLogoTypes_createLogoType_Height</t>
+  </si>
+  <si>
+    <t>toggle_event_creation_Logos_AddLogos_LogoType_addLogoTypes_createLogoType_Active</t>
+  </si>
+  <si>
+    <t>button_event_creation_Logos_AddLogos_LogoType_addLogoTypes_createLogoType_Save</t>
+  </si>
+  <si>
+    <t>button_event_creation_Logos_AddLogos_SelectImage</t>
+  </si>
+  <si>
+    <t>button_event_creation_Logos_AddLogos_Proceed</t>
+  </si>
+  <si>
+    <t>button_event_creation_Logos_AddLogos_Cancel</t>
+  </si>
+  <si>
+    <t>button_event_creation_Logos_DeleteAll</t>
+  </si>
+  <si>
+    <t>button_event_creation_Logos_table_view</t>
+  </si>
+  <si>
+    <t>button_event_creation_Logos_table_Edit</t>
+  </si>
+  <si>
+    <t>button_event_creation_Logos_table_Delete</t>
+  </si>
+  <si>
+    <t>text_event_creation_Logos_table_view_LogoName</t>
+  </si>
+  <si>
+    <t>text_event_creation_Logos_table_view_LogoType</t>
+  </si>
+  <si>
+    <t>text_event_creation_Logos_table_view_LogoArea</t>
+  </si>
+  <si>
+    <t>text_event_creation_Logos_table_view_Logo</t>
+  </si>
+  <si>
+    <t>button_event_creation_Logos_table_view_Close</t>
+  </si>
+  <si>
+    <t>tab_event_creation_Equipment</t>
+  </si>
+  <si>
+    <t>button_event_creation_Equipment_SelectedBalls</t>
+  </si>
+  <si>
+    <t>checkbox_event_creation_Equipment_SelectedBallssearchresult</t>
+  </si>
+  <si>
+    <t>button_event_creation_Equipment_SelectedBallsuparrowicon</t>
+  </si>
+  <si>
+    <t>button_event_creation_Equipment_SelectedBallsdownarrowicon</t>
+  </si>
+  <si>
+    <t>button_event_creation_Equipment_SelectedTables</t>
+  </si>
+  <si>
+    <t>checkbox_event_creation_Equipment_SelectedTablessearchresult</t>
+  </si>
+  <si>
+    <t>button_event_creation_Equipment_SelectedTablessearchuparrowicon</t>
+  </si>
+  <si>
+    <t>button_event_creation_Equipment_SelectedTablessearchdownarrowicon</t>
+  </si>
+  <si>
+    <t>button_event_creation_Equipment_SelectedNets</t>
+  </si>
+  <si>
+    <t>checkbox_event_creation_Equipment_SelectedNetsresult</t>
+  </si>
+  <si>
+    <t>button_event_creation_Equipment_SelectedNetsuparrowicon</t>
+  </si>
+  <si>
+    <t>button_event_creation_Equipment_SelectedNetsdownarrowicon</t>
+  </si>
+  <si>
+    <t>button_event_creation_Equipment_SelectedFlooring</t>
+  </si>
+  <si>
+    <t>checkbox_event_creation_Equipment_SelectedFlooringsearchresult</t>
+  </si>
+  <si>
+    <t>button_event_creation_Equipment_SelectedFlooringsearchuparrowicon</t>
+  </si>
+  <si>
+    <t>button_event_creation_Equipment_SelectedFlooringsearchdownarrowicon</t>
+  </si>
+  <si>
+    <t>text_event_creation_Equipment_NumberofCompetitionTables</t>
+  </si>
+  <si>
+    <t>text_event_creation_Equipment_NumberofPracticeTables</t>
+  </si>
+  <si>
+    <t>text_event_creation_Equipment_NumberofWarmUpTables</t>
+  </si>
+  <si>
+    <t>tab_event_creation_OnlineEntrySystem</t>
+  </si>
+  <si>
+    <t>button_event_creation_OnlineEntrySystem_DeadlineTimeZone</t>
+  </si>
+  <si>
+    <t>checkbox_event_creation_OnlineEntrySystem_DeadlineTimeZonessearchresult</t>
+  </si>
+  <si>
+    <t>button_event_creation_OnlineEntrySystem_TravelDetailsDeadline</t>
+  </si>
+  <si>
+    <t>button_event_creation_OnlineEntrySystem_CancellationDeadline</t>
+  </si>
+  <si>
+    <t>button_event_creation_OnlineEntrySystem_ParticipantRegistrationDeadline</t>
+  </si>
+  <si>
+    <t>button_event_creation_OnlineEntrySystem_AccommodationDetailsDeadline</t>
+  </si>
+  <si>
+    <t>button_event_creation_OnlineEntrySystem_VisaDetailsDeadline</t>
+  </si>
+  <si>
+    <t>toggle_event_creation_OnlineEntrySystem_EnableOES</t>
+  </si>
+  <si>
+    <t>text_event_creation_OnlineEntrySystem_MaxNoOfProfilesperPerson</t>
+  </si>
+  <si>
+    <t>button_event_creation_OnlineEntrySystem_AdditionalDeadlines_AddNew</t>
+  </si>
+  <si>
+    <t>text_event_creation_OnlineEntrySystem_AdditionalDeadlines_DeadlineName</t>
+  </si>
+  <si>
+    <t>button_event_creation_OnlineEntrySystem_AdditionalDeadlines_DeadlineName</t>
+  </si>
+  <si>
+    <t>button_event_creation_OnlineEntrySystem_AdditionalDeadlines_EndDateTime</t>
+  </si>
+  <si>
+    <t>button_event_creation_OnlineEntrySystem_AdditionalDeadlines_Proceed</t>
+  </si>
+  <si>
+    <t>button_event_creation_OnlineEntrySystem_AdditionalDeadlines_Cancel</t>
+  </si>
+  <si>
+    <t>button_event_creation_OnlineEntrySystem_AdditionalDeadlines_DeleteAll</t>
+  </si>
+  <si>
+    <t>button_event_creation_OnlineEntrySystem_AdditionalDeadlines_table_view</t>
+  </si>
+  <si>
+    <t>text_event_creation_OnlineEntrySystem_AdditionalDeadlines_table_view_DeadlineName</t>
+  </si>
+  <si>
+    <t>text_event_creation_OnlineEntrySystem_AdditionalDeadlines_table_view_StartDateTime</t>
+  </si>
+  <si>
+    <t>text_event_creation_OnlineEntrySystem_AdditionalDeadlines_table_view_EndDateTime</t>
+  </si>
+  <si>
+    <t>button_event_creation_OnlineEntrySystem_AdditionalDeadlines_table_view_Close</t>
+  </si>
+  <si>
+    <t>button_event_creation_OnlineEntrySystem_AdditionalDeadlines_table_Edit</t>
+  </si>
+  <si>
+    <t>button_event_creation_OnlineEntrySystem_AdditionalDeadlines_table_Delete</t>
+  </si>
+  <si>
+    <t>tab_event_creation_PaymentOptions</t>
+  </si>
+  <si>
+    <t>button_event_creation_PaymentOptions_AddNew</t>
+  </si>
+  <si>
+    <t>button_event_creation_PaymentOptions_PaymentAccount</t>
+  </si>
+  <si>
+    <t>checkbox_event_creation_PaymentOptions_PaymentAccountsearchSelectAll</t>
+  </si>
+  <si>
+    <t>checkbox_event_creation_PaymentOptions_PaymentAccountsearchCashCollection</t>
+  </si>
+  <si>
+    <t>checkbox_event_creation_PaymentOptions_PaymentAccountsearchStripe</t>
+  </si>
+  <si>
+    <t>checkbox_event_creation_PaymentOptions_PaymentAccountsearchTransfertoWTTBankAccount</t>
+  </si>
+  <si>
+    <t>checkbox_event_creation_PaymentOptions_Comments</t>
+  </si>
+  <si>
+    <t>toggle_event_creation_PaymentOptions_active</t>
+  </si>
+  <si>
+    <t>button_event_creation_PaymentOptions_Proceed</t>
+  </si>
+  <si>
+    <t>button_event_creation_PaymentOptions_Cancel</t>
+  </si>
+  <si>
+    <t>button_event_creation_PaymentOptions_DeleteAll</t>
+  </si>
+  <si>
+    <t>button_event_creation_PaymentOptions_view</t>
+  </si>
+  <si>
+    <t>text_event_creation_PaymentOptions_view_PaymentAccount</t>
+  </si>
+  <si>
+    <t>text_event_creation_PaymentOptions_view_Comments</t>
+  </si>
+  <si>
+    <t>text_event_creation_PaymentOptions_view_Active</t>
+  </si>
+  <si>
+    <t>button_event_creation_PaymentOptions_view_Close</t>
+  </si>
+  <si>
+    <t>button_event_creation_PaymentOptions_Edit</t>
+  </si>
+  <si>
+    <t>button_event_creation_PaymentOptions_Delete</t>
+  </si>
+  <si>
+    <t>tab_event_creation_TournamentFee</t>
+  </si>
+  <si>
+    <t>text_event_creation_TournamentFee_FeeDeposit</t>
+  </si>
+  <si>
+    <t>toggle_event_creation_TournamentFee_TurnOffFee</t>
+  </si>
+  <si>
+    <t>button_event_creation_TournamentFee_AddNew</t>
+  </si>
+  <si>
+    <t>text_event_creation_TournamentFee_searchbar</t>
+  </si>
+  <si>
+    <t>button_event_creation_TournamentFee_AddFeebyProfileType_Profile</t>
+  </si>
+  <si>
+    <t>checkbox_event_creation_TournamentFee_AddFeebyProfileType_Profileselectall</t>
+  </si>
+  <si>
+    <t>checkbox_event_creation_TournamentFee_AddFeebyProfileType_ProfileCoach</t>
+  </si>
+  <si>
+    <t>checkbox_event_creation_TournamentFee_AddFeebyProfileType_ProfileDaughter</t>
+  </si>
+  <si>
+    <t>checkbox_event_creation_TournamentFee_AddFeebyProfileType_ProfileFather</t>
+  </si>
+  <si>
+    <t>checkbox_event_creation_TournamentFee_AddFeebyProfileType_ProfileMother</t>
+  </si>
+  <si>
+    <t>checkbox_event_creation_TournamentFee_AddFeebyProfileType_ProfilePlayer</t>
+  </si>
+  <si>
+    <t>checkbox_event_creation_TournamentFee_AddFeebyProfileType_ProfilePlayerGuest</t>
+  </si>
+  <si>
+    <t>checkbox_event_creation_TournamentFee_AddFeebyProfileType_ProfileReferee</t>
+  </si>
+  <si>
+    <t>checkbox_event_creation_TournamentFee_AddFeebyProfileType_ProfileSon</t>
+  </si>
+  <si>
+    <t>checkbox_event_creation_TournamentFee_AddFeebyProfileType_ProfileSpouse</t>
+  </si>
+  <si>
+    <t>checkbox_event_creation_TournamentFee_AddFeebyProfileType_ProfileUmpire</t>
+  </si>
+  <si>
+    <t>checkbox_event_creation_TournamentFee_AddFeebyProfileType_ProfileUparrowicon</t>
+  </si>
+  <si>
+    <t>checkbox_event_creation_TournamentFee_AddFeebyProfileType_ProfileDownarrowicon</t>
+  </si>
+  <si>
+    <t>text_event_creation_TournamentFee_AddFeebyProfileType_ParticitionFee</t>
+  </si>
+  <si>
+    <t>button_event_creation_TournamentFee_AddFeebyProfileType_CancellationInformation_AddNew</t>
+  </si>
+  <si>
+    <t>text_event_creation_TournamentFee_AddFeebyProfileType_CancellationInformation_BeforeXDays</t>
+  </si>
+  <si>
+    <t>radio_event_creation_TournamentFee_AddFeebyProfileType_CancellationInformation_AmountPercentageAmount</t>
+  </si>
+  <si>
+    <t>radio_event_creation_TournamentFee_AddFeebyProfileType_CancellationInformation_AmountPercentagePercentage</t>
+  </si>
+  <si>
+    <t>text_event_creation_TournamentFee_AddFeebyProfileType_CancellationInformation_Value</t>
+  </si>
+  <si>
+    <t>toggle_event_creation_TournamentFee_AddFeebyProfileType_CancellationInformation_active</t>
+  </si>
+  <si>
+    <t>button_event_creation_TournamentFee_AddFeebyProfileType_CancellationInformation_Remove</t>
+  </si>
+  <si>
+    <t>button_event_creation_TournamentFee_AddFeebyProfileType_Proceed</t>
+  </si>
+  <si>
+    <t>button_event_creation_TournamentFee_AddFeebyProfileType_Cancel</t>
+  </si>
+  <si>
+    <t>button_event_creation_TournamentFee_DeleteAll</t>
+  </si>
+  <si>
+    <t>table_event_creation_TournamentFee_table</t>
+  </si>
+  <si>
+    <t>tab_event_creation_NonMATournamentFee</t>
+  </si>
+  <si>
+    <t>button_event_creation_NonMATournamentFee_AddNew</t>
+  </si>
+  <si>
+    <t>text_event_creation_NonMATournamentFee_searchbar</t>
+  </si>
+  <si>
+    <t>button_event_creation_NonMATournamentFee_AddNonMAFeebyProfileType_Profile</t>
+  </si>
+  <si>
+    <t>checkbox_event_creation_NonMATournamentFee_AddNonMAFeebyProfileType_ProfileSelectAll</t>
+  </si>
+  <si>
+    <t>checkbox_event_creation_NonMATournamentFee_AddNonMAFeebyProfileType_Profileresult</t>
+  </si>
+  <si>
+    <t>button_event_creation_NonMATournamentFee_AddNonMAFeebyProfileType_Profiledownarrowicon</t>
+  </si>
+  <si>
+    <t>button_event_creation_NonMATournamentFee_AddNonMAFeebyProfileType_Profileuparrowicon</t>
+  </si>
+  <si>
+    <t>text_event_creation_NonMATournamentFee_AddNonMAFeebyProfileType_ParticipationFee</t>
+  </si>
+  <si>
+    <t>button_event_creation_NonMATournamentFee_AddNonMAFeebyProfileType_Cancel</t>
+  </si>
+  <si>
+    <t>button_event_creation_NonMATournamentFee_AddNonMAFeebyProfileType_Proceed</t>
+  </si>
+  <si>
+    <t>button_event_creation_NonMATournamentFee_DeleteAll</t>
+  </si>
+  <si>
+    <t>table_event_creation_NonMATournamentFee_table</t>
+  </si>
+  <si>
+    <t>tab_event_creation_Hospitality</t>
+  </si>
+  <si>
+    <t>text_event_creation_Hospitality_AllowedFirstArrivalDate</t>
+  </si>
+  <si>
+    <t>text_event_creation_Hospitality_AllowedLastDepartureDate</t>
+  </si>
+  <si>
+    <t>toggle_event_creation_Hospitality_ForceHospitality</t>
+  </si>
+  <si>
+    <t>button_event_creation_Hospitality_AddNew</t>
+  </si>
+  <si>
+    <t>button_event_creation_Hospitality_AddHospitalityInformation_Profile</t>
+  </si>
+  <si>
+    <t>checkbox_event_creation_Hospitality_AddHospitalityInformation_Profileselectall</t>
+  </si>
+  <si>
+    <t>checkbox_event_creation_Hospitality_AddHospitalityInformation_ProfileCoach</t>
+  </si>
+  <si>
+    <t>checkbox_event_creation_Hospitality_AddHospitalityInformation_ProfileDaughter</t>
+  </si>
+  <si>
+    <t>checkbox_event_creation_Hospitality_AddHospitalityInformation_ProfileFather</t>
+  </si>
+  <si>
+    <t>checkbox_event_creation_Hospitality_AddHospitalityInformation_ProfileMother</t>
+  </si>
+  <si>
+    <t>checkbox_event_creation_Hospitality_AddHospitalityInformation_ProfilePlayer</t>
+  </si>
+  <si>
+    <t>checkbox_event_creation_Hospitality_AddHospitalityInformation_ProfilePlayerGuest</t>
+  </si>
+  <si>
+    <t>checkbox_event_creation_Hospitality_AddHospitalityInformation_ProfileReferee</t>
+  </si>
+  <si>
+    <t>checkbox_event_creation_Hospitality_AddHospitalityInformation_ProfileSon</t>
+  </si>
+  <si>
+    <t>checkbox_event_creation_Hospitality_AddHospitalityInformation_ProfileSpouse</t>
+  </si>
+  <si>
+    <t>checkbox_event_creation_Hospitality_AddHospitalityInformation_ProfileUmpire</t>
+  </si>
+  <si>
+    <t>checkbox_event_creation_Hospitality_AddHospitalityInformation_ProfileUparrowicon</t>
+  </si>
+  <si>
+    <t>checkbox_event_creation_Hospitality_AddHospitalityInformation_ProfileDownarrowicon</t>
+  </si>
+  <si>
+    <t>button_event_creation_Hospitality_AddHospitalityInformation_Accommodation</t>
+  </si>
+  <si>
+    <t>checkbox_event_creation_Hospitality_AddHospitalityInformation_Accommodationsearchresult</t>
+  </si>
+  <si>
+    <t>button_event_creation_Hospitality_AddHospitalityInformation_RoomType</t>
+  </si>
+  <si>
+    <t>checkbox_event_creation_Hospitality_AddHospitalityInformation_RoomTypesearchresult</t>
+  </si>
+  <si>
+    <t>text_event_creation_Hospitality_AddHospitalityInformation_Costpernightperson</t>
+  </si>
+  <si>
+    <t>text_event_creation_Hospitality_AddHospitalityInformation_Costwholeeventperson</t>
+  </si>
+  <si>
+    <t>text_event_creation_Hospitality_AddHospitalityInformation_CostExtraNightPerson</t>
+  </si>
+  <si>
+    <t>text_event_creation_Hospitality_AddHospitalityInformation_MinNights</t>
+  </si>
+  <si>
+    <t>text_event_creation_Hospitality_AddHospitalityInformation_EarlyCheckInCost</t>
+  </si>
+  <si>
+    <t>text_event_creation_Hospitality_AddHospitalityInformation_LateCheckOutCost</t>
+  </si>
+  <si>
+    <t>text_event_creation_Hospitality_AddHospitalityInformation_ComplimentaryNights</t>
+  </si>
+  <si>
+    <t>text_event_creation_Hospitality_AddHospitalityInformation_Description</t>
+  </si>
+  <si>
+    <t>toggle_event_creation_Hospitality_AddHospitalityInformation_Filled</t>
+  </si>
+  <si>
+    <t>toggle_event_creation_Hospitality_AddHospitalityInformation_Active</t>
+  </si>
+  <si>
+    <t>button_event_creation_Hospitality_AddHospitalityInformation_CancellationInformation_AddNew</t>
+  </si>
+  <si>
+    <t>text_event_creation_Hospitality_AddHospitalityInformation_CancellationInformation_BeforeXDays</t>
+  </si>
+  <si>
+    <t>radio_event_creation_Hospitality_AddHospitalityInformation_CancellationInformation_AmountPercentageAmount</t>
+  </si>
+  <si>
+    <t>radio_event_creation_Hospitality_AddHospitalityInformation_CancellationInformation_AmountPercentagePercentage</t>
+  </si>
+  <si>
+    <t>text_event_creation_Hospitality_AddHospitalityInformation_CancellationInformation_Value</t>
+  </si>
+  <si>
+    <t>toggle_event_creation_Hospitality_AddHospitalityInformation_CancellationInformation_active</t>
+  </si>
+  <si>
+    <t>button_event_creation_Hospitality_AddHospitalityInformation_CancellationInformation_Remove</t>
+  </si>
+  <si>
+    <t>button_event_creation_Hospitality_AddHospitalityInformation_Cancel</t>
+  </si>
+  <si>
+    <t>button_event_creation_Hospitality_AddHospitalityInformation_Proceed</t>
+  </si>
+  <si>
+    <t>button_event_creation_Hospitality_DeleteAll</t>
+  </si>
+  <si>
+    <t>table_event_creation_Hospitality_table</t>
+  </si>
+  <si>
+    <t>tab_event_creation_NonMAHospitality</t>
+  </si>
+  <si>
+    <t>button_event_creation_NonMAHospitality_AddNew</t>
+  </si>
+  <si>
+    <t>button_event_creation_NonMAHospitality_AddHospitalityInformation_Profile</t>
+  </si>
+  <si>
+    <t>checkbox_event_creation_NonMAHospitality_AddHospitalityInformation_Profileselectall</t>
+  </si>
+  <si>
+    <t>checkbox_event_creation_NonMAHospitality_AddHospitalityInformation_Profilesearchresult</t>
+  </si>
+  <si>
+    <t>checkbox_event_creation_NonMAHospitality_AddHospitalityInformation_ProfileUparrowicon</t>
+  </si>
+  <si>
+    <t>checkbox_event_creation_NonMAHospitality_AddHospitalityInformation_ProfileDownarrowicon</t>
+  </si>
+  <si>
+    <t>button_event_creation_NonMAHospitality_AddHospitalityInformation_Accommodation</t>
+  </si>
+  <si>
+    <t>checkbox_event_creation_NonMAHospitality_AddHospitalityInformation_Accommodationsearchresult</t>
+  </si>
+  <si>
+    <t>button_event_creation_NonMAHospitality_AddHospitalityInformation_RoomType</t>
+  </si>
+  <si>
+    <t>checkbox_event_creation_NonMAHospitality_AddHospitalityInformation_RoomTypesearchresult</t>
+  </si>
+  <si>
+    <t>text_event_creation_NonMAHospitality_AddHospitalityInformation_Costpernightperson</t>
+  </si>
+  <si>
+    <t>text_event_creation_NonMAHospitality_AddHospitalityInformation_Costwholeeventperson</t>
+  </si>
+  <si>
+    <t>text_event_creation_NonMAHospitality_AddHospitalityInformation_CostExtraNightPerson</t>
+  </si>
+  <si>
+    <t>text_event_creation_NonMAHospitality_AddHospitalityInformation_MinNights</t>
+  </si>
+  <si>
+    <t>text_event_creation_NonMAHospitality_AddHospitalityInformation_EarlyCheckInCost</t>
+  </si>
+  <si>
+    <t>text_event_creation_NonMAHospitality_AddHospitalityInformation_LateCheckOutCost</t>
+  </si>
+  <si>
+    <t>text_event_creation_NonMAHospitality_AddHospitalityInformation_ComplimentaryNights</t>
+  </si>
+  <si>
+    <t>text_event_creation_NonMAHospitality_AddHospitalityInformation_Description</t>
+  </si>
+  <si>
+    <t>toggle_event_creation_NonMAHospitality_AddHospitalityInformation_Filled</t>
+  </si>
+  <si>
+    <t>toggle_event_creation_NonMAHospitality_AddHospitalityInformation_Active</t>
+  </si>
+  <si>
+    <t>button_event_creation_NonMAHospitality_AddHospitalityInformation_Cancel</t>
+  </si>
+  <si>
+    <t>button_event_creation_NonMAHospitality_AddHospitalityInformation_Proceed</t>
+  </si>
+  <si>
+    <t>button_event_creation_NonMAHospitality_DeleteAll</t>
+  </si>
+  <si>
+    <t>table_event_creation_NonMAHospitality_table</t>
+  </si>
+  <si>
+    <t>tab_event_creation_Miscellaneous</t>
+  </si>
+  <si>
+    <t>button_event_creation_Miscellaneous_AddNew</t>
+  </si>
+  <si>
+    <t>text_event_creation_Miscellaneous_searchbar</t>
+  </si>
+  <si>
+    <t>text_event_creation_Miscellaneous_AddMiscellaneous_Name</t>
+  </si>
+  <si>
+    <t>text_event_creation_Miscellaneous_AddMiscellaneous_Description</t>
+  </si>
+  <si>
+    <t>text_event_creation_Miscellaneous_AddMiscellaneous_Cost</t>
+  </si>
+  <si>
+    <t>toggle_event_creation_Miscellaneous_AddMiscellaneous_IsActive</t>
+  </si>
+  <si>
+    <t>button_event_creation_Miscellaneous_AddMiscellaneous_Cancel</t>
+  </si>
+  <si>
+    <t>button_event_creation_Miscellaneous_AddMiscellaneous_Proceed</t>
+  </si>
+  <si>
+    <t>button_event_creation_Miscellaneous_DeleteAll</t>
+  </si>
+  <si>
+    <t>table_event_creation_Miscellaneous_table</t>
+  </si>
+  <si>
+    <t>tab_event_creation_Travel</t>
+  </si>
+  <si>
+    <t>button_event_creation_Travel_AddNew</t>
+  </si>
+  <si>
+    <t>text_event_creation_Travel_searchbar</t>
+  </si>
+  <si>
+    <t>text_event_creation_Travel_AddTravelInformation_Location</t>
+  </si>
+  <si>
+    <t>toggle_event_creation_Travel_AddTravelInformation_IsActive</t>
+  </si>
+  <si>
+    <t>button_event_creation_Travel_AddTravelInformation_Cancel</t>
+  </si>
+  <si>
+    <t>button_event_creation_Travel_AddTravelInformation_Proceed</t>
+  </si>
+  <si>
+    <t>button_event_creation_Travel_DeleteAll</t>
+  </si>
+  <si>
+    <t>table_event_creation_Travel_table</t>
+  </si>
+  <si>
+    <t>tab_event_creation_Transportation</t>
+  </si>
+  <si>
+    <t>button_event_creation_Transportation_AddNew</t>
+  </si>
+  <si>
+    <t>text_event_creation_Transportation_AddTransportationInformation_Name</t>
+  </si>
+  <si>
+    <t>text_event_creation_Transportation_AddTransportationInformation_PickupPlace</t>
+  </si>
+  <si>
+    <t>text_event_creation_Transportation_AddTransportationInformation_Cost</t>
+  </si>
+  <si>
+    <t>text_event_creation_Transportation_AddTransportationInformation_DropPlace</t>
+  </si>
+  <si>
+    <t>text_event_creation_Transportation_AddTransportationInformation_SeatingCapacity</t>
+  </si>
+  <si>
+    <t>toggle_event_creation_Transportation_AddTransportationInformation_InHospitalityPack</t>
+  </si>
+  <si>
+    <t>toggle_event_creation_Transportation_AddTransportationInformation_IsActive</t>
+  </si>
+  <si>
+    <t>button_event_creation_Transportation_AddTransportationInformation_TransportType</t>
+  </si>
+  <si>
+    <t>checkbox_event_creation_Transportation_AddTransportationInformation_TransportTypeCarStandardSedanHatchback</t>
+  </si>
+  <si>
+    <t>checkbox_event_creation_Transportation_AddTransportationInformation_TransportTypeLimosineStretchLuxurySedan</t>
+  </si>
+  <si>
+    <t>checkbox_event_creation_Transportation_AddTransportationInformation_TransportTypeShuttleBus</t>
+  </si>
+  <si>
+    <t>button_event_creation_Transportation_AddTransportationInformation_Cancel</t>
+  </si>
+  <si>
+    <t>button_event_creation_Transportation_AddTransportationInformation_Proceed</t>
+  </si>
+  <si>
+    <t>button_event_creation_Transportation_DeleteAll</t>
+  </si>
+  <si>
+    <t>table_event_creation_Transportation_table</t>
+  </si>
+  <si>
+    <t>tab_event_creation_Sponsors</t>
+  </si>
+  <si>
+    <t>button_event_creation_Sponsors_AddNew</t>
+  </si>
+  <si>
+    <t>text_event_creation_Sponsors_searchbar</t>
+  </si>
+  <si>
+    <t>text_event_creation_Sponsors_AddSponsorInformation_SponsorName</t>
+  </si>
+  <si>
+    <t>text_event_creation_Sponsors_AddSponsorInformation_SponsorLink</t>
+  </si>
+  <si>
+    <t>text_event_creation_Sponsors_AddSponsorInformation_Priority</t>
+  </si>
+  <si>
+    <t>button_event_creation_Sponsors_AddSponsorInformation_SponsorCoreType</t>
+  </si>
+  <si>
+    <t>checkbox_event_creation_Sponsors_AddSponsorInformation_SponsorCoreTypesearchresult</t>
+  </si>
+  <si>
+    <t>button_event_creation_Sponsors_AddSponsorInformation_SponsorType</t>
+  </si>
+  <si>
+    <t>checkbox_event_creation_Sponsors_AddSponsorInformation_SponsorTypesearchresult</t>
+  </si>
+  <si>
+    <t>button_event_creation_Sponsors_AddSponsorInformation_Organization</t>
+  </si>
+  <si>
+    <t>button_event_creation_Sponsors_AddSponsorInformation_LightLogofileuploadbutton</t>
+  </si>
+  <si>
+    <t>button_event_creation_Sponsors_AddSponsorInformation_LightLogofileuploadChangebutton</t>
+  </si>
+  <si>
+    <t>button_event_creation_Sponsors_AddSponsorInformation_LightLogoRemove</t>
+  </si>
+  <si>
+    <t>button_event_creation_Sponsors_AddSponsorInformation_DarkLogo</t>
+  </si>
+  <si>
+    <t>button_event_creation_Sponsors_AddSponsorInformation_Cancel</t>
+  </si>
+  <si>
+    <t>button_event_creation_Sponsors_AddSponsorInformation_Proceed</t>
+  </si>
+  <si>
+    <t>button_event_creation_Sponsors_SelectSponsorTemplateName</t>
+  </si>
+  <si>
+    <t>button_event_creation_Sponsors_DeleteAll</t>
+  </si>
+  <si>
+    <t>table_event_creation_Sponsors_table</t>
+  </si>
+  <si>
+    <t>tab_event_creation_Documents</t>
+  </si>
+  <si>
+    <t>button_event_creation_Documents_AddNew</t>
+  </si>
+  <si>
+    <t>text_event_creation_Documents_searchbar</t>
+  </si>
+  <si>
+    <t>text_event_creation_Documents_AddDocuments</t>
+  </si>
+  <si>
+    <t>text_event_creation_Documents_AddDocuments_DocumentTitle</t>
+  </si>
+  <si>
+    <t>text_event_creation_Documents_AddDocuments_Place</t>
+  </si>
+  <si>
+    <t>text_event_creation_Documents_AddDocuments_Version</t>
+  </si>
+  <si>
+    <t>text_event_creation_Documents_AddDocuments_Notes</t>
+  </si>
+  <si>
+    <t>toggle_event_creation_Documents_AddDocuments_Active</t>
+  </si>
+  <si>
+    <t>toggle_event_creation_Documents_AddDocuments_PublicDocument</t>
+  </si>
+  <si>
+    <t>button_event_creation_Documents_AddDocuments_DocumentType</t>
+  </si>
+  <si>
+    <t>button_event_creation_Documents_AddDocuments_Category</t>
+  </si>
+  <si>
+    <t>button_event_creation_Documents_AddDocuments_ValidFrom</t>
+  </si>
+  <si>
+    <t>button_event_creation_Documents_AddDocuments_ValidTo</t>
+  </si>
+  <si>
+    <t>button_event_creation_Documents_AddDocuments_Documentuploadbutton</t>
+  </si>
+  <si>
+    <t>button_event_creation_Documents_AddDocuments_Cancel</t>
+  </si>
+  <si>
+    <t>button_event_creation_Documents_AddDocuments_Proceed</t>
+  </si>
+  <si>
+    <t>button_event_creation_Documents_DeleteAll</t>
+  </si>
+  <si>
+    <t>table_event_creation_Documents_table</t>
+  </si>
+  <si>
+    <t>tab_event_creation_Accreditation</t>
+  </si>
+  <si>
+    <t>button_event_creation_Accreditation_AddNew</t>
+  </si>
+  <si>
+    <t>text_event_creation_Accreditation_searchbar</t>
+  </si>
+  <si>
+    <t>text_event_creation_Accreditation_AddAccreditationInformation_StartDate</t>
+  </si>
+  <si>
+    <t>text_event_creation_Accreditation_AddAccreditationInformation_EndDate</t>
+  </si>
+  <si>
+    <t>text_event_creation_Accreditation_AddAccreditationInformation_Location</t>
+  </si>
+  <si>
+    <t>text_event_creation_Accreditation_AddAccreditationInformation_Comments</t>
+  </si>
+  <si>
+    <t>button_event_creation_Accreditation_AddAccreditationInformation_Cancel</t>
+  </si>
+  <si>
+    <t>button_event_creation_Accreditation_AddAccreditationInformation_Proceed</t>
+  </si>
+  <si>
+    <t>button_event_creation_Accreditation_DeleteAll</t>
+  </si>
+  <si>
+    <t>table_event_creation_Accreditation_table</t>
+  </si>
+  <si>
+    <t>tab_event_creation_Visa</t>
+  </si>
+  <si>
+    <t>textarea_event_creation_Visa_VisaInformation</t>
+  </si>
+  <si>
+    <t>tab_event_creation_Comments</t>
+  </si>
+  <si>
+    <t>textarea_event_creation_Comments_Comments</t>
+  </si>
+  <si>
+    <t>tab_event_creation_Review</t>
+  </si>
+  <si>
+    <t>text1_event_creation_Review_Core_EventName</t>
+  </si>
+  <si>
+    <t>text1_event_creation_Review_Core_EventCoreType</t>
+  </si>
+  <si>
+    <t>text1_event_creation_Review_Core_IsClosedEvent</t>
+  </si>
+  <si>
+    <t>text1_event_creation_Review_Core_IsFrontEndPlatformVisible</t>
+  </si>
+  <si>
+    <t>text1_event_creation_Review_Core_IsBettingEnabled</t>
+  </si>
+  <si>
+    <t>text1_event_creation_Review_Core_IsAIEnabled</t>
+  </si>
+  <si>
+    <t>text1_event_creation_Review_Core_IsMastersEvent</t>
+  </si>
+  <si>
+    <t>text1_event_creation_Review_Core_Active</t>
+  </si>
+  <si>
+    <t>text1_event_creation_Review_Core_Organizer</t>
+  </si>
+  <si>
+    <t>text1_event_creation_Review_Core_ShowOrganizerinOES</t>
+  </si>
+  <si>
+    <t>text1_event_creation_Review_Core_Currency</t>
+  </si>
+  <si>
+    <t>text1_event_creation_Review_Core_Website</t>
+  </si>
+  <si>
+    <t>text1_event_creation_Review_Core_Tags</t>
+  </si>
+  <si>
+    <t>text1_event_creation_Review_Core_TournamentLogo</t>
+  </si>
+  <si>
+    <t>text1_event_creation_Review_Core_TimeZone</t>
+  </si>
+  <si>
+    <t>text1_event_creation_Review_Core_WYCDeadlineHours</t>
+  </si>
+  <si>
+    <t>text1_event_creation_Review_Core_Venue</t>
+  </si>
+  <si>
+    <t>text1_event_creation_Review_Core_GPSCoOrdinates</t>
+  </si>
+  <si>
+    <t>text1_event_creation_Review_Core_AddressLine1</t>
+  </si>
+  <si>
+    <t>text1_event_creation_Review_Core_AddressLine2</t>
+  </si>
+  <si>
+    <t>text1_event_creation_Review_Core_AddressLine3</t>
+  </si>
+  <si>
+    <t>text1_event_creation_Review_Core_City</t>
+  </si>
+  <si>
+    <t>text1_event_creation_Review_Core_State</t>
+  </si>
+  <si>
+    <t>text1_event_creation_Review_Core_Country</t>
+  </si>
+  <si>
+    <t>text1_event_creation_Review_Core_Postcode</t>
+  </si>
+  <si>
+    <t>text1_event_creation_Review_Core_TournamentCategoryGroup</t>
+  </si>
+  <si>
+    <t>text1_event_creation_Review_Core_TournamentCategory</t>
+  </si>
+  <si>
+    <t>text1_event_creation_Review_Core_TournamentAgeCategory</t>
+  </si>
+  <si>
+    <t>text1_event_creation_Review_Competition_NoofQualificationRounds</t>
+  </si>
+  <si>
+    <t>text1_event_creation_Review_Competition_NoofTotalMatches</t>
+  </si>
+  <si>
+    <t>text1_event_creation_Review_Competition_EntriesRankingYear</t>
+  </si>
+  <si>
+    <t>text1_event_creation_Review_Competition_EntriesRankingWeek</t>
+  </si>
+  <si>
+    <t>text1_event_creation_Review_Competition_EntriesRankingMonth</t>
+  </si>
+  <si>
+    <t>text1_event_creation_Review_Competition_CountRankingYear</t>
+  </si>
+  <si>
+    <t>text1_event_creation_Review_Competition_CountRankingWeek</t>
+  </si>
+  <si>
+    <t>text1_event_creation_Review_Competition_CountRankingMonth</t>
+  </si>
+  <si>
+    <t>text1_event_creation_Review_Competition_SeedingRankingYear</t>
+  </si>
+  <si>
+    <t>text1_event_creation_Review_Competition_SeedingRankingWeek</t>
+  </si>
+  <si>
+    <t>text1_event_creation_Review_Competition_SeedingRankingMonth</t>
+  </si>
+  <si>
+    <t>text1_event_creation_Review_Competition_RankingExpiryYear</t>
+  </si>
+  <si>
+    <t>text1_event_creation_Review_Competition_RankingExpiryWeek</t>
+  </si>
+  <si>
+    <t>text1_event_creation_Review_Competition_RankingExpiryMonth</t>
+  </si>
+  <si>
+    <t>text1_event_creation_Review_Competition_SystemofPlay</t>
+  </si>
+  <si>
+    <t>text1_event_creation_Review_Competition_PrizeCurrency</t>
+  </si>
+  <si>
+    <t>text1_event_creation_Review_Competition_OverallPrizeMoney</t>
+  </si>
+  <si>
+    <t>text1_event_creation_Review_Competition_PrizeMoneyTax</t>
+  </si>
+  <si>
+    <t>text1_event_creation_Review_Competition_PrizeComments</t>
+  </si>
+  <si>
+    <t>table1_event_creation_Review_Draws_table</t>
+  </si>
+  <si>
+    <t>text1_event_creation_Review_MatchConfiguration_MaxPointsGame</t>
+  </si>
+  <si>
+    <t>text1_event_creation_Review_MatchConfiguration_AdvantageGame</t>
+  </si>
+  <si>
+    <t>text1_event_creation_Review_MatchConfiguration_SuddenDeathPoint</t>
+  </si>
+  <si>
+    <t>text1_event_creation_Review_MatchConfiguration_BestOfXGames</t>
+  </si>
+  <si>
+    <t>text1_event_creation_Review_MatchConfiguration_MaxChallengesCompetitor</t>
+  </si>
+  <si>
+    <t>text1_event_creation_Review_MatchConfiguration_TeamMatchTotalForXT</t>
+  </si>
+  <si>
+    <t>text1_event_creation_Review_MatchConfiguration_TeamMatchBestOfXGamesForXT</t>
+  </si>
+  <si>
+    <t>text1_event_creation_Review_MatchConfiguration_TeamMatchWinnerNumberOfGamesForXT</t>
+  </si>
+  <si>
+    <t>text1_event_creation_Review_MatchConfiguration_TeamMatchSequenceForXT</t>
+  </si>
+  <si>
+    <t>text1_event_creation_Review_MatchConfiguration_TTRReview</t>
+  </si>
+  <si>
+    <t>text1_event_creation_Review_MatchConfiguration_YellowCard</t>
+  </si>
+  <si>
+    <t>text1_event_creation_Review_MatchConfiguration_YellowRed1</t>
+  </si>
+  <si>
+    <t>text1_event_creation_Review_MatchConfiguration_YellowRed2</t>
+  </si>
+  <si>
+    <t>text1_event_creation_Review_MatchConfiguration_Active</t>
+  </si>
+  <si>
+    <t>table1_event_creation_Review_Accreditation_table</t>
+  </si>
+  <si>
+    <t>table1_event_creation_Review_ProfileQuotas_table</t>
+  </si>
+  <si>
+    <t>table1_event_creation_Review_PaymentOptions_table</t>
+  </si>
+  <si>
+    <t>table1_event_creation_Review_KeyPersons_table</t>
+  </si>
+  <si>
+    <t>text1_event_creation_Review_Dates_StartDate</t>
+  </si>
+  <si>
+    <t>text1_event_creation_Review_Dates_EndDate</t>
+  </si>
+  <si>
+    <t>table1_event_creation_Review_Associations_table</t>
+  </si>
+  <si>
+    <t>table1_event_creation_Review_Sponsors_table</t>
+  </si>
+  <si>
+    <t>table1_event_creation_Review_Documents_table</t>
+  </si>
+  <si>
+    <t>table1_event_creation_Review_Logos_table</t>
+  </si>
+  <si>
+    <t>text1_event_creation_Review_Equipments_SelectedBalls</t>
+  </si>
+  <si>
+    <t>text1_event_creation_Review_Equipments_SelectedTables</t>
+  </si>
+  <si>
+    <t>text1_event_creation_Review_Equipments_SelectedNets</t>
+  </si>
+  <si>
+    <t>text1_event_creation_Review_Equipments_SelectedFlooring</t>
+  </si>
+  <si>
+    <t>text1_event_creation_Review_Equipments_NumberofCompetitionTables</t>
+  </si>
+  <si>
+    <t>text1_event_creation_Review_Equipments_NumberofPracticeTables</t>
+  </si>
+  <si>
+    <t>text1_event_creation_Review_Equipments_NumberofWarmUpTables</t>
+  </si>
+  <si>
+    <t>text1_event_creation_Review_OES_Currency</t>
+  </si>
+  <si>
+    <t>text1_event_creation_Review_OES_EnableOES</t>
+  </si>
+  <si>
+    <t>text1_event_creation_Review_OES_DeadlineTimeZone</t>
+  </si>
+  <si>
+    <t>text1_event_creation_Review_OES_ParticipantRegistrationDeadline</t>
+  </si>
+  <si>
+    <t>text1_event_creation_Review_OES_TravelDetailsDeadline</t>
+  </si>
+  <si>
+    <t>text1_event_creation_Review_OES_AccommodationDetailsDeadline</t>
+  </si>
+  <si>
+    <t>text1_event_creation_Review_OES_CancellationDeadline</t>
+  </si>
+  <si>
+    <t>text1_event_creation_Review_OES_VisaDetailsDeadline</t>
+  </si>
+  <si>
+    <t>text1_event_creation_Review_OES_MaxNoOfProfilesperPerson</t>
+  </si>
+  <si>
+    <t>table1_event_creation_Review_AdditionalDeadlines_table</t>
+  </si>
+  <si>
+    <t>text1_event_creation_Review_FeeDetails_Currency</t>
+  </si>
+  <si>
+    <t>text1_event_creation_Review_FeeDetails_FeeDeposit</t>
+  </si>
+  <si>
+    <t>text1_event_creation_Review_FeeDetails_TurnOffFee</t>
+  </si>
+  <si>
+    <t>table1_event_creation_Review_FeeDetails_table</t>
+  </si>
+  <si>
+    <t>text1_event_creation_Review_Hospitality_AllowedFirstArrivalDate</t>
+  </si>
+  <si>
+    <t>text1_event_creation_Review_Hospitality_AllowedLastDepartureDate</t>
+  </si>
+  <si>
+    <t>text1_event_creation_Review_Hospitality_ForceHospitality</t>
+  </si>
+  <si>
+    <t>table1_event_creation_Review_Hospitality_table</t>
+  </si>
+  <si>
+    <t>table1_event_creation_Review_Miscellaneous_table</t>
+  </si>
+  <si>
+    <t>table1_event_creation_Review_Travel_table</t>
+  </si>
+  <si>
+    <t>table1_event_creation_Review_Transportations_table</t>
+  </si>
+  <si>
+    <t>text1_event_creation_Review_Visa_VisaInformation</t>
+  </si>
+  <si>
+    <t>text1_event_creation_Review_Comments_Comments</t>
+  </si>
+  <si>
+    <t>button_event_creation_cCreate</t>
+  </si>
+  <si>
+    <t>button_event_creation_Cancels</t>
+  </si>
+  <si>
+    <t>searchtext_event_core_tab_creation_Countrysearch</t>
+  </si>
+  <si>
+    <t>searchtext_event_creation_TournamentCategory</t>
+  </si>
+  <si>
+    <t>searchtext_event_creation_Competition_PrefillfromTournamentCompetitionRoundTemplatessearch</t>
+  </si>
+  <si>
+    <t>searchtext_event_creation_Competition_EntriesRankingYearsearch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">searchtext_event_creation_Competition_EntriesRankingWeeksearch </t>
+  </si>
+  <si>
+    <t>searchtext_event_creation_Competition_CountRankingYear</t>
+  </si>
+  <si>
+    <t>searchtext_event_creation_Competition_CountRankingWeeksearch</t>
+  </si>
+  <si>
+    <t>searchtext_event_creation_Competition_SeedingRankingYearsearch</t>
+  </si>
+  <si>
+    <t>searchtext_event_creation_Competition_SeedingRankingWeeksearch</t>
+  </si>
+  <si>
+    <t>searchtext_event_creation_Competition_RankingExpiryYearsearch</t>
+  </si>
+  <si>
+    <t>searchtext_event_creation_Competition_RankingExpiryWeeksearch</t>
+  </si>
+  <si>
+    <t>bartext_event_creation_ParticipantOrganizations_Organizationsearch</t>
+  </si>
+  <si>
+    <t>searchtext_event_creation_Draws_SearchDrawName</t>
+  </si>
+  <si>
+    <t>searchtext_event_creation_Draws_DrawNames_EnterDrawName</t>
+  </si>
+  <si>
+    <t>searchtext_event_creation_MatchConfiguration_PrefillfromMatchConfigurationTemplatessearch</t>
+  </si>
+  <si>
+    <t>searchtext_event_creation_MatchConfiguration_MatchConfigurations_searchbar</t>
+  </si>
+  <si>
+    <t>searchtext_event_creation_Logos_AddLogos_LogoType_addLogoTypes_SearchbyLogoType</t>
+  </si>
+  <si>
+    <t>searchbutton_event_creation_Logos_AddLogos_SearchLogoType</t>
+  </si>
+  <si>
+    <t>bartext_event_creation_Equipment_SelectedBallssearch</t>
+  </si>
+  <si>
+    <t>bartext_event_creation_Equipment_SelectedTablessearch</t>
+  </si>
+  <si>
+    <t>bartext_event_creation_Equipment_SelectedNetssearch</t>
+  </si>
+  <si>
+    <t>bartext_event_creation_Equipment_SelectedFlooringsearch</t>
+  </si>
+  <si>
+    <t>bartext_event_creation_OnlineEntrySystem_DeadlineTimeZonessearch</t>
+  </si>
+  <si>
+    <t>bartext_event_creation_PaymentOptions_PaymentAccountsearch</t>
+  </si>
+  <si>
+    <t>bartext_event_creation_TournamentFee_AddFeebyProfileType_Profilesearch</t>
+  </si>
+  <si>
+    <t>bartext_event_creation_NonMATournamentFee_AddNonMAFeebyProfileType_ProfileSearch</t>
+  </si>
+  <si>
+    <t>bartext_event_creation_Hospitality_AddHospitalityInformation_Profilesearch</t>
+  </si>
+  <si>
+    <t>bartext_event_creation_Hospitality_AddHospitalityInformation_Accommodationsearch</t>
+  </si>
+  <si>
+    <t>bartext_event_creation_Hospitality_AddHospitalityInformation_RoomTypesearch</t>
+  </si>
+  <si>
+    <t>bartext_event_creation_NonMAHospitality_AddHospitalityInformation_Profilesearch</t>
+  </si>
+  <si>
+    <t>bartext_event_creation_NonMAHospitality_AddHospitalityInformation_Accommodationsearch</t>
+  </si>
+  <si>
+    <t>bartext_event_creation_NonMAHospitality_AddHospitalityInformation_RoomTypesearch</t>
+  </si>
+  <si>
+    <t>bartext_event_creation_Transportation_AddTransportationInformation_TransportTypesearch</t>
+  </si>
+  <si>
+    <t>bartext_event_creation_Sponsors_AddSponsorInformation_SponsorCoreTypesearch</t>
+  </si>
+  <si>
+    <t>bartext_event_creation_Sponsors_AddSponsorInformation_SponsorTypesearch</t>
+  </si>
+  <si>
+    <t>searchtext_event_creation_Sponsors_AddSponsorInformation_SearchOrganization</t>
+  </si>
+  <si>
+    <t>searchtext_event_creation_Sponsors_SelectSponsorTemplateNamesearch</t>
+  </si>
+  <si>
+    <t>searchtext_event_creation_Documents_AddDocuments_DocumentTypesearch</t>
+  </si>
+  <si>
+    <t>searchtext_event_creation_Documents_AddDocuments_Categorysearch</t>
+  </si>
+  <si>
+    <t>ITTF</t>
+  </si>
+  <si>
+    <t>searchtext_event_core_tab_creation_searchEventCoreType</t>
+  </si>
+  <si>
+    <t>searchtext_event_core_tab_creation_SelectVenuesearch</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>searchtext_event_core_tab_creation_SelectOrganizationsearch</t>
+  </si>
+  <si>
+    <t>searchtext_event_creation_SelectCurrencysearch</t>
+  </si>
+  <si>
+    <t>searchtext_event_core_tab_creation_SelectTimeZonesearch</t>
+  </si>
+  <si>
+    <t>Event_name</t>
+  </si>
+  <si>
+    <t>SG</t>
+  </si>
+  <si>
+    <t>UTC</t>
+  </si>
+  <si>
+    <t>Tets</t>
+  </si>
+  <si>
+    <t>india</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>searchtext_event_creation_TournamentAgeCategorysearch</t>
+  </si>
+  <si>
+    <t>searchtext_event_creation_TournamentCategoryGroupsearch</t>
+  </si>
+  <si>
+    <t>button_event_creation_TournamentCategory</t>
+  </si>
+  <si>
+    <t>wtt</t>
   </si>
 </sst>
 </file>
@@ -56,25 +1892,18 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <sz val="10"/>
+      <color rgb="FF7F0055"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -91,7 +1920,9 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -372,34 +2203,3689 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:WI2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="AJ1" workbookViewId="0">
+      <selection activeCell="AL3" sqref="AL3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="38.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="57.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="54.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="40.25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="53.75" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="41.125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="42.125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="45.625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="30.375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="33" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="41.125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="50.25" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="53.75" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="47.5" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="43.875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="41.125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="50.25" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="36.625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="40.25" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="39.375" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="44.75" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="52" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="27.625" bestFit="1" customWidth="1"/>
+    <col min="607" max="607" width="26.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:607" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BV1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BW1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BX1" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="BY1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="CA1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="CB1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="CC1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="CD1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="CE1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="CF1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="CG1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="CH1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="CI1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="CJ1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="CK1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="CL1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="CM1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="CN1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="CO1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="CP1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="CQ1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="CR1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="CS1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="CT1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CU1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CV1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CW1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CX1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CY1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CZ1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="DA1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="DB1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="DC1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="DD1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="DE1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="DF1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="DG1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="DH1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="DI1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="DJ1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="DK1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="DL1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="DM1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="DN1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="DO1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="DP1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="DQ1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="DR1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="DS1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="DT1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="DU1" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="DV1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="DW1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="DX1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="DY1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="DZ1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="EA1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="EB1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="EC1" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="ED1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="EE1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="EF1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="EG1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="EH1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="EI1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="EJ1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="EK1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="EL1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="EM1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="EN1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="EO1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="EP1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="EQ1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="ER1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="ES1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="ET1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="EU1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="EV1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="EW1" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="EX1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="EY1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="EZ1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="FA1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="FB1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="FC1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="FD1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="FE1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="FF1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="FG1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="FH1" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="FI1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="FJ1" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="FK1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="FL1" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="FM1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="FN1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="FO1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="FP1" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="FQ1" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="FR1" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="FS1" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="FT1" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="FU1" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="FV1" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="FW1" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="FX1" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="FY1" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="FZ1" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="GA1" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="GB1" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="GC1" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="GD1" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="GE1" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="GF1" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="GG1" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="GH1" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="GI1" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="GJ1" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="GK1" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="GL1" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="GM1" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="GN1" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="GO1" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="GP1" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="GQ1" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="GR1" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="GS1" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="GT1" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="GU1" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="GV1" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="GW1" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="GX1" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="GY1" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="GZ1" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="HA1" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="HB1" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="HC1" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="HD1" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="HE1" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="HF1" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="HG1" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="HH1" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="HI1" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="HJ1" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="HK1" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="HL1" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="HM1" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="HN1" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="HO1" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="HP1" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="HQ1" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="HR1" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="HS1" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="HT1" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="HU1" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="HV1" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="HW1" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="HX1" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="HY1" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="HZ1" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="IA1" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="IB1" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="IC1" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="ID1" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="IE1" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="IF1" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="IG1" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="IH1" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="II1" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="IJ1" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="IK1" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="IL1" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="IM1" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="IN1" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="IO1" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="IP1" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="IQ1" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="IR1" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="IS1" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="IT1" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="IU1" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="IV1" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="IW1" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="IX1" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="IY1" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="IZ1" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="JA1" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="JB1" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="JC1" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="JD1" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="JE1" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="JF1" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="JG1" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="JH1" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="JI1" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="JJ1" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="JK1" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="JL1" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="JM1" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="JN1" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="JO1" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="JP1" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="JQ1" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="JR1" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="JS1" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="JT1" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="JU1" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="JV1" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="JW1" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="JX1" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="JY1" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="JZ1" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="KA1" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="KB1" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="KC1" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="KD1" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="KE1" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="KF1" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="KG1" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="KH1" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="KI1" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="KJ1" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="KK1" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="KL1" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="KM1" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="KN1" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="KO1" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="KP1" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="KQ1" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="KR1" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="KS1" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="KT1" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="KU1" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="KV1" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="KW1" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="KX1" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="KY1" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="KZ1" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="LA1" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="LB1" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="LC1" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="LD1" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="LE1" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="LF1" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="LG1" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="LH1" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="LI1" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="LJ1" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="LK1" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="LL1" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="LM1" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="LN1" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="LO1" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="LP1" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="LQ1" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="LR1" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="LS1" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="LT1" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="LU1" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="LV1" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="LW1" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="LX1" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="LY1" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="LZ1" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="MA1" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="MB1" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="MC1" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="MD1" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="ME1" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="MF1" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="MG1" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="MH1" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="MI1" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="MJ1" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="MK1" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="ML1" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="MM1" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="MN1" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="MO1" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="MP1" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="MQ1" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="MR1" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="MS1" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="MT1" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="MU1" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="MV1" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="MW1" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="MX1" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="MY1" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="MZ1" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="NA1" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="NB1" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="NC1" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="ND1" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="NE1" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="NF1" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="NG1" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="NH1" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="NI1" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="NJ1" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="NK1" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="NL1" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="NM1" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="NN1" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="NO1" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="NP1" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="NQ1" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="NR1" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="NS1" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="NT1" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="NU1" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="NV1" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="NW1" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="NX1" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="NY1" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="NZ1" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="OA1" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="OB1" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="OC1" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="OD1" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="OE1" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="OF1" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="OG1" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="OH1" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="OI1" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="OJ1" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="OK1" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="OL1" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="OM1" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="ON1" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="OO1" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="OP1" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="OQ1" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="OR1" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="OS1" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="OT1" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="OU1" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="OV1" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="OW1" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="OX1" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="OY1" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="OZ1" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="PA1" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="PB1" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="PC1" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="PD1" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="PE1" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="PF1" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="PG1" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="PH1" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="PI1" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="PJ1" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="PK1" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="PL1" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="PM1" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="PN1" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="PO1" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="PP1" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="PQ1" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="PR1" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="PS1" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="PT1" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="PU1" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="PV1" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="PW1" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="PX1" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="PY1" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="PZ1" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="QA1" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="QB1" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="QC1" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="QD1" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="QE1" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="QF1" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="QG1" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="QH1" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="QI1" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="QJ1" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="QK1" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="QL1" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="QM1" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="QN1" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="QO1" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="QP1" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="QQ1" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="QR1" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="QS1" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="QT1" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="QU1" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="QV1" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="QW1" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="QX1" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="QY1" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="QZ1" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="RA1" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="RB1" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="RC1" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="RD1" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="RE1" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="RF1" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="RG1" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="RH1" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="RI1" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="RJ1" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="RK1" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="RL1" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="RM1" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="RN1" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="RO1" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="RP1" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="RQ1" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="RR1" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="RS1" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="RT1" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="RU1" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="RV1" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="RW1" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="RX1" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="RY1" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="RZ1" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="SA1" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="SB1" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="SC1" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="SD1" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="SE1" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="SF1" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="SG1" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="SH1" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="SI1" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="SJ1" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="SK1" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="SL1" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="SM1" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="SN1" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="SO1" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="SP1" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="SQ1" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="SR1" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="SS1" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="ST1" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="SU1" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="SV1" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="SW1" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="SX1" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="SY1" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="SZ1" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="TA1" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="TB1" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="TC1" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="TD1" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="TE1" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="TF1" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="TG1" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="TH1" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="TI1" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="TJ1" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="TK1" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="TL1" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="TM1" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="TN1" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="TO1" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="TP1" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="TQ1" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="TR1" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="TS1" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="TT1" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="TU1" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="TV1" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="TW1" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="TX1" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="TY1" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="TZ1" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="UA1" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="UB1" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="UC1" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="UD1" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="UE1" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="UF1" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="UG1" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="UH1" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="UI1" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="UJ1" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="UK1" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="UL1" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="UM1" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="UN1" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="UO1" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="UP1" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="UQ1" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="UR1" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="US1" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="UT1" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="UU1" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="UV1" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="UW1" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="UX1" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="UY1" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="UZ1" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="VA1" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="VB1" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="VC1" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="VD1" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="VE1" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="VF1" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="VG1" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="VH1" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="VI1" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="VJ1" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="VK1" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="VL1" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="VM1" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="VN1" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="VO1" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="VP1" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="VQ1" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="VR1" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="VS1" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="VT1" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="VU1" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="VV1" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="VW1" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="VX1" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="VY1" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="VZ1" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="WA1" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="WB1" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="WC1" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="WD1" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="WE1" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="WF1" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="WG1" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="WH1" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="WI1" s="1" t="s">
+        <v>559</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:607" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>602</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>602</v>
+      </c>
+      <c r="C2" t="s">
+        <v>606</v>
+      </c>
+      <c r="D2" t="s">
+        <v>602</v>
+      </c>
+      <c r="E2" t="s">
+        <v>599</v>
+      </c>
+      <c r="F2" t="s">
+        <v>602</v>
+      </c>
+      <c r="G2" t="s">
+        <v>602</v>
+      </c>
+      <c r="H2" t="s">
+        <v>602</v>
+      </c>
+      <c r="I2" t="s">
+        <v>602</v>
+      </c>
+      <c r="J2" t="s">
+        <v>602</v>
+      </c>
+      <c r="K2" t="s">
+        <v>602</v>
+      </c>
+      <c r="L2" t="s">
+        <v>602</v>
+      </c>
+      <c r="M2" t="s">
+        <v>602</v>
+      </c>
+      <c r="N2" t="s">
+        <v>602</v>
+      </c>
+      <c r="O2" t="s">
+        <v>602</v>
+      </c>
+      <c r="P2" t="s">
+        <v>607</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>602</v>
+      </c>
+      <c r="R2" t="s">
+        <v>602</v>
+      </c>
+      <c r="S2" t="s">
+        <v>602</v>
+      </c>
+      <c r="T2" t="s">
+        <v>602</v>
+      </c>
+      <c r="U2" t="s">
+        <v>602</v>
+      </c>
+      <c r="V2" t="s">
+        <v>608</v>
+      </c>
+      <c r="W2" t="s">
+        <v>602</v>
+      </c>
+      <c r="X2" t="s">
+        <v>602</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>609</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>602</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>602</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>602</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>602</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>602</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>602</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>602</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>610</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>602</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>602</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>615</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>602</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>615</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>602</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>611</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>602</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>602</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>602</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>602</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>602</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>602</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>602</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>602</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>602</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>602</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>602</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>602</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>602</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>602</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>602</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>602</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>602</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>602</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>602</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>602</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>602</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>602</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>602</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>602</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>602</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>602</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>602</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>602</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>602</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>602</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>602</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>602</v>
+      </c>
+      <c r="BU2" t="s">
+        <v>602</v>
+      </c>
+      <c r="BV2" t="s">
+        <v>602</v>
+      </c>
+      <c r="BW2" t="s">
+        <v>602</v>
+      </c>
+      <c r="BX2" t="s">
+        <v>602</v>
+      </c>
+      <c r="BY2" t="s">
+        <v>602</v>
+      </c>
+      <c r="BZ2" t="s">
+        <v>602</v>
+      </c>
+      <c r="CA2" t="s">
+        <v>602</v>
+      </c>
+      <c r="CB2" t="s">
+        <v>602</v>
+      </c>
+      <c r="CC2" t="s">
+        <v>602</v>
+      </c>
+      <c r="CD2" t="s">
+        <v>602</v>
+      </c>
+      <c r="CE2" t="s">
+        <v>602</v>
+      </c>
+      <c r="CF2" t="s">
+        <v>602</v>
+      </c>
+      <c r="CG2" t="s">
+        <v>602</v>
+      </c>
+      <c r="CH2" t="s">
+        <v>602</v>
+      </c>
+      <c r="CI2" t="s">
+        <v>602</v>
+      </c>
+      <c r="CJ2" t="s">
+        <v>602</v>
+      </c>
+      <c r="CK2" t="s">
+        <v>602</v>
+      </c>
+      <c r="CL2" t="s">
+        <v>602</v>
+      </c>
+      <c r="CM2" t="s">
+        <v>602</v>
+      </c>
+      <c r="CN2" t="s">
+        <v>602</v>
+      </c>
+      <c r="CO2" t="s">
+        <v>602</v>
+      </c>
+      <c r="CP2" t="s">
+        <v>602</v>
+      </c>
+      <c r="CQ2" t="s">
+        <v>602</v>
+      </c>
+      <c r="CR2" t="s">
+        <v>602</v>
+      </c>
+      <c r="CS2" t="s">
+        <v>602</v>
+      </c>
+      <c r="CT2" t="s">
+        <v>602</v>
+      </c>
+      <c r="CU2" t="s">
+        <v>602</v>
+      </c>
+      <c r="CV2" t="s">
+        <v>602</v>
+      </c>
+      <c r="CW2" t="s">
+        <v>602</v>
+      </c>
+      <c r="CX2" t="s">
+        <v>602</v>
+      </c>
+      <c r="CY2" t="s">
+        <v>602</v>
+      </c>
+      <c r="CZ2" t="s">
+        <v>602</v>
+      </c>
+      <c r="DA2" t="s">
+        <v>602</v>
+      </c>
+      <c r="DB2" t="s">
+        <v>602</v>
+      </c>
+      <c r="DC2" t="s">
+        <v>602</v>
+      </c>
+      <c r="DD2" t="s">
+        <v>602</v>
+      </c>
+      <c r="DE2" t="s">
+        <v>602</v>
+      </c>
+      <c r="DF2" t="s">
+        <v>602</v>
+      </c>
+      <c r="DG2" t="s">
+        <v>602</v>
+      </c>
+      <c r="DH2" t="s">
+        <v>602</v>
+      </c>
+      <c r="DI2" t="s">
+        <v>602</v>
+      </c>
+      <c r="DJ2" t="s">
+        <v>602</v>
+      </c>
+      <c r="DK2" t="s">
+        <v>602</v>
+      </c>
+      <c r="DL2" t="s">
+        <v>602</v>
+      </c>
+      <c r="DM2" t="s">
+        <v>602</v>
+      </c>
+      <c r="DN2" t="s">
+        <v>602</v>
+      </c>
+      <c r="DO2" t="s">
+        <v>602</v>
+      </c>
+      <c r="DP2" t="s">
+        <v>602</v>
+      </c>
+      <c r="DQ2" t="s">
+        <v>602</v>
+      </c>
+      <c r="DR2" t="s">
+        <v>602</v>
+      </c>
+      <c r="DS2" t="s">
+        <v>602</v>
+      </c>
+      <c r="DT2" t="s">
+        <v>602</v>
+      </c>
+      <c r="DU2" t="s">
+        <v>602</v>
+      </c>
+      <c r="DV2" t="s">
+        <v>602</v>
+      </c>
+      <c r="DW2" t="s">
+        <v>602</v>
+      </c>
+      <c r="DX2" t="s">
+        <v>602</v>
+      </c>
+      <c r="DY2" t="s">
+        <v>602</v>
+      </c>
+      <c r="DZ2" t="s">
+        <v>602</v>
+      </c>
+      <c r="EA2" t="s">
+        <v>602</v>
+      </c>
+      <c r="EB2" t="s">
+        <v>602</v>
+      </c>
+      <c r="EC2" t="s">
+        <v>602</v>
+      </c>
+      <c r="ED2" t="s">
+        <v>602</v>
+      </c>
+      <c r="EE2" t="s">
+        <v>602</v>
+      </c>
+      <c r="EF2" t="s">
+        <v>602</v>
+      </c>
+      <c r="EG2" t="s">
+        <v>602</v>
+      </c>
+      <c r="EH2" t="s">
+        <v>602</v>
+      </c>
+      <c r="EI2" t="s">
+        <v>602</v>
+      </c>
+      <c r="EJ2" t="s">
+        <v>602</v>
+      </c>
+      <c r="EK2" t="s">
+        <v>602</v>
+      </c>
+      <c r="EL2" t="s">
+        <v>602</v>
+      </c>
+      <c r="EM2" t="s">
+        <v>602</v>
+      </c>
+      <c r="EN2" t="s">
+        <v>602</v>
+      </c>
+      <c r="EO2" t="s">
+        <v>602</v>
+      </c>
+      <c r="EP2" t="s">
+        <v>602</v>
+      </c>
+      <c r="EQ2" t="s">
+        <v>602</v>
+      </c>
+      <c r="ER2" t="s">
+        <v>602</v>
+      </c>
+      <c r="ES2" t="s">
+        <v>602</v>
+      </c>
+      <c r="ET2" t="s">
+        <v>602</v>
+      </c>
+      <c r="EU2" t="s">
+        <v>602</v>
+      </c>
+      <c r="EV2" t="s">
+        <v>602</v>
+      </c>
+      <c r="EW2" t="s">
+        <v>602</v>
+      </c>
+      <c r="EX2" t="s">
+        <v>602</v>
+      </c>
+      <c r="EY2" t="s">
+        <v>602</v>
+      </c>
+      <c r="EZ2" t="s">
+        <v>602</v>
+      </c>
+      <c r="FA2" t="s">
+        <v>602</v>
+      </c>
+      <c r="FB2" t="s">
+        <v>602</v>
+      </c>
+      <c r="FC2" t="s">
+        <v>602</v>
+      </c>
+      <c r="FD2" t="s">
+        <v>602</v>
+      </c>
+      <c r="FE2" t="s">
+        <v>602</v>
+      </c>
+      <c r="FF2" t="s">
+        <v>602</v>
+      </c>
+      <c r="FG2" t="s">
+        <v>602</v>
+      </c>
+      <c r="FH2" t="s">
+        <v>602</v>
+      </c>
+      <c r="FI2" t="s">
+        <v>602</v>
+      </c>
+      <c r="FJ2" t="s">
+        <v>602</v>
+      </c>
+      <c r="FK2" t="s">
+        <v>602</v>
+      </c>
+      <c r="FL2" t="s">
+        <v>602</v>
+      </c>
+      <c r="FM2" t="s">
+        <v>602</v>
+      </c>
+      <c r="FN2" t="s">
+        <v>602</v>
+      </c>
+      <c r="FO2" t="s">
+        <v>602</v>
+      </c>
+      <c r="FP2" t="s">
+        <v>602</v>
+      </c>
+      <c r="FQ2" t="s">
+        <v>602</v>
+      </c>
+      <c r="FR2" t="s">
+        <v>602</v>
+      </c>
+      <c r="FS2" t="s">
+        <v>602</v>
+      </c>
+      <c r="FT2" t="s">
+        <v>602</v>
+      </c>
+      <c r="FU2" t="s">
+        <v>602</v>
+      </c>
+      <c r="FV2" t="s">
+        <v>602</v>
+      </c>
+      <c r="FW2" t="s">
+        <v>602</v>
+      </c>
+      <c r="FX2" t="s">
+        <v>602</v>
+      </c>
+      <c r="FY2" t="s">
+        <v>602</v>
+      </c>
+      <c r="FZ2" t="s">
+        <v>602</v>
+      </c>
+      <c r="GA2" t="s">
+        <v>602</v>
+      </c>
+      <c r="GB2" t="s">
+        <v>602</v>
+      </c>
+      <c r="GC2" t="s">
+        <v>602</v>
+      </c>
+      <c r="GD2" t="s">
+        <v>602</v>
+      </c>
+      <c r="GE2" t="s">
+        <v>602</v>
+      </c>
+      <c r="GF2" t="s">
+        <v>602</v>
+      </c>
+      <c r="GG2" t="s">
+        <v>602</v>
+      </c>
+      <c r="GH2" t="s">
+        <v>602</v>
+      </c>
+      <c r="GI2" t="s">
+        <v>602</v>
+      </c>
+      <c r="GJ2" t="s">
+        <v>602</v>
+      </c>
+      <c r="GK2" t="s">
+        <v>602</v>
+      </c>
+      <c r="GL2" t="s">
+        <v>602</v>
+      </c>
+      <c r="GM2" t="s">
+        <v>602</v>
+      </c>
+      <c r="GN2" t="s">
+        <v>602</v>
+      </c>
+      <c r="GO2" t="s">
+        <v>602</v>
+      </c>
+      <c r="GP2" t="s">
+        <v>602</v>
+      </c>
+      <c r="GQ2" t="s">
+        <v>602</v>
+      </c>
+      <c r="GR2" t="s">
+        <v>602</v>
+      </c>
+      <c r="GS2" t="s">
+        <v>602</v>
+      </c>
+      <c r="GT2" t="s">
+        <v>602</v>
+      </c>
+      <c r="GU2" t="s">
+        <v>602</v>
+      </c>
+      <c r="GV2" t="s">
+        <v>602</v>
+      </c>
+      <c r="GW2" t="s">
+        <v>602</v>
+      </c>
+      <c r="GX2" t="s">
+        <v>602</v>
+      </c>
+      <c r="GY2" t="s">
+        <v>602</v>
+      </c>
+      <c r="GZ2" t="s">
+        <v>602</v>
+      </c>
+      <c r="HA2" t="s">
+        <v>602</v>
+      </c>
+      <c r="HB2" t="s">
+        <v>602</v>
+      </c>
+      <c r="HC2" t="s">
+        <v>602</v>
+      </c>
+      <c r="HD2" t="s">
+        <v>602</v>
+      </c>
+      <c r="HE2" t="s">
+        <v>602</v>
+      </c>
+      <c r="HF2" t="s">
+        <v>602</v>
+      </c>
+      <c r="HG2" t="s">
+        <v>602</v>
+      </c>
+      <c r="HH2" t="s">
+        <v>602</v>
+      </c>
+      <c r="HI2" t="s">
+        <v>602</v>
+      </c>
+      <c r="HJ2" t="s">
+        <v>602</v>
+      </c>
+      <c r="HK2" t="s">
+        <v>602</v>
+      </c>
+      <c r="HL2" t="s">
+        <v>602</v>
+      </c>
+      <c r="HM2" t="s">
+        <v>602</v>
+      </c>
+      <c r="HN2" t="s">
+        <v>602</v>
+      </c>
+      <c r="HO2" t="s">
+        <v>602</v>
+      </c>
+      <c r="HP2" t="s">
+        <v>602</v>
+      </c>
+      <c r="HQ2" t="s">
+        <v>602</v>
+      </c>
+      <c r="HR2" t="s">
+        <v>602</v>
+      </c>
+      <c r="HS2" t="s">
+        <v>602</v>
+      </c>
+      <c r="HT2" t="s">
+        <v>602</v>
+      </c>
+      <c r="HU2" t="s">
+        <v>602</v>
+      </c>
+      <c r="HV2" t="s">
+        <v>602</v>
+      </c>
+      <c r="HW2" t="s">
+        <v>602</v>
+      </c>
+      <c r="HX2" t="s">
+        <v>602</v>
+      </c>
+      <c r="HY2" t="s">
+        <v>602</v>
+      </c>
+      <c r="HZ2" t="s">
+        <v>602</v>
+      </c>
+      <c r="IA2" t="s">
+        <v>602</v>
+      </c>
+      <c r="IB2" t="s">
+        <v>602</v>
+      </c>
+      <c r="IC2" t="s">
+        <v>602</v>
+      </c>
+      <c r="ID2" t="s">
+        <v>602</v>
+      </c>
+      <c r="IE2" t="s">
+        <v>602</v>
+      </c>
+      <c r="IF2" t="s">
+        <v>602</v>
+      </c>
+      <c r="IG2" t="s">
+        <v>602</v>
+      </c>
+      <c r="IH2" t="s">
+        <v>602</v>
+      </c>
+      <c r="II2" t="s">
+        <v>602</v>
+      </c>
+      <c r="IJ2" t="s">
+        <v>602</v>
+      </c>
+      <c r="IK2" t="s">
+        <v>602</v>
+      </c>
+      <c r="IL2" t="s">
+        <v>602</v>
+      </c>
+      <c r="IM2" t="s">
+        <v>602</v>
+      </c>
+      <c r="IN2" t="s">
+        <v>602</v>
+      </c>
+      <c r="IO2" t="s">
+        <v>602</v>
+      </c>
+      <c r="IP2" t="s">
+        <v>602</v>
+      </c>
+      <c r="IQ2" t="s">
+        <v>602</v>
+      </c>
+      <c r="IR2" t="s">
+        <v>602</v>
+      </c>
+      <c r="IS2" t="s">
+        <v>602</v>
+      </c>
+      <c r="IT2" t="s">
+        <v>602</v>
+      </c>
+      <c r="IU2" t="s">
+        <v>602</v>
+      </c>
+      <c r="IV2" t="s">
+        <v>602</v>
+      </c>
+      <c r="IW2" t="s">
+        <v>602</v>
+      </c>
+      <c r="IX2" t="s">
+        <v>602</v>
+      </c>
+      <c r="IY2" t="s">
+        <v>602</v>
+      </c>
+      <c r="IZ2" t="s">
+        <v>602</v>
+      </c>
+      <c r="JA2" t="s">
+        <v>602</v>
+      </c>
+      <c r="JB2" t="s">
+        <v>602</v>
+      </c>
+      <c r="JC2" t="s">
+        <v>602</v>
+      </c>
+      <c r="JD2" t="s">
+        <v>602</v>
+      </c>
+      <c r="JE2" t="s">
+        <v>602</v>
+      </c>
+      <c r="JF2" t="s">
+        <v>602</v>
+      </c>
+      <c r="JG2" t="s">
+        <v>602</v>
+      </c>
+      <c r="JH2" t="s">
+        <v>602</v>
+      </c>
+      <c r="JI2" t="s">
+        <v>602</v>
+      </c>
+      <c r="JJ2" t="s">
+        <v>602</v>
+      </c>
+      <c r="JK2" t="s">
+        <v>602</v>
+      </c>
+      <c r="JL2" t="s">
+        <v>602</v>
+      </c>
+      <c r="JM2" t="s">
+        <v>602</v>
+      </c>
+      <c r="JN2" t="s">
+        <v>602</v>
+      </c>
+      <c r="JO2" t="s">
+        <v>602</v>
+      </c>
+      <c r="JP2" t="s">
+        <v>602</v>
+      </c>
+      <c r="JQ2" t="s">
+        <v>602</v>
+      </c>
+      <c r="JR2" t="s">
+        <v>602</v>
+      </c>
+      <c r="JS2" t="s">
+        <v>602</v>
+      </c>
+      <c r="JT2" t="s">
+        <v>602</v>
+      </c>
+      <c r="JU2" t="s">
+        <v>602</v>
+      </c>
+      <c r="JV2" t="s">
+        <v>602</v>
+      </c>
+      <c r="JW2" t="s">
+        <v>602</v>
+      </c>
+      <c r="JX2" t="s">
+        <v>602</v>
+      </c>
+      <c r="JY2" t="s">
+        <v>602</v>
+      </c>
+      <c r="JZ2" t="s">
+        <v>602</v>
+      </c>
+      <c r="KA2" t="s">
+        <v>602</v>
+      </c>
+      <c r="KB2" t="s">
+        <v>602</v>
+      </c>
+      <c r="KC2" t="s">
+        <v>602</v>
+      </c>
+      <c r="KD2" t="s">
+        <v>602</v>
+      </c>
+      <c r="KE2" t="s">
+        <v>602</v>
+      </c>
+      <c r="KF2" t="s">
+        <v>602</v>
+      </c>
+      <c r="KG2" t="s">
+        <v>602</v>
+      </c>
+      <c r="KH2" t="s">
+        <v>602</v>
+      </c>
+      <c r="KI2" t="s">
+        <v>602</v>
+      </c>
+      <c r="KJ2" t="s">
+        <v>602</v>
+      </c>
+      <c r="KK2" t="s">
+        <v>602</v>
+      </c>
+      <c r="KL2" t="s">
+        <v>602</v>
+      </c>
+      <c r="KM2" t="s">
+        <v>602</v>
+      </c>
+      <c r="KN2" t="s">
+        <v>602</v>
+      </c>
+      <c r="KO2" t="s">
+        <v>602</v>
+      </c>
+      <c r="KP2" t="s">
+        <v>602</v>
+      </c>
+      <c r="KQ2" t="s">
+        <v>602</v>
+      </c>
+      <c r="KR2" t="s">
+        <v>602</v>
+      </c>
+      <c r="KS2" t="s">
+        <v>602</v>
+      </c>
+      <c r="KT2" t="s">
+        <v>602</v>
+      </c>
+      <c r="KU2" t="s">
+        <v>602</v>
+      </c>
+      <c r="KV2" t="s">
+        <v>602</v>
+      </c>
+      <c r="KW2" t="s">
+        <v>602</v>
+      </c>
+      <c r="KX2" t="s">
+        <v>602</v>
+      </c>
+      <c r="KY2" t="s">
+        <v>602</v>
+      </c>
+      <c r="KZ2" t="s">
+        <v>602</v>
+      </c>
+      <c r="LA2" t="s">
+        <v>602</v>
+      </c>
+      <c r="LB2" t="s">
+        <v>602</v>
+      </c>
+      <c r="LC2" t="s">
+        <v>602</v>
+      </c>
+      <c r="LD2" t="s">
+        <v>602</v>
+      </c>
+      <c r="LE2" t="s">
+        <v>602</v>
+      </c>
+      <c r="LF2" t="s">
+        <v>602</v>
+      </c>
+      <c r="LG2" t="s">
+        <v>602</v>
+      </c>
+      <c r="LH2" t="s">
+        <v>602</v>
+      </c>
+      <c r="LI2" t="s">
+        <v>602</v>
+      </c>
+      <c r="LJ2" t="s">
+        <v>602</v>
+      </c>
+      <c r="LK2" t="s">
+        <v>602</v>
+      </c>
+      <c r="LL2" t="s">
+        <v>602</v>
+      </c>
+      <c r="LM2" t="s">
+        <v>602</v>
+      </c>
+      <c r="LN2" t="s">
+        <v>602</v>
+      </c>
+      <c r="LO2" t="s">
+        <v>602</v>
+      </c>
+      <c r="LP2" t="s">
+        <v>602</v>
+      </c>
+      <c r="LQ2" t="s">
+        <v>602</v>
+      </c>
+      <c r="LR2" t="s">
+        <v>602</v>
+      </c>
+      <c r="LS2" t="s">
+        <v>602</v>
+      </c>
+      <c r="LT2" t="s">
+        <v>602</v>
+      </c>
+      <c r="LU2" t="s">
+        <v>602</v>
+      </c>
+      <c r="LV2" t="s">
+        <v>602</v>
+      </c>
+      <c r="LW2" t="s">
+        <v>602</v>
+      </c>
+      <c r="LX2" t="s">
+        <v>602</v>
+      </c>
+      <c r="LY2" t="s">
+        <v>602</v>
+      </c>
+      <c r="LZ2" t="s">
+        <v>602</v>
+      </c>
+      <c r="MA2" t="s">
+        <v>602</v>
+      </c>
+      <c r="MB2" t="s">
+        <v>602</v>
+      </c>
+      <c r="MC2" t="s">
+        <v>602</v>
+      </c>
+      <c r="MD2" t="s">
+        <v>602</v>
+      </c>
+      <c r="ME2" t="s">
+        <v>602</v>
+      </c>
+      <c r="MF2" t="s">
+        <v>602</v>
+      </c>
+      <c r="MG2" t="s">
+        <v>602</v>
+      </c>
+      <c r="MH2" t="s">
+        <v>602</v>
+      </c>
+      <c r="MI2" t="s">
+        <v>602</v>
+      </c>
+      <c r="MJ2" t="s">
+        <v>602</v>
+      </c>
+      <c r="MK2" t="s">
+        <v>602</v>
+      </c>
+      <c r="ML2" t="s">
+        <v>602</v>
+      </c>
+      <c r="MM2" t="s">
+        <v>602</v>
+      </c>
+      <c r="MN2" t="s">
+        <v>602</v>
+      </c>
+      <c r="MO2" t="s">
+        <v>602</v>
+      </c>
+      <c r="MP2" t="s">
+        <v>602</v>
+      </c>
+      <c r="MQ2" t="s">
+        <v>602</v>
+      </c>
+      <c r="MR2" t="s">
+        <v>602</v>
+      </c>
+      <c r="MS2" t="s">
+        <v>602</v>
+      </c>
+      <c r="MT2" t="s">
+        <v>602</v>
+      </c>
+      <c r="MU2" t="s">
+        <v>602</v>
+      </c>
+      <c r="MV2" t="s">
+        <v>602</v>
+      </c>
+      <c r="MW2" t="s">
+        <v>602</v>
+      </c>
+      <c r="MX2" t="s">
+        <v>602</v>
+      </c>
+      <c r="MY2" t="s">
+        <v>602</v>
+      </c>
+      <c r="MZ2" t="s">
+        <v>602</v>
+      </c>
+      <c r="NA2" t="s">
+        <v>602</v>
+      </c>
+      <c r="NB2" t="s">
+        <v>602</v>
+      </c>
+      <c r="NC2" t="s">
+        <v>602</v>
+      </c>
+      <c r="ND2" t="s">
+        <v>602</v>
+      </c>
+      <c r="NE2" t="s">
+        <v>602</v>
+      </c>
+      <c r="NF2" t="s">
+        <v>602</v>
+      </c>
+      <c r="NG2" t="s">
+        <v>602</v>
+      </c>
+      <c r="NH2" t="s">
+        <v>602</v>
+      </c>
+      <c r="NI2" t="s">
+        <v>602</v>
+      </c>
+      <c r="NJ2" t="s">
+        <v>602</v>
+      </c>
+      <c r="NK2" t="s">
+        <v>602</v>
+      </c>
+      <c r="NL2" t="s">
+        <v>602</v>
+      </c>
+      <c r="NM2" t="s">
+        <v>602</v>
+      </c>
+      <c r="NN2" t="s">
+        <v>602</v>
+      </c>
+      <c r="NO2" t="s">
+        <v>602</v>
+      </c>
+      <c r="NP2" t="s">
+        <v>602</v>
+      </c>
+      <c r="NQ2" t="s">
+        <v>602</v>
+      </c>
+      <c r="NR2" t="s">
+        <v>602</v>
+      </c>
+      <c r="NS2" t="s">
+        <v>602</v>
+      </c>
+      <c r="NT2" t="s">
+        <v>602</v>
+      </c>
+      <c r="NU2" t="s">
+        <v>602</v>
+      </c>
+      <c r="NV2" t="s">
+        <v>602</v>
+      </c>
+      <c r="NW2" t="s">
+        <v>602</v>
+      </c>
+      <c r="NX2" t="s">
+        <v>602</v>
+      </c>
+      <c r="NY2" t="s">
+        <v>602</v>
+      </c>
+      <c r="NZ2" t="s">
+        <v>602</v>
+      </c>
+      <c r="OA2" t="s">
+        <v>602</v>
+      </c>
+      <c r="OB2" t="s">
+        <v>602</v>
+      </c>
+      <c r="OC2" t="s">
+        <v>602</v>
+      </c>
+      <c r="OD2" t="s">
+        <v>602</v>
+      </c>
+      <c r="OE2" t="s">
+        <v>602</v>
+      </c>
+      <c r="OF2" t="s">
+        <v>602</v>
+      </c>
+      <c r="OG2" t="s">
+        <v>602</v>
+      </c>
+      <c r="OH2" t="s">
+        <v>602</v>
+      </c>
+      <c r="OI2" t="s">
+        <v>602</v>
+      </c>
+      <c r="OJ2" t="s">
+        <v>602</v>
+      </c>
+      <c r="OK2" t="s">
+        <v>602</v>
+      </c>
+      <c r="OL2" t="s">
+        <v>602</v>
+      </c>
+      <c r="OM2" t="s">
+        <v>602</v>
+      </c>
+      <c r="ON2" t="s">
+        <v>602</v>
+      </c>
+      <c r="OO2" t="s">
+        <v>602</v>
+      </c>
+      <c r="OP2" t="s">
+        <v>602</v>
+      </c>
+      <c r="OQ2" t="s">
+        <v>602</v>
+      </c>
+      <c r="OR2" t="s">
+        <v>602</v>
+      </c>
+      <c r="OS2" t="s">
+        <v>602</v>
+      </c>
+      <c r="OT2" t="s">
+        <v>602</v>
+      </c>
+      <c r="OU2" t="s">
+        <v>602</v>
+      </c>
+      <c r="OV2" t="s">
+        <v>602</v>
+      </c>
+      <c r="OW2" t="s">
+        <v>602</v>
+      </c>
+      <c r="OX2" t="s">
+        <v>602</v>
+      </c>
+      <c r="OY2" t="s">
+        <v>602</v>
+      </c>
+      <c r="OZ2" t="s">
+        <v>602</v>
+      </c>
+      <c r="PA2" t="s">
+        <v>602</v>
+      </c>
+      <c r="PB2" t="s">
+        <v>602</v>
+      </c>
+      <c r="PC2" t="s">
+        <v>602</v>
+      </c>
+      <c r="PD2" t="s">
+        <v>602</v>
+      </c>
+      <c r="PE2" t="s">
+        <v>602</v>
+      </c>
+      <c r="PF2" t="s">
+        <v>602</v>
+      </c>
+      <c r="PG2" t="s">
+        <v>602</v>
+      </c>
+      <c r="PH2" t="s">
+        <v>602</v>
+      </c>
+      <c r="PI2" t="s">
+        <v>602</v>
+      </c>
+      <c r="PJ2" t="s">
+        <v>602</v>
+      </c>
+      <c r="PK2" t="s">
+        <v>602</v>
+      </c>
+      <c r="PL2" t="s">
+        <v>602</v>
+      </c>
+      <c r="PM2" t="s">
+        <v>602</v>
+      </c>
+      <c r="PN2" t="s">
+        <v>602</v>
+      </c>
+      <c r="PO2" t="s">
+        <v>602</v>
+      </c>
+      <c r="PP2" t="s">
+        <v>602</v>
+      </c>
+      <c r="PQ2" t="s">
+        <v>602</v>
+      </c>
+      <c r="PR2" t="s">
+        <v>602</v>
+      </c>
+      <c r="PS2" t="s">
+        <v>602</v>
+      </c>
+      <c r="PT2" t="s">
+        <v>602</v>
+      </c>
+      <c r="PU2" t="s">
+        <v>602</v>
+      </c>
+      <c r="PV2" t="s">
+        <v>602</v>
+      </c>
+      <c r="PW2" t="s">
+        <v>602</v>
+      </c>
+      <c r="PX2" t="s">
+        <v>602</v>
+      </c>
+      <c r="PY2" t="s">
+        <v>602</v>
+      </c>
+      <c r="PZ2" t="s">
+        <v>602</v>
+      </c>
+      <c r="QA2" t="s">
+        <v>602</v>
+      </c>
+      <c r="QB2" t="s">
+        <v>602</v>
+      </c>
+      <c r="QC2" t="s">
+        <v>602</v>
+      </c>
+      <c r="QD2" t="s">
+        <v>602</v>
+      </c>
+      <c r="QE2" t="s">
+        <v>602</v>
+      </c>
+      <c r="QF2" t="s">
+        <v>602</v>
+      </c>
+      <c r="QG2" t="s">
+        <v>602</v>
+      </c>
+      <c r="QH2" t="s">
+        <v>602</v>
+      </c>
+      <c r="QI2" t="s">
+        <v>602</v>
+      </c>
+      <c r="QJ2" t="s">
+        <v>602</v>
+      </c>
+      <c r="QK2" t="s">
+        <v>602</v>
+      </c>
+      <c r="QL2" t="s">
+        <v>602</v>
+      </c>
+      <c r="QM2" t="s">
+        <v>602</v>
+      </c>
+      <c r="QN2" t="s">
+        <v>602</v>
+      </c>
+      <c r="QO2" t="s">
+        <v>602</v>
+      </c>
+      <c r="QP2" t="s">
+        <v>602</v>
+      </c>
+      <c r="QQ2" t="s">
+        <v>602</v>
+      </c>
+      <c r="QR2" t="s">
+        <v>602</v>
+      </c>
+      <c r="QS2" t="s">
+        <v>602</v>
+      </c>
+      <c r="QT2" t="s">
+        <v>602</v>
+      </c>
+      <c r="QU2" t="s">
+        <v>602</v>
+      </c>
+      <c r="QV2" t="s">
+        <v>602</v>
+      </c>
+      <c r="QW2" t="s">
+        <v>602</v>
+      </c>
+      <c r="QX2" t="s">
+        <v>602</v>
+      </c>
+      <c r="QY2" t="s">
+        <v>602</v>
+      </c>
+      <c r="QZ2" t="s">
+        <v>602</v>
+      </c>
+      <c r="RA2" t="s">
+        <v>602</v>
+      </c>
+      <c r="RB2" t="s">
+        <v>602</v>
+      </c>
+      <c r="RC2" t="s">
+        <v>602</v>
+      </c>
+      <c r="RD2" t="s">
+        <v>602</v>
+      </c>
+      <c r="RE2" t="s">
+        <v>602</v>
+      </c>
+      <c r="RF2" t="s">
+        <v>602</v>
+      </c>
+      <c r="RG2" t="s">
+        <v>602</v>
+      </c>
+      <c r="RH2" t="s">
+        <v>602</v>
+      </c>
+      <c r="RI2" t="s">
+        <v>602</v>
+      </c>
+      <c r="RJ2" t="s">
+        <v>602</v>
+      </c>
+      <c r="RK2" t="s">
+        <v>602</v>
+      </c>
+      <c r="RL2" t="s">
+        <v>602</v>
+      </c>
+      <c r="RM2" t="s">
+        <v>602</v>
+      </c>
+      <c r="RN2" t="s">
+        <v>602</v>
+      </c>
+      <c r="RO2" t="s">
+        <v>602</v>
+      </c>
+      <c r="RP2" t="s">
+        <v>602</v>
+      </c>
+      <c r="RQ2" t="s">
+        <v>602</v>
+      </c>
+      <c r="RR2" t="s">
+        <v>602</v>
+      </c>
+      <c r="RS2" t="s">
+        <v>602</v>
+      </c>
+      <c r="RT2" t="s">
+        <v>602</v>
+      </c>
+      <c r="RU2" t="s">
+        <v>602</v>
+      </c>
+      <c r="RV2" t="s">
+        <v>602</v>
+      </c>
+      <c r="RW2" t="s">
+        <v>602</v>
+      </c>
+      <c r="RX2" t="s">
+        <v>602</v>
+      </c>
+      <c r="RY2" t="s">
+        <v>602</v>
+      </c>
+      <c r="RZ2" t="s">
+        <v>602</v>
+      </c>
+      <c r="SA2" t="s">
+        <v>602</v>
+      </c>
+      <c r="SB2" t="s">
+        <v>602</v>
+      </c>
+      <c r="SC2" t="s">
+        <v>602</v>
+      </c>
+      <c r="SD2" t="s">
+        <v>602</v>
+      </c>
+      <c r="SE2" t="s">
+        <v>602</v>
+      </c>
+      <c r="SF2" t="s">
+        <v>602</v>
+      </c>
+      <c r="SG2" t="s">
+        <v>602</v>
+      </c>
+      <c r="SH2" t="s">
+        <v>602</v>
+      </c>
+      <c r="SI2" t="s">
+        <v>602</v>
+      </c>
+      <c r="SJ2" t="s">
+        <v>602</v>
+      </c>
+      <c r="SK2" t="s">
+        <v>602</v>
+      </c>
+      <c r="SL2" t="s">
+        <v>602</v>
+      </c>
+      <c r="SM2" t="s">
+        <v>602</v>
+      </c>
+      <c r="SN2" t="s">
+        <v>602</v>
+      </c>
+      <c r="SO2" t="s">
+        <v>602</v>
+      </c>
+      <c r="SP2" t="s">
+        <v>602</v>
+      </c>
+      <c r="SQ2" t="s">
+        <v>602</v>
+      </c>
+      <c r="SR2" t="s">
+        <v>602</v>
+      </c>
+      <c r="SS2" t="s">
+        <v>602</v>
+      </c>
+      <c r="ST2" t="s">
+        <v>602</v>
+      </c>
+      <c r="SU2" t="s">
+        <v>602</v>
+      </c>
+      <c r="SV2" t="s">
+        <v>602</v>
+      </c>
+      <c r="SW2" t="s">
+        <v>602</v>
+      </c>
+      <c r="SX2" t="s">
+        <v>602</v>
+      </c>
+      <c r="SY2" t="s">
+        <v>602</v>
+      </c>
+      <c r="SZ2" t="s">
+        <v>602</v>
+      </c>
+      <c r="TA2" t="s">
+        <v>602</v>
+      </c>
+      <c r="TB2" t="s">
+        <v>602</v>
+      </c>
+      <c r="TC2" t="s">
+        <v>602</v>
+      </c>
+      <c r="TD2" t="s">
+        <v>602</v>
+      </c>
+      <c r="TE2" t="s">
+        <v>602</v>
+      </c>
+      <c r="TF2" t="s">
+        <v>602</v>
+      </c>
+      <c r="TG2" t="s">
+        <v>602</v>
+      </c>
+      <c r="TH2" t="s">
+        <v>602</v>
+      </c>
+      <c r="TI2" t="s">
+        <v>602</v>
+      </c>
+      <c r="TJ2" t="s">
+        <v>602</v>
+      </c>
+      <c r="TK2" t="s">
+        <v>602</v>
+      </c>
+      <c r="TL2" t="s">
+        <v>602</v>
+      </c>
+      <c r="TM2" t="s">
+        <v>602</v>
+      </c>
+      <c r="TN2" t="s">
+        <v>602</v>
+      </c>
+      <c r="TO2" t="s">
+        <v>602</v>
+      </c>
+      <c r="TP2" t="s">
+        <v>602</v>
+      </c>
+      <c r="TQ2" t="s">
+        <v>602</v>
+      </c>
+      <c r="TR2" t="s">
+        <v>602</v>
+      </c>
+      <c r="TS2" t="s">
+        <v>602</v>
+      </c>
+      <c r="TT2" t="s">
+        <v>602</v>
+      </c>
+      <c r="TU2" t="s">
+        <v>602</v>
+      </c>
+      <c r="TV2" t="s">
+        <v>602</v>
+      </c>
+      <c r="TW2" t="s">
+        <v>602</v>
+      </c>
+      <c r="TX2" t="s">
+        <v>602</v>
+      </c>
+      <c r="TY2" t="s">
+        <v>602</v>
+      </c>
+      <c r="TZ2" t="s">
+        <v>602</v>
+      </c>
+      <c r="UA2" t="s">
+        <v>602</v>
+      </c>
+      <c r="UB2" t="s">
+        <v>602</v>
+      </c>
+      <c r="UC2" t="s">
+        <v>602</v>
+      </c>
+      <c r="UD2" t="s">
+        <v>602</v>
+      </c>
+      <c r="UE2" t="s">
+        <v>602</v>
+      </c>
+      <c r="UF2" t="s">
+        <v>602</v>
+      </c>
+      <c r="UG2" t="s">
+        <v>602</v>
+      </c>
+      <c r="UH2" t="s">
+        <v>602</v>
+      </c>
+      <c r="UI2" t="s">
+        <v>602</v>
+      </c>
+      <c r="UJ2" t="s">
+        <v>602</v>
+      </c>
+      <c r="UK2" t="s">
+        <v>602</v>
+      </c>
+      <c r="UL2" t="s">
+        <v>602</v>
+      </c>
+      <c r="UM2" t="s">
+        <v>602</v>
+      </c>
+      <c r="UN2" t="s">
+        <v>602</v>
+      </c>
+      <c r="UO2" t="s">
+        <v>602</v>
+      </c>
+      <c r="UP2" t="s">
+        <v>602</v>
+      </c>
+      <c r="UQ2" t="s">
+        <v>602</v>
+      </c>
+      <c r="UR2" t="s">
+        <v>602</v>
+      </c>
+      <c r="US2" t="s">
+        <v>602</v>
+      </c>
+      <c r="UT2" t="s">
+        <v>602</v>
+      </c>
+      <c r="UU2" t="s">
+        <v>602</v>
+      </c>
+      <c r="UV2" t="s">
+        <v>602</v>
+      </c>
+      <c r="UW2" t="s">
+        <v>602</v>
+      </c>
+      <c r="UX2" t="s">
+        <v>602</v>
+      </c>
+      <c r="UY2" t="s">
+        <v>602</v>
+      </c>
+      <c r="UZ2" t="s">
+        <v>602</v>
+      </c>
+      <c r="VA2" t="s">
+        <v>602</v>
+      </c>
+      <c r="VB2" t="s">
+        <v>602</v>
+      </c>
+      <c r="VC2" t="s">
+        <v>602</v>
+      </c>
+      <c r="VD2" t="s">
+        <v>602</v>
+      </c>
+      <c r="VE2" t="s">
+        <v>602</v>
+      </c>
+      <c r="VF2" t="s">
+        <v>602</v>
+      </c>
+      <c r="VG2" t="s">
+        <v>602</v>
+      </c>
+      <c r="VH2" t="s">
+        <v>602</v>
+      </c>
+      <c r="VI2" t="s">
+        <v>602</v>
+      </c>
+      <c r="VJ2" t="s">
+        <v>602</v>
+      </c>
+      <c r="VK2" t="s">
+        <v>602</v>
+      </c>
+      <c r="VL2" t="s">
+        <v>602</v>
+      </c>
+      <c r="VM2" t="s">
+        <v>602</v>
+      </c>
+      <c r="VN2" t="s">
+        <v>602</v>
+      </c>
+      <c r="VO2" t="s">
+        <v>602</v>
+      </c>
+      <c r="VP2" t="s">
+        <v>602</v>
+      </c>
+      <c r="VQ2" t="s">
+        <v>602</v>
+      </c>
+      <c r="VR2" t="s">
+        <v>602</v>
+      </c>
+      <c r="VS2" t="s">
+        <v>602</v>
+      </c>
+      <c r="VT2" t="s">
+        <v>602</v>
+      </c>
+      <c r="VU2" t="s">
+        <v>602</v>
+      </c>
+      <c r="VV2" t="s">
+        <v>602</v>
+      </c>
+      <c r="VW2" t="s">
+        <v>602</v>
+      </c>
+      <c r="VX2" t="s">
+        <v>602</v>
+      </c>
+      <c r="VY2" t="s">
+        <v>602</v>
+      </c>
+      <c r="VZ2" t="s">
+        <v>602</v>
+      </c>
+      <c r="WA2" t="s">
+        <v>602</v>
+      </c>
+      <c r="WB2" t="s">
+        <v>602</v>
+      </c>
+      <c r="WC2" t="s">
+        <v>602</v>
+      </c>
+      <c r="WD2" t="s">
+        <v>602</v>
+      </c>
+      <c r="WE2" t="s">
+        <v>602</v>
+      </c>
+      <c r="WF2" t="s">
+        <v>602</v>
+      </c>
+      <c r="WG2" t="s">
+        <v>602</v>
+      </c>
+      <c r="WH2" t="s">
+        <v>602</v>
+      </c>
+      <c r="WI2" t="s">
+        <v>602</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/java/testdata/TestData.xlsx
+++ b/src/main/java/testdata/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Selvakannan A\Automation Code\WTTAutomation\src\main\java\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9C52138-9C80-4FC2-BD1C-9DB9750543C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7F59E25-91BD-4D41-88F6-A457A6DC4030}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1214" uniqueCount="616">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="954" uniqueCount="510">
   <si>
     <t>text_event_core_tab_creation_EventName</t>
   </si>
@@ -162,15 +162,6 @@
     <t>button_event_creation_Competition_SystemofPlay</t>
   </si>
   <si>
-    <t>text_event_creation_Competition_SystemofPlaysearch</t>
-  </si>
-  <si>
-    <t>check_event_creation_Competition_SystemofPlayGroupBased</t>
-  </si>
-  <si>
-    <t>check_event_creation_Competition_SystemofPlayKnockout</t>
-  </si>
-  <si>
     <t>text_event_creation_Competition_PlayingSystem</t>
   </si>
   <si>
@@ -189,12 +180,6 @@
     <t>button_event_creation_ParticipantOrganizations_AddNew</t>
   </si>
   <si>
-    <t>button_event_creation_ParticipantOrganizations_DeleteAll</t>
-  </si>
-  <si>
-    <t>text_event_creation_ParticipantOrganizations_searchText</t>
-  </si>
-  <si>
     <t>button_event_creation_ParticipantOrganizations_Organization</t>
   </si>
   <si>
@@ -204,36 +189,21 @@
     <t>button_event_creation_ParticipantOrganizations_Organizationclose</t>
   </si>
   <si>
-    <t>checkbox_event_creation_selectallcontitent</t>
-  </si>
-  <si>
-    <t>checkbox_event_creation_deselectallcontitent</t>
-  </si>
-  <si>
     <t>button_event_creation_Proceed</t>
   </si>
   <si>
-    <t>button_event_creation_Cancel</t>
-  </si>
-  <si>
     <t>tab_event_creation_ProfileQuotas</t>
   </si>
   <si>
     <t>button_event_creation_ProfileQuotas_AddNew</t>
   </si>
   <si>
-    <t>button_event_creation_ProfileQuotas_DeleteAll</t>
-  </si>
-  <si>
     <t>button_event_creation_ProfileQuotas_Profile</t>
   </si>
   <si>
     <t>button_event_creation_ProfileQuotas_Profilearrowicon</t>
   </si>
   <si>
-    <t>text_event_creation_ProfileQuotas_Profilesearch</t>
-  </si>
-  <si>
     <t>checkbox_event_creation_ProfileQuotas_ProfilesearchCoach</t>
   </si>
   <si>
@@ -276,63 +246,30 @@
     <t>button_event_creation_ProfileQuotas_ProfileProceed</t>
   </si>
   <si>
-    <t>button_event_creation_ProfileQuotas_ProfileCancel</t>
-  </si>
-  <si>
     <t>tab_event_creation_KeyPersons</t>
   </si>
   <si>
     <t>button_event_creation_KeyPersonsAddNew</t>
   </si>
   <si>
-    <t>text_event_creation_KeyPersonssearchbar</t>
-  </si>
-  <si>
     <t>button_event_creation_KeyPersonsProfile</t>
   </si>
   <si>
-    <t>text_event_creation_KeyPersonsProfilesearch</t>
-  </si>
-  <si>
     <t>checkbox_event_creation_KeyPersonsProfileTournamentSupervisor</t>
   </si>
   <si>
     <t>button_event_creation_KeyPersonsIndividualName</t>
   </si>
   <si>
-    <t>button_event_creation_KeyPersonsIndividualNamedownarrowicon</t>
-  </si>
-  <si>
-    <t>button_event_creation_KeyPersonsIndividualNameuparrowicon</t>
-  </si>
-  <si>
     <t>text_event_creation_KeyPersonsIndividualNamesearch</t>
   </si>
   <si>
-    <t>text_event_creation_KeyPersonsIndividualNamesearchresult</t>
-  </si>
-  <si>
-    <t>toggle_event_creation_KeyPersonsactive</t>
-  </si>
-  <si>
-    <t>button_event_creation_KeyPersonsdeleteall</t>
-  </si>
-  <si>
     <t>button_event_creation_KeyPersonsProceed</t>
   </si>
   <si>
-    <t>button_event_creation_KeyPersonsCancel</t>
-  </si>
-  <si>
     <t>tab_event_creation_Dates</t>
   </si>
   <si>
-    <t>text_event_creation_Dates_Startingdate</t>
-  </si>
-  <si>
-    <t>text_event_creation_Dates_Enddate</t>
-  </si>
-  <si>
     <t>tab_event_creation_Draws</t>
   </si>
   <si>
@@ -342,84 +279,18 @@
     <t>button_event_creation_Draws_DrawName</t>
   </si>
   <si>
-    <t>button_event_creation_Draws_StartDateTime</t>
-  </si>
-  <si>
-    <t>button_event_creation_Draws_TimeZone</t>
-  </si>
-  <si>
-    <t>text_event_creation_Draws_TimeZonesearch</t>
-  </si>
-  <si>
-    <t>checkbox_event_creation_Draws_TimeZonesearchresult</t>
-  </si>
-  <si>
     <t>text_event_creation_Draws_Venue</t>
   </si>
   <si>
-    <t>button_event_creation_Draws_EndDate</t>
-  </si>
-  <si>
     <t>button_event_creation_Draws_DrawNames_AddNew</t>
   </si>
   <si>
     <t>button_event_creation_Draws_DrawNames_SelectDefaultLanguageCode</t>
   </si>
   <si>
-    <t>button_event_creation_Draws_DrawNames_Remove</t>
-  </si>
-  <si>
-    <t>button_event_creation_Draws_DeleteAll</t>
-  </si>
-  <si>
-    <t>text_event_creation_Draws_searchbar</t>
-  </si>
-  <si>
-    <t>button_event_creation_Draws_table_view</t>
-  </si>
-  <si>
-    <t>button_event_creation_Draws_table_Edit</t>
-  </si>
-  <si>
-    <t>button_event_creation_Draws_table_Delete</t>
-  </si>
-  <si>
-    <t>text_event_creation_Draws_view_DrawName</t>
-  </si>
-  <si>
-    <t>text_event_creation_Draws_view_StartDateTime</t>
-  </si>
-  <si>
-    <t>text_event_creation_Draws_view_TimeZone</t>
-  </si>
-  <si>
-    <t>text_event_creation_Draws_view_Venue</t>
-  </si>
-  <si>
-    <t>text_event_creation_Draws_view_EndDateTime</t>
-  </si>
-  <si>
-    <t>text_event_creation_Draws_view_table_drawname</t>
-  </si>
-  <si>
-    <t>text_event_creation_Draws_view_table_Language</t>
-  </si>
-  <si>
-    <t>button_event_creation_Draws_view_close</t>
-  </si>
-  <si>
     <t>tab_event_creation_MatchConfiguration</t>
   </si>
   <si>
-    <t>text_event_creation_MatchConfiguration_QuickAction</t>
-  </si>
-  <si>
-    <t>text_event_creation_MatchConfiguration_Refresh</t>
-  </si>
-  <si>
-    <t>button_event_creation_MatchConfiguration_PrefillfromMatchConfigurationTemplates</t>
-  </si>
-  <si>
     <t>text_event_creation_MatchConfiguration__MaxPointsGame</t>
   </si>
   <si>
@@ -459,72 +330,12 @@
     <t>toggle_event_creation_MatchConfiguration_YellowRed2</t>
   </si>
   <si>
-    <t>toggle_event_creation_MatchConfiguration_Active</t>
-  </si>
-  <si>
-    <t>text_event_creation_MatchConfiguration_MatchConfigurations_Close</t>
-  </si>
-  <si>
-    <t>button_event_creation_MatchConfiguration_MatchConfigurations_createMatchConfiguration</t>
-  </si>
-  <si>
-    <t>text_event_creation_MatchConfiguration_MatchConfigurations_createMatchConfiguration_MatchConfigName</t>
-  </si>
-  <si>
-    <t>text_event_creation_MatchConfiguration_MatchConfigurations_createMatchConfiguration_BestOfXGames</t>
-  </si>
-  <si>
-    <t>text_event_creation_MatchConfiguration_MatchConfigurations_createMatchConfiguration_MaxPointsGame</t>
-  </si>
-  <si>
-    <t>text_event_creation_MatchConfiguration_MatchConfigurations_createMatchConfiguration_AdvantageGame</t>
-  </si>
-  <si>
-    <t>text_event_creation_MatchConfiguration_MatchConfigurations_createMatchConfiguration_SuddenDeathPoint</t>
-  </si>
-  <si>
-    <t>text_event_creation_MatchConfiguration_MatchConfigurations_createMatchConfiguration_MaxChallengesCompetitor</t>
-  </si>
-  <si>
-    <t>text_event_creation_MatchConfiguration_MatchConfigurations_createMatchConfiguration_TeamMatchTotalForXT</t>
-  </si>
-  <si>
-    <t>text_event_creation_MatchConfiguration_MatchConfigurations_createMatchConfiguration_TeamMatchBestOfXGamesForXT</t>
-  </si>
-  <si>
-    <t>text_event_creation_MatchConfiguration_MatchConfigurations_createMatchConfiguration_TeamMatchSequenceForXT</t>
-  </si>
-  <si>
-    <t>toggle_event_creation_MatchConfiguration_MatchConfigurations_createMatchConfiguration_TTRReview</t>
-  </si>
-  <si>
-    <t>toggle_event_creation_MatchConfiguration_MatchConfigurations_createMatchConfiguration_YellowCard</t>
-  </si>
-  <si>
-    <t>toggle_event_creation_MatchConfiguration_MatchConfigurations_createMatchConfiguration_YellowRed1</t>
-  </si>
-  <si>
-    <t>toggle_event_creation_MatchConfiguration_MatchConfigurations_createMatchConfiguration_YellowRed2</t>
-  </si>
-  <si>
-    <t>toggle_event_creation_MatchConfiguration_MatchConfigurations_createMatchConfiguration_Active</t>
-  </si>
-  <si>
-    <t>button_event_creation_MatchConfiguration_MatchConfigurations_createMatchConfiguration_Save</t>
-  </si>
-  <si>
-    <t>button_event_creation_MatchConfiguration_MatchConfigurations_createMatchConfiguration_Cancel</t>
-  </si>
-  <si>
     <t>tab_event_creation_Logos</t>
   </si>
   <si>
     <t>button_event_creation_Logos_additem</t>
   </si>
   <si>
-    <t>text_event_creation_Logos_search</t>
-  </si>
-  <si>
     <t>text_event_creation_Logos_AddLogos_LogoName</t>
   </si>
   <si>
@@ -534,66 +345,9 @@
     <t>button_event_creation_Logos_AddLogos_LogoType</t>
   </si>
   <si>
-    <t>button_event_creation_Logos_AddLogos_LogoType_QuickAction</t>
-  </si>
-  <si>
-    <t>button_event_creation_Logos_AddLogos_LogoType_addLogoTypes_Close</t>
-  </si>
-  <si>
-    <t>button_event_creation_Logos_AddLogos_LogoType_addLogoTypes_createLogoType</t>
-  </si>
-  <si>
-    <t>text_event_creation_Logos_AddLogos_LogoType_addLogoTypes_createLogoType_Type</t>
-  </si>
-  <si>
-    <t>text_event_creation_Logos_AddLogos_LogoType_addLogoTypes_createLogoType_Width</t>
-  </si>
-  <si>
-    <t>text_event_creation_Logos_AddLogos_LogoType_addLogoTypes_createLogoType_Height</t>
-  </si>
-  <si>
-    <t>toggle_event_creation_Logos_AddLogos_LogoType_addLogoTypes_createLogoType_Active</t>
-  </si>
-  <si>
-    <t>button_event_creation_Logos_AddLogos_LogoType_addLogoTypes_createLogoType_Save</t>
-  </si>
-  <si>
-    <t>button_event_creation_Logos_AddLogos_SelectImage</t>
-  </si>
-  <si>
     <t>button_event_creation_Logos_AddLogos_Proceed</t>
   </si>
   <si>
-    <t>button_event_creation_Logos_AddLogos_Cancel</t>
-  </si>
-  <si>
-    <t>button_event_creation_Logos_DeleteAll</t>
-  </si>
-  <si>
-    <t>button_event_creation_Logos_table_view</t>
-  </si>
-  <si>
-    <t>button_event_creation_Logos_table_Edit</t>
-  </si>
-  <si>
-    <t>button_event_creation_Logos_table_Delete</t>
-  </si>
-  <si>
-    <t>text_event_creation_Logos_table_view_LogoName</t>
-  </si>
-  <si>
-    <t>text_event_creation_Logos_table_view_LogoType</t>
-  </si>
-  <si>
-    <t>text_event_creation_Logos_table_view_LogoArea</t>
-  </si>
-  <si>
-    <t>text_event_creation_Logos_table_view_Logo</t>
-  </si>
-  <si>
-    <t>button_event_creation_Logos_table_view_Close</t>
-  </si>
-  <si>
     <t>tab_event_creation_Equipment</t>
   </si>
   <si>
@@ -606,9 +360,6 @@
     <t>button_event_creation_Equipment_SelectedBallsuparrowicon</t>
   </si>
   <si>
-    <t>button_event_creation_Equipment_SelectedBallsdownarrowicon</t>
-  </si>
-  <si>
     <t>button_event_creation_Equipment_SelectedTables</t>
   </si>
   <si>
@@ -618,9 +369,6 @@
     <t>button_event_creation_Equipment_SelectedTablessearchuparrowicon</t>
   </si>
   <si>
-    <t>button_event_creation_Equipment_SelectedTablessearchdownarrowicon</t>
-  </si>
-  <si>
     <t>button_event_creation_Equipment_SelectedNets</t>
   </si>
   <si>
@@ -630,9 +378,6 @@
     <t>button_event_creation_Equipment_SelectedNetsuparrowicon</t>
   </si>
   <si>
-    <t>button_event_creation_Equipment_SelectedNetsdownarrowicon</t>
-  </si>
-  <si>
     <t>button_event_creation_Equipment_SelectedFlooring</t>
   </si>
   <si>
@@ -642,9 +387,6 @@
     <t>button_event_creation_Equipment_SelectedFlooringsearchuparrowicon</t>
   </si>
   <si>
-    <t>button_event_creation_Equipment_SelectedFlooringsearchdownarrowicon</t>
-  </si>
-  <si>
     <t>text_event_creation_Equipment_NumberofCompetitionTables</t>
   </si>
   <si>
@@ -657,75 +399,18 @@
     <t>tab_event_creation_OnlineEntrySystem</t>
   </si>
   <si>
-    <t>button_event_creation_OnlineEntrySystem_DeadlineTimeZone</t>
-  </si>
-  <si>
-    <t>checkbox_event_creation_OnlineEntrySystem_DeadlineTimeZonessearchresult</t>
-  </si>
-  <si>
-    <t>button_event_creation_OnlineEntrySystem_TravelDetailsDeadline</t>
-  </si>
-  <si>
-    <t>button_event_creation_OnlineEntrySystem_CancellationDeadline</t>
-  </si>
-  <si>
-    <t>button_event_creation_OnlineEntrySystem_ParticipantRegistrationDeadline</t>
-  </si>
-  <si>
-    <t>button_event_creation_OnlineEntrySystem_AccommodationDetailsDeadline</t>
-  </si>
-  <si>
-    <t>button_event_creation_OnlineEntrySystem_VisaDetailsDeadline</t>
-  </si>
-  <si>
     <t>toggle_event_creation_OnlineEntrySystem_EnableOES</t>
   </si>
   <si>
-    <t>text_event_creation_OnlineEntrySystem_MaxNoOfProfilesperPerson</t>
-  </si>
-  <si>
     <t>button_event_creation_OnlineEntrySystem_AdditionalDeadlines_AddNew</t>
   </si>
   <si>
     <t>text_event_creation_OnlineEntrySystem_AdditionalDeadlines_DeadlineName</t>
   </si>
   <si>
-    <t>button_event_creation_OnlineEntrySystem_AdditionalDeadlines_DeadlineName</t>
-  </si>
-  <si>
-    <t>button_event_creation_OnlineEntrySystem_AdditionalDeadlines_EndDateTime</t>
-  </si>
-  <si>
     <t>button_event_creation_OnlineEntrySystem_AdditionalDeadlines_Proceed</t>
   </si>
   <si>
-    <t>button_event_creation_OnlineEntrySystem_AdditionalDeadlines_Cancel</t>
-  </si>
-  <si>
-    <t>button_event_creation_OnlineEntrySystem_AdditionalDeadlines_DeleteAll</t>
-  </si>
-  <si>
-    <t>button_event_creation_OnlineEntrySystem_AdditionalDeadlines_table_view</t>
-  </si>
-  <si>
-    <t>text_event_creation_OnlineEntrySystem_AdditionalDeadlines_table_view_DeadlineName</t>
-  </si>
-  <si>
-    <t>text_event_creation_OnlineEntrySystem_AdditionalDeadlines_table_view_StartDateTime</t>
-  </si>
-  <si>
-    <t>text_event_creation_OnlineEntrySystem_AdditionalDeadlines_table_view_EndDateTime</t>
-  </si>
-  <si>
-    <t>button_event_creation_OnlineEntrySystem_AdditionalDeadlines_table_view_Close</t>
-  </si>
-  <si>
-    <t>button_event_creation_OnlineEntrySystem_AdditionalDeadlines_table_Edit</t>
-  </si>
-  <si>
-    <t>button_event_creation_OnlineEntrySystem_AdditionalDeadlines_table_Delete</t>
-  </si>
-  <si>
     <t>tab_event_creation_PaymentOptions</t>
   </si>
   <si>
@@ -735,9 +420,6 @@
     <t>button_event_creation_PaymentOptions_PaymentAccount</t>
   </si>
   <si>
-    <t>checkbox_event_creation_PaymentOptions_PaymentAccountsearchSelectAll</t>
-  </si>
-  <si>
     <t>checkbox_event_creation_PaymentOptions_PaymentAccountsearchCashCollection</t>
   </si>
   <si>
@@ -750,39 +432,9 @@
     <t>checkbox_event_creation_PaymentOptions_Comments</t>
   </si>
   <si>
-    <t>toggle_event_creation_PaymentOptions_active</t>
-  </si>
-  <si>
     <t>button_event_creation_PaymentOptions_Proceed</t>
   </si>
   <si>
-    <t>button_event_creation_PaymentOptions_Cancel</t>
-  </si>
-  <si>
-    <t>button_event_creation_PaymentOptions_DeleteAll</t>
-  </si>
-  <si>
-    <t>button_event_creation_PaymentOptions_view</t>
-  </si>
-  <si>
-    <t>text_event_creation_PaymentOptions_view_PaymentAccount</t>
-  </si>
-  <si>
-    <t>text_event_creation_PaymentOptions_view_Comments</t>
-  </si>
-  <si>
-    <t>text_event_creation_PaymentOptions_view_Active</t>
-  </si>
-  <si>
-    <t>button_event_creation_PaymentOptions_view_Close</t>
-  </si>
-  <si>
-    <t>button_event_creation_PaymentOptions_Edit</t>
-  </si>
-  <si>
-    <t>button_event_creation_PaymentOptions_Delete</t>
-  </si>
-  <si>
     <t>tab_event_creation_TournamentFee</t>
   </si>
   <si>
@@ -795,15 +447,9 @@
     <t>button_event_creation_TournamentFee_AddNew</t>
   </si>
   <si>
-    <t>text_event_creation_TournamentFee_searchbar</t>
-  </si>
-  <si>
     <t>button_event_creation_TournamentFee_AddFeebyProfileType_Profile</t>
   </si>
   <si>
-    <t>checkbox_event_creation_TournamentFee_AddFeebyProfileType_Profileselectall</t>
-  </si>
-  <si>
     <t>checkbox_event_creation_TournamentFee_AddFeebyProfileType_ProfileCoach</t>
   </si>
   <si>
@@ -837,9 +483,6 @@
     <t>checkbox_event_creation_TournamentFee_AddFeebyProfileType_ProfileUparrowicon</t>
   </si>
   <si>
-    <t>checkbox_event_creation_TournamentFee_AddFeebyProfileType_ProfileDownarrowicon</t>
-  </si>
-  <si>
     <t>text_event_creation_TournamentFee_AddFeebyProfileType_ParticitionFee</t>
   </si>
   <si>
@@ -852,90 +495,42 @@
     <t>radio_event_creation_TournamentFee_AddFeebyProfileType_CancellationInformation_AmountPercentageAmount</t>
   </si>
   <si>
-    <t>radio_event_creation_TournamentFee_AddFeebyProfileType_CancellationInformation_AmountPercentagePercentage</t>
-  </si>
-  <si>
     <t>text_event_creation_TournamentFee_AddFeebyProfileType_CancellationInformation_Value</t>
   </si>
   <si>
-    <t>toggle_event_creation_TournamentFee_AddFeebyProfileType_CancellationInformation_active</t>
-  </si>
-  <si>
-    <t>button_event_creation_TournamentFee_AddFeebyProfileType_CancellationInformation_Remove</t>
-  </si>
-  <si>
     <t>button_event_creation_TournamentFee_AddFeebyProfileType_Proceed</t>
   </si>
   <si>
-    <t>button_event_creation_TournamentFee_AddFeebyProfileType_Cancel</t>
-  </si>
-  <si>
-    <t>button_event_creation_TournamentFee_DeleteAll</t>
-  </si>
-  <si>
-    <t>table_event_creation_TournamentFee_table</t>
-  </si>
-  <si>
     <t>tab_event_creation_NonMATournamentFee</t>
   </si>
   <si>
     <t>button_event_creation_NonMATournamentFee_AddNew</t>
   </si>
   <si>
-    <t>text_event_creation_NonMATournamentFee_searchbar</t>
-  </si>
-  <si>
     <t>button_event_creation_NonMATournamentFee_AddNonMAFeebyProfileType_Profile</t>
   </si>
   <si>
-    <t>checkbox_event_creation_NonMATournamentFee_AddNonMAFeebyProfileType_ProfileSelectAll</t>
-  </si>
-  <si>
     <t>checkbox_event_creation_NonMATournamentFee_AddNonMAFeebyProfileType_Profileresult</t>
   </si>
   <si>
-    <t>button_event_creation_NonMATournamentFee_AddNonMAFeebyProfileType_Profiledownarrowicon</t>
-  </si>
-  <si>
     <t>button_event_creation_NonMATournamentFee_AddNonMAFeebyProfileType_Profileuparrowicon</t>
   </si>
   <si>
     <t>text_event_creation_NonMATournamentFee_AddNonMAFeebyProfileType_ParticipationFee</t>
   </si>
   <si>
-    <t>button_event_creation_NonMATournamentFee_AddNonMAFeebyProfileType_Cancel</t>
-  </si>
-  <si>
     <t>button_event_creation_NonMATournamentFee_AddNonMAFeebyProfileType_Proceed</t>
   </si>
   <si>
-    <t>button_event_creation_NonMATournamentFee_DeleteAll</t>
-  </si>
-  <si>
-    <t>table_event_creation_NonMATournamentFee_table</t>
-  </si>
-  <si>
     <t>tab_event_creation_Hospitality</t>
   </si>
   <si>
-    <t>text_event_creation_Hospitality_AllowedFirstArrivalDate</t>
-  </si>
-  <si>
-    <t>text_event_creation_Hospitality_AllowedLastDepartureDate</t>
-  </si>
-  <si>
-    <t>toggle_event_creation_Hospitality_ForceHospitality</t>
-  </si>
-  <si>
     <t>button_event_creation_Hospitality_AddNew</t>
   </si>
   <si>
     <t>button_event_creation_Hospitality_AddHospitalityInformation_Profile</t>
   </si>
   <si>
-    <t>checkbox_event_creation_Hospitality_AddHospitalityInformation_Profileselectall</t>
-  </si>
-  <si>
     <t>checkbox_event_creation_Hospitality_AddHospitalityInformation_ProfileCoach</t>
   </si>
   <si>
@@ -969,9 +564,6 @@
     <t>checkbox_event_creation_Hospitality_AddHospitalityInformation_ProfileUparrowicon</t>
   </si>
   <si>
-    <t>checkbox_event_creation_Hospitality_AddHospitalityInformation_ProfileDownarrowicon</t>
-  </si>
-  <si>
     <t>button_event_creation_Hospitality_AddHospitalityInformation_Accommodation</t>
   </si>
   <si>
@@ -1011,9 +603,6 @@
     <t>toggle_event_creation_Hospitality_AddHospitalityInformation_Filled</t>
   </si>
   <si>
-    <t>toggle_event_creation_Hospitality_AddHospitalityInformation_Active</t>
-  </si>
-  <si>
     <t>button_event_creation_Hospitality_AddHospitalityInformation_CancellationInformation_AddNew</t>
   </si>
   <si>
@@ -1023,30 +612,12 @@
     <t>radio_event_creation_Hospitality_AddHospitalityInformation_CancellationInformation_AmountPercentageAmount</t>
   </si>
   <si>
-    <t>radio_event_creation_Hospitality_AddHospitalityInformation_CancellationInformation_AmountPercentagePercentage</t>
-  </si>
-  <si>
     <t>text_event_creation_Hospitality_AddHospitalityInformation_CancellationInformation_Value</t>
   </si>
   <si>
-    <t>toggle_event_creation_Hospitality_AddHospitalityInformation_CancellationInformation_active</t>
-  </si>
-  <si>
-    <t>button_event_creation_Hospitality_AddHospitalityInformation_CancellationInformation_Remove</t>
-  </si>
-  <si>
-    <t>button_event_creation_Hospitality_AddHospitalityInformation_Cancel</t>
-  </si>
-  <si>
     <t>button_event_creation_Hospitality_AddHospitalityInformation_Proceed</t>
   </si>
   <si>
-    <t>button_event_creation_Hospitality_DeleteAll</t>
-  </si>
-  <si>
-    <t>table_event_creation_Hospitality_table</t>
-  </si>
-  <si>
     <t>tab_event_creation_NonMAHospitality</t>
   </si>
   <si>
@@ -1722,9 +1293,6 @@
     <t>searchtext_event_creation_Competition_EntriesRankingYearsearch</t>
   </si>
   <si>
-    <t xml:space="preserve">searchtext_event_creation_Competition_EntriesRankingWeeksearch </t>
-  </si>
-  <si>
     <t>searchtext_event_creation_Competition_CountRankingYear</t>
   </si>
   <si>
@@ -1752,15 +1320,6 @@
     <t>searchtext_event_creation_Draws_DrawNames_EnterDrawName</t>
   </si>
   <si>
-    <t>searchtext_event_creation_MatchConfiguration_PrefillfromMatchConfigurationTemplatessearch</t>
-  </si>
-  <si>
-    <t>searchtext_event_creation_MatchConfiguration_MatchConfigurations_searchbar</t>
-  </si>
-  <si>
-    <t>searchtext_event_creation_Logos_AddLogos_LogoType_addLogoTypes_SearchbyLogoType</t>
-  </si>
-  <si>
     <t>searchbutton_event_creation_Logos_AddLogos_SearchLogoType</t>
   </si>
   <si>
@@ -1776,21 +1335,9 @@
     <t>bartext_event_creation_Equipment_SelectedFlooringsearch</t>
   </si>
   <si>
-    <t>bartext_event_creation_OnlineEntrySystem_DeadlineTimeZonessearch</t>
-  </si>
-  <si>
-    <t>bartext_event_creation_PaymentOptions_PaymentAccountsearch</t>
-  </si>
-  <si>
-    <t>bartext_event_creation_TournamentFee_AddFeebyProfileType_Profilesearch</t>
-  </si>
-  <si>
     <t>bartext_event_creation_NonMATournamentFee_AddNonMAFeebyProfileType_ProfileSearch</t>
   </si>
   <si>
-    <t>bartext_event_creation_Hospitality_AddHospitalityInformation_Profilesearch</t>
-  </si>
-  <si>
     <t>bartext_event_creation_Hospitality_AddHospitalityInformation_Accommodationsearch</t>
   </si>
   <si>
@@ -1875,7 +1422,142 @@
     <t>button_event_creation_TournamentCategory</t>
   </si>
   <si>
-    <t>wtt</t>
+    <t>Challenge</t>
+  </si>
+  <si>
+    <t>Continental</t>
+  </si>
+  <si>
+    <t>10 Total and 3 Qualification</t>
+  </si>
+  <si>
+    <t>Knockout</t>
+  </si>
+  <si>
+    <t>PrizeComments</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>searchtext_event_creation_Competition_EntriesRankingWeeksearch</t>
+  </si>
+  <si>
+    <t>Week - 4</t>
+  </si>
+  <si>
+    <t>checkbox_event_creation_Competition_SystemofPlayGroupBased</t>
+  </si>
+  <si>
+    <t>checkbox_event_creation_Competition_SystemofPlayKnockout</t>
+  </si>
+  <si>
+    <t>Accreditation Code</t>
+  </si>
+  <si>
+    <t>Abdul Razaq Siawashma</t>
+  </si>
+  <si>
+    <t>checkbox_event_creation_KeyPersonsIndividualNamesearchresult</t>
+  </si>
+  <si>
+    <t>button_event_creation_Dates_Startingdate</t>
+  </si>
+  <si>
+    <t>button_event_creation_Dates_Startingdatedatepicker</t>
+  </si>
+  <si>
+    <t>button_event_creation_Dates_Enddate</t>
+  </si>
+  <si>
+    <t>button_event_creation_Dates_Enddatedatedatepicker</t>
+  </si>
+  <si>
+    <t>Main Draw</t>
+  </si>
+  <si>
+    <t>date_event_creation_Draws_StartDateTime</t>
+  </si>
+  <si>
+    <t>date_event_creation_Draws_EndDate</t>
+  </si>
+  <si>
+    <t>Draw Name</t>
+  </si>
+  <si>
+    <t>checkbox_event_creation_Draws_DrawNames_SelectDefaultLanguageCode_EnglishUS</t>
+  </si>
+  <si>
+    <t>button_event_creation_Draws_Proceed</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>LogoName</t>
+  </si>
+  <si>
+    <t>LogoArea</t>
+  </si>
+  <si>
+    <t>xush</t>
+  </si>
+  <si>
+    <t>joola</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>date_event_creation_OnlineEntrySystem_TravelDetailsDeadline</t>
+  </si>
+  <si>
+    <t>date_event_creation_OnlineEntrySystem_CancellationDeadline</t>
+  </si>
+  <si>
+    <t>date_event_creation_OnlineEntrySystem_ParticipantRegistrationDeadline</t>
+  </si>
+  <si>
+    <t>date_event_creation_OnlineEntrySystem_AccommodationDetailsDeadline</t>
+  </si>
+  <si>
+    <t>date_event_creation_OnlineEntrySystem_VisaDetailsDeadline</t>
+  </si>
+  <si>
+    <t>DeadlineName</t>
+  </si>
+  <si>
+    <t>date_event_creation_OnlineEntrySystem_AdditionalDeadlines_StartDateTime</t>
+  </si>
+  <si>
+    <t>date_event_creation_OnlineEntrySystem_AdditionalDeadlines_EndDateTime</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>date_event_creation_Hospitality_AllowedFirstArrivalDate</t>
+  </si>
+  <si>
+    <t>date_event_creation_Hospitality_AllowedLastDepartureDate</t>
+  </si>
+  <si>
+    <t>grand</t>
   </si>
 </sst>
 </file>
@@ -1918,11 +1600,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2203,10 +1887,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:WI2"/>
+  <dimension ref="A1:RI2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AJ1" workbookViewId="0">
-      <selection activeCell="AL3" sqref="AL3"/>
+    <sheetView tabSelected="1" topLeftCell="FW1" workbookViewId="0">
+      <selection activeCell="FY1" sqref="FY1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2225,6 +1909,7 @@
     <col min="21" max="21" width="41.125" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="50.25" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="53.75" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="38.5" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="47.5" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="43.875" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="41.125" bestFit="1" customWidth="1"/>
@@ -2235,10 +1920,185 @@
     <col min="40" max="40" width="44.75" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="52" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="27.625" bestFit="1" customWidth="1"/>
-    <col min="607" max="607" width="26.75" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="72.75" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="81.75" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="49.25" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="43.875" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="47.5" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="56.5" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="47.5" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="57.375" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="45.625" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="49.25" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="45.625" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="54.75" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="47.5" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="56.5" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="46.625" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="46.625" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="55.625" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="42.125" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="50.25" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="48.375" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="41.125" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="44.75" bestFit="1" customWidth="1"/>
+    <col min="68" max="69" width="41.125" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="39.375" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="48.375" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="53.75" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="60.125" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="66.375" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="66.375" customWidth="1"/>
+    <col min="76" max="76" width="26.75" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="29.5" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="38.5" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="39.375" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="51.125" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="53.75" bestFit="1" customWidth="1"/>
+    <col min="82" max="84" width="52" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="56.5" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="52.875" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="49.25" bestFit="1" customWidth="1"/>
+    <col min="88" max="89" width="52" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="52" customWidth="1"/>
+    <col min="91" max="91" width="58.375" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="51.125" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="53.75" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="45.625" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="26.75" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="34.875" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="35.75" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="55.625" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="42.125" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="45.625" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="54.75" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="35.75" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="22.25" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="36.625" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="45.625" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="32.125" bestFit="1" customWidth="1"/>
+    <col min="107" max="107" width="44.75" bestFit="1" customWidth="1"/>
+    <col min="108" max="108" width="22.25" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="31.25" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="33" bestFit="1" customWidth="1"/>
+    <col min="111" max="111" width="42.125" bestFit="1" customWidth="1"/>
+    <col min="112" max="112" width="37.5" bestFit="1" customWidth="1"/>
+    <col min="113" max="113" width="28.5" bestFit="1" customWidth="1"/>
+    <col min="114" max="114" width="32.125" bestFit="1" customWidth="1"/>
+    <col min="115" max="115" width="40.25" bestFit="1" customWidth="1"/>
+    <col min="116" max="116" width="50.25" bestFit="1" customWidth="1"/>
+    <col min="117" max="117" width="57.375" bestFit="1" customWidth="1"/>
+    <col min="118" max="119" width="57.375" customWidth="1"/>
+    <col min="120" max="120" width="34" bestFit="1" customWidth="1"/>
+    <col min="121" max="122" width="48.375" bestFit="1" customWidth="1"/>
+    <col min="123" max="123" width="51.125" bestFit="1" customWidth="1"/>
+    <col min="124" max="124" width="47.5" bestFit="1" customWidth="1"/>
+    <col min="125" max="125" width="57.375" bestFit="1" customWidth="1"/>
+    <col min="126" max="126" width="53.75" bestFit="1" customWidth="1"/>
+    <col min="127" max="127" width="60.125" bestFit="1" customWidth="1"/>
+    <col min="128" max="128" width="65.5" bestFit="1" customWidth="1"/>
+    <col min="129" max="129" width="55.625" bestFit="1" customWidth="1"/>
+    <col min="130" max="130" width="45.625" bestFit="1" customWidth="1"/>
+    <col min="131" max="133" width="46.625" bestFit="1" customWidth="1"/>
+    <col min="134" max="134" width="22.25" bestFit="1" customWidth="1"/>
+    <col min="135" max="135" width="32.125" bestFit="1" customWidth="1"/>
+    <col min="136" max="137" width="39.375" bestFit="1" customWidth="1"/>
+    <col min="138" max="138" width="41.125" bestFit="1" customWidth="1"/>
+    <col min="139" max="139" width="52" bestFit="1" customWidth="1"/>
+    <col min="140" max="140" width="40.25" bestFit="1" customWidth="1"/>
+    <col min="141" max="141" width="25.875" bestFit="1" customWidth="1"/>
+    <col min="142" max="142" width="41.125" bestFit="1" customWidth="1"/>
+    <col min="143" max="143" width="47.5" bestFit="1" customWidth="1"/>
+    <col min="144" max="144" width="53.75" bestFit="1" customWidth="1"/>
+    <col min="145" max="145" width="51.125" bestFit="1" customWidth="1"/>
+    <col min="146" max="146" width="42.125" bestFit="1" customWidth="1"/>
+    <col min="147" max="147" width="48.375" bestFit="1" customWidth="1"/>
+    <col min="148" max="148" width="54.75" bestFit="1" customWidth="1"/>
+    <col min="149" max="149" width="57.375" bestFit="1" customWidth="1"/>
+    <col min="150" max="150" width="40.25" bestFit="1" customWidth="1"/>
+    <col min="151" max="151" width="46.625" bestFit="1" customWidth="1"/>
+    <col min="152" max="152" width="47.5" bestFit="1" customWidth="1"/>
+    <col min="153" max="153" width="50.25" bestFit="1" customWidth="1"/>
+    <col min="154" max="154" width="43.875" bestFit="1" customWidth="1"/>
+    <col min="155" max="155" width="50.25" bestFit="1" customWidth="1"/>
+    <col min="156" max="156" width="56.5" bestFit="1" customWidth="1"/>
+    <col min="157" max="157" width="59.25" bestFit="1" customWidth="1"/>
+    <col min="158" max="158" width="50.25" bestFit="1" customWidth="1"/>
+    <col min="159" max="159" width="47.5" bestFit="1" customWidth="1"/>
+    <col min="160" max="160" width="45.625" bestFit="1" customWidth="1"/>
+    <col min="161" max="161" width="33" bestFit="1" customWidth="1"/>
+    <col min="162" max="162" width="55.625" bestFit="1" customWidth="1"/>
+    <col min="163" max="163" width="54.75" bestFit="1" customWidth="1"/>
+    <col min="164" max="164" width="64.625" bestFit="1" customWidth="1"/>
+    <col min="165" max="165" width="61.875" bestFit="1" customWidth="1"/>
+    <col min="166" max="166" width="53.75" bestFit="1" customWidth="1"/>
+    <col min="167" max="167" width="44.75" bestFit="1" customWidth="1"/>
+    <col min="168" max="168" width="60.125" bestFit="1" customWidth="1"/>
+    <col min="169" max="169" width="63.75" bestFit="1" customWidth="1"/>
+    <col min="170" max="170" width="96.75" customWidth="1"/>
+    <col min="171" max="171" width="64.625" bestFit="1" customWidth="1"/>
+    <col min="172" max="172" width="61" bestFit="1" customWidth="1"/>
+    <col min="173" max="173" width="30.375" bestFit="1" customWidth="1"/>
+    <col min="174" max="174" width="39.375" bestFit="1" customWidth="1"/>
+    <col min="175" max="175" width="46.625" bestFit="1" customWidth="1"/>
+    <col min="176" max="176" width="66.375" bestFit="1" customWidth="1"/>
+    <col min="177" max="177" width="59.25" bestFit="1" customWidth="1"/>
+    <col min="178" max="178" width="75.5" bestFit="1" customWidth="1"/>
+    <col min="179" max="179" width="43" bestFit="1" customWidth="1"/>
+    <col min="180" max="180" width="40.25" bestFit="1" customWidth="1"/>
+    <col min="181" max="181" width="29.5" bestFit="1" customWidth="1"/>
+    <col min="182" max="182" width="40.25" bestFit="1" customWidth="1"/>
+    <col min="183" max="183" width="42.125" bestFit="1" customWidth="1"/>
+    <col min="184" max="184" width="38.5" bestFit="1" customWidth="1"/>
+    <col min="185" max="185" width="57.375" bestFit="1" customWidth="1"/>
+    <col min="186" max="186" width="63.75" bestFit="1" customWidth="1"/>
+    <col min="187" max="187" width="66.375" bestFit="1" customWidth="1"/>
+    <col min="188" max="190" width="64.625" bestFit="1" customWidth="1"/>
+    <col min="191" max="191" width="69.125" bestFit="1" customWidth="1"/>
+    <col min="192" max="192" width="65.5" bestFit="1" customWidth="1"/>
+    <col min="193" max="193" width="61.875" bestFit="1" customWidth="1"/>
+    <col min="194" max="195" width="64.625" bestFit="1" customWidth="1"/>
+    <col min="196" max="196" width="69.125" bestFit="1" customWidth="1"/>
+    <col min="197" max="197" width="61.875" bestFit="1" customWidth="1"/>
+    <col min="198" max="198" width="78.125" bestFit="1" customWidth="1"/>
+    <col min="199" max="199" width="80.875" bestFit="1" customWidth="1"/>
+    <col min="200" max="200" width="100.625" customWidth="1"/>
+    <col min="201" max="201" width="75.5" bestFit="1" customWidth="1"/>
+    <col min="202" max="202" width="57.375" bestFit="1" customWidth="1"/>
+    <col min="203" max="203" width="34" bestFit="1" customWidth="1"/>
+    <col min="204" max="204" width="43" bestFit="1" customWidth="1"/>
+    <col min="205" max="205" width="66.375" bestFit="1" customWidth="1"/>
+    <col min="206" max="206" width="72.75" bestFit="1" customWidth="1"/>
+    <col min="207" max="207" width="73.625" bestFit="1" customWidth="1"/>
+    <col min="208" max="208" width="76.375" bestFit="1" customWidth="1"/>
+    <col min="209" max="209" width="72.75" bestFit="1" customWidth="1"/>
+    <col min="210" max="210" width="66.375" bestFit="1" customWidth="1"/>
+    <col min="211" max="211" width="27.625" bestFit="1" customWidth="1"/>
+    <col min="212" max="212" width="50.25" bestFit="1" customWidth="1"/>
+    <col min="213" max="213" width="51.125" bestFit="1" customWidth="1"/>
+    <col min="214" max="214" width="36.625" bestFit="1" customWidth="1"/>
+    <col min="215" max="215" width="61" bestFit="1" customWidth="1"/>
+    <col min="216" max="216" width="67.375" bestFit="1" customWidth="1"/>
+    <col min="217" max="217" width="70" bestFit="1" customWidth="1"/>
+    <col min="226" max="226" width="72.75" bestFit="1" customWidth="1"/>
+    <col min="227" max="227" width="66.375" bestFit="1" customWidth="1"/>
+    <col min="228" max="228" width="72.75" bestFit="1" customWidth="1"/>
+    <col min="229" max="229" width="79.125" bestFit="1" customWidth="1"/>
+    <col min="230" max="230" width="61.875" bestFit="1" customWidth="1"/>
+    <col min="231" max="231" width="68.25" bestFit="1" customWidth="1"/>
+    <col min="232" max="232" width="74.5" bestFit="1" customWidth="1"/>
+    <col min="233" max="233" width="69.125" bestFit="1" customWidth="1"/>
+    <col min="241" max="241" width="60.125" bestFit="1" customWidth="1"/>
+    <col min="242" max="242" width="81.75" bestFit="1" customWidth="1"/>
+    <col min="243" max="243" width="84.5" bestFit="1" customWidth="1"/>
+    <col min="244" max="244" width="95.25" bestFit="1" customWidth="1"/>
+    <col min="245" max="245" width="79.125" bestFit="1" customWidth="1"/>
+    <col min="246" max="246" width="61" bestFit="1" customWidth="1"/>
+    <col min="247" max="247" width="32.125" bestFit="1" customWidth="1"/>
+    <col min="477" max="477" width="26.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:607" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:477" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -2252,7 +2112,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>600</v>
+        <v>449</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
@@ -2276,7 +2136,7 @@
         <v>10</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>603</v>
+        <v>452</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>11</v>
@@ -2285,7 +2145,7 @@
         <v>12</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>604</v>
+        <v>453</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>13</v>
@@ -2303,7 +2163,7 @@
         <v>17</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>605</v>
+        <v>454</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>18</v>
@@ -2312,7 +2172,7 @@
         <v>19</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>601</v>
+        <v>450</v>
       </c>
       <c r="Z1" s="1" t="s">
         <v>20</v>
@@ -2336,7 +2196,7 @@
         <v>26</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>560</v>
+        <v>417</v>
       </c>
       <c r="AH1" s="1" t="s">
         <v>27</v>
@@ -2345,19 +2205,19 @@
         <v>28</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>613</v>
+        <v>462</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>614</v>
+        <v>463</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>561</v>
+        <v>418</v>
       </c>
       <c r="AM1" s="1" t="s">
         <v>29</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>612</v>
+        <v>461</v>
       </c>
       <c r="AO1" s="1" t="s">
         <v>30</v>
@@ -2369,7 +2229,7 @@
         <v>32</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>562</v>
+        <v>419</v>
       </c>
       <c r="AS1" s="1" t="s">
         <v>33</v>
@@ -2381,3507 +2241,2727 @@
         <v>35</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>563</v>
+        <v>420</v>
       </c>
       <c r="AW1" s="1" t="s">
         <v>36</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>564</v>
+        <v>474</v>
       </c>
       <c r="AY1" s="1" t="s">
         <v>37</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>565</v>
+        <v>421</v>
       </c>
       <c r="BA1" s="1" t="s">
         <v>38</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>566</v>
+        <v>422</v>
       </c>
       <c r="BC1" s="1" t="s">
         <v>39</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>567</v>
+        <v>423</v>
       </c>
       <c r="BE1" s="1" t="s">
         <v>40</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>568</v>
+        <v>424</v>
       </c>
       <c r="BG1" s="1" t="s">
         <v>41</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>569</v>
+        <v>425</v>
       </c>
       <c r="BI1" s="1" t="s">
         <v>42</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>570</v>
+        <v>426</v>
       </c>
       <c r="BK1" s="1" t="s">
         <v>43</v>
       </c>
       <c r="BL1" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="BN1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="BM1" s="1" t="s">
+      <c r="BO1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="BN1" s="1" t="s">
+      <c r="BP1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="BO1" s="1" t="s">
+      <c r="BQ1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="BP1" s="1" t="s">
+      <c r="BR1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="BQ1" s="1" t="s">
+      <c r="BS1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="BR1" s="1" t="s">
+      <c r="BT1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="BS1" s="1" t="s">
+      <c r="BU1" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="BV1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="BT1" s="1" t="s">
+      <c r="BW1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="BU1" s="1" t="s">
+      <c r="BX1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="BV1" s="1" t="s">
+      <c r="BY1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="BW1" s="1" t="s">
+      <c r="BZ1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="BX1" s="1" t="s">
-        <v>571</v>
-      </c>
-      <c r="BY1" s="1" t="s">
+      <c r="CA1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="BZ1" s="1" t="s">
+      <c r="CB1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="CC1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="CD1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="CE1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="CF1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="CG1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="CH1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="CI1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="CJ1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="CK1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="CL1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="CA1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="CB1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="CC1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="CD1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="CE1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="CF1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="CG1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="CH1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="CI1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="CJ1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="CK1" s="1" t="s">
+      <c r="CM1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="CL1" s="1" t="s">
+      <c r="CN1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="CM1" s="1" t="s">
+      <c r="CO1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="CN1" s="1" t="s">
+      <c r="CP1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="CO1" s="1" t="s">
+      <c r="CQ1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="CP1" s="1" t="s">
+      <c r="CR1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="CQ1" s="1" t="s">
+      <c r="CS1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="CR1" s="1" t="s">
+      <c r="CT1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="CS1" s="1" t="s">
+      <c r="CU1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="CT1" s="1" t="s">
+      <c r="CV1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="CU1" s="1" t="s">
+      <c r="CW1" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="CX1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="CV1" s="1" t="s">
+      <c r="CY1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="CW1" s="1" t="s">
+      <c r="CZ1" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="DA1" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="DB1" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="DC1" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="DD1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="CX1" s="1" t="s">
+      <c r="DE1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="CY1" s="1" t="s">
+      <c r="DF1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="CZ1" s="1" t="s">
+      <c r="DG1" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="DH1" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="DI1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="DA1" s="1" t="s">
+      <c r="DJ1" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="DK1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="DB1" s="1" t="s">
+      <c r="DL1" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="DM1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="DC1" s="1" t="s">
+      <c r="DN1" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="DO1" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="DP1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="DD1" s="1" t="s">
+      <c r="DQ1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="DE1" s="1" t="s">
+      <c r="DR1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="DF1" s="1" t="s">
+      <c r="DS1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="DG1" s="1" t="s">
+      <c r="DT1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="DH1" s="1" t="s">
+      <c r="DU1" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="DI1" s="1" t="s">
+      <c r="DV1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="DJ1" s="1" t="s">
+      <c r="DW1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="DK1" s="1" t="s">
+      <c r="DX1" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="DL1" s="1" t="s">
+      <c r="DY1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="DM1" s="1" t="s">
+      <c r="DZ1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="DN1" s="1" t="s">
+      <c r="EA1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="DO1" s="1" t="s">
+      <c r="EB1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="DP1" s="1" t="s">
+      <c r="EC1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="DQ1" s="1" t="s">
+      <c r="ED1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="DR1" s="1" t="s">
+      <c r="EE1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="DS1" s="1" t="s">
+      <c r="EF1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="DT1" s="1" t="s">
+      <c r="EG1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="DU1" s="1" t="s">
-        <v>572</v>
-      </c>
-      <c r="DV1" s="1" t="s">
+      <c r="EH1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="DW1" s="1" t="s">
+      <c r="EI1" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="EJ1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="DX1" s="1" t="s">
+      <c r="EK1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="DY1" s="1" t="s">
+      <c r="EL1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="DZ1" s="1" t="s">
+      <c r="EM1" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="EN1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="EA1" s="1" t="s">
+      <c r="EO1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="EB1" s="1" t="s">
+      <c r="EP1" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="EC1" s="1" t="s">
-        <v>573</v>
-      </c>
-      <c r="ED1" s="1" t="s">
+      <c r="EQ1" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="ER1" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="EE1" s="1" t="s">
+      <c r="ES1" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="EF1" s="1" t="s">
+      <c r="ET1" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="EG1" s="1" t="s">
+      <c r="EU1" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="EV1" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="EH1" s="1" t="s">
+      <c r="EW1" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="EI1" s="1" t="s">
+      <c r="EX1" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="EJ1" s="1" t="s">
+      <c r="EY1" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="EZ1" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="EK1" s="1" t="s">
+      <c r="FA1" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="EL1" s="1" t="s">
+      <c r="FB1" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="EM1" s="1" t="s">
+      <c r="FC1" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="EN1" s="1" t="s">
+      <c r="FD1" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="EO1" s="1" t="s">
+      <c r="FE1" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="EP1" s="1" t="s">
+      <c r="FF1" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="FG1" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="FH1" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="FI1" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="FJ1" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="FK1" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="EQ1" s="1" t="s">
+      <c r="FL1" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="ER1" s="1" t="s">
+      <c r="FM1" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="ES1" s="1" t="s">
+      <c r="FN1" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="FO1" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="FP1" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="ET1" s="1" t="s">
+      <c r="FQ1" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="EU1" s="1" t="s">
+      <c r="FR1" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="EV1" s="1" t="s">
+      <c r="FS1" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="EW1" s="1" t="s">
-        <v>574</v>
-      </c>
-      <c r="EX1" s="1" t="s">
+      <c r="FT1" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="EY1" s="1" t="s">
+      <c r="FU1" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="EZ1" s="1" t="s">
+      <c r="FV1" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="FA1" s="1" t="s">
+      <c r="FW1" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="FB1" s="1" t="s">
+      <c r="FX1" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="FC1" s="1" t="s">
+      <c r="FY1" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="FD1" s="1" t="s">
+      <c r="FZ1" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="FE1" s="1" t="s">
+      <c r="GA1" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="FF1" s="1" t="s">
+      <c r="GB1" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="FG1" s="1" t="s">
+      <c r="GC1" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="FH1" s="1" t="s">
+      <c r="GD1" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="FI1" s="1" t="s">
+      <c r="GE1" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="FJ1" s="1" t="s">
+      <c r="GF1" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="FK1" s="1" t="s">
+      <c r="GG1" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="FL1" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="FM1" s="1" t="s">
+      <c r="GH1" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="FN1" s="1" t="s">
+      <c r="GI1" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="FO1" s="1" t="s">
+      <c r="GJ1" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="FP1" s="1" t="s">
+      <c r="GK1" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="FQ1" s="1" t="s">
+      <c r="GL1" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="FR1" s="1" t="s">
+      <c r="GM1" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="FS1" s="1" t="s">
+      <c r="GN1" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="FT1" s="1" t="s">
+      <c r="GO1" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="FU1" s="1" t="s">
+      <c r="GP1" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="FV1" s="1" t="s">
+      <c r="GQ1" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="FW1" s="1" t="s">
+      <c r="GR1" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="FX1" s="1" t="s">
+      <c r="GS1" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="FY1" s="1" t="s">
+      <c r="GT1" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="FZ1" s="1" t="s">
+      <c r="GU1" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="GA1" s="1" t="s">
+      <c r="GV1" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="GB1" s="1" t="s">
+      <c r="GW1" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="GC1" s="1" t="s">
+      <c r="GX1" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="GY1" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="GD1" s="1" t="s">
+      <c r="GZ1" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="GE1" s="1" t="s">
+      <c r="HA1" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="GF1" s="1" t="s">
+      <c r="HB1" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="GG1" s="1" t="s">
+      <c r="HC1" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="GH1" s="1" t="s">
+      <c r="HD1" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="HE1" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="HF1" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="GI1" s="1" t="s">
+      <c r="HG1" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="GJ1" s="1" t="s">
+      <c r="HH1" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="GK1" s="1" t="s">
+      <c r="HI1" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="GL1" s="1" t="s">
-        <v>576</v>
-      </c>
-      <c r="GM1" s="1" t="s">
+      <c r="HJ1" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="GN1" s="1" t="s">
+      <c r="HK1" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="GO1" s="1" t="s">
+      <c r="HL1" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="GP1" s="1" t="s">
+      <c r="HM1" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="GQ1" s="1" t="s">
+      <c r="HN1" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="GR1" s="1" t="s">
+      <c r="HO1" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="GS1" s="1" t="s">
+      <c r="HP1" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="GT1" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="GU1" s="1" t="s">
+      <c r="HQ1" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="GV1" s="1" t="s">
+      <c r="HR1" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="GW1" s="1" t="s">
+      <c r="HS1" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="GX1" s="1" t="s">
+      <c r="HT1" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="HU1" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="GY1" s="1" t="s">
+      <c r="HV1" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="GZ1" s="1" t="s">
+      <c r="HW1" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="HX1" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="HA1" s="1" t="s">
+      <c r="HY1" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="HB1" s="1" t="s">
+      <c r="HZ1" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="HC1" s="1" t="s">
+      <c r="IA1" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="HD1" s="1" t="s">
+      <c r="IB1" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="HE1" s="1" t="s">
+      <c r="IC1" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="HF1" s="1" t="s">
+      <c r="ID1" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="HG1" s="1" t="s">
+      <c r="IE1" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="HH1" s="1" t="s">
+      <c r="IF1" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="HI1" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="HJ1" s="1" t="s">
+      <c r="IG1" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="HK1" s="1" t="s">
+      <c r="IH1" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="HL1" s="1" t="s">
+      <c r="II1" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="HM1" s="1" t="s">
+      <c r="IJ1" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="HN1" s="1" t="s">
-        <v>579</v>
-      </c>
-      <c r="HO1" s="1" t="s">
+      <c r="IK1" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="HP1" s="1" t="s">
+      <c r="IL1" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="HQ1" s="1" t="s">
+      <c r="IM1" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="HR1" s="1" t="s">
+      <c r="IN1" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="HS1" s="1" t="s">
-        <v>580</v>
-      </c>
-      <c r="HT1" s="1" t="s">
+      <c r="IO1" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="HU1" s="1" t="s">
+      <c r="IP1" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="IQ1" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="HV1" s="1" t="s">
+      <c r="IR1" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="HW1" s="1" t="s">
+      <c r="IS1" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="HX1" s="1" t="s">
-        <v>581</v>
-      </c>
-      <c r="HY1" s="1" t="s">
+      <c r="IT1" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="HZ1" s="1" t="s">
+      <c r="IU1" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="IA1" s="1" t="s">
+      <c r="IV1" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="IW1" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="IB1" s="1" t="s">
+      <c r="IX1" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="IC1" s="1" t="s">
+      <c r="IY1" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="IZ1" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="ID1" s="1" t="s">
+      <c r="JA1" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="IE1" s="1" t="s">
+      <c r="JB1" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="IF1" s="1" t="s">
+      <c r="JC1" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="IG1" s="1" t="s">
-        <v>582</v>
-      </c>
-      <c r="IH1" s="1" t="s">
+      <c r="JD1" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="II1" s="1" t="s">
+      <c r="JE1" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="IJ1" s="1" t="s">
+      <c r="JF1" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="IK1" s="1" t="s">
+      <c r="JG1" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="IL1" s="1" t="s">
+      <c r="JH1" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="IM1" s="1" t="s">
+      <c r="JI1" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="IN1" s="1" t="s">
+      <c r="JJ1" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="IO1" s="1" t="s">
+      <c r="JK1" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="IP1" s="1" t="s">
+      <c r="JL1" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="IQ1" s="1" t="s">
+      <c r="JM1" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="IR1" s="1" t="s">
+      <c r="JN1" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="IS1" s="1" t="s">
+      <c r="JO1" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="IT1" s="1" t="s">
+      <c r="JP1" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="IU1" s="1" t="s">
+      <c r="JQ1" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="IV1" s="1" t="s">
+      <c r="JR1" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="IW1" s="1" t="s">
+      <c r="JS1" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="IX1" s="1" t="s">
+      <c r="JT1" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="IY1" s="1" t="s">
+      <c r="JU1" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="IZ1" s="1" t="s">
+      <c r="JV1" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="JA1" s="1" t="s">
+      <c r="JW1" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="JB1" s="1" t="s">
+      <c r="JX1" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="JC1" s="1" t="s">
+      <c r="JY1" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="JD1" s="1" t="s">
+      <c r="JZ1" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="JE1" s="1" t="s">
+      <c r="KA1" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="JF1" s="1" t="s">
+      <c r="KB1" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="JG1" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="JH1" s="1" t="s">
+      <c r="KC1" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="JI1" s="1" t="s">
+      <c r="KD1" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="JJ1" s="1" t="s">
+      <c r="KE1" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="JK1" s="1" t="s">
+      <c r="KF1" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="JL1" s="1" t="s">
+      <c r="KG1" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="JM1" s="1" t="s">
+      <c r="KH1" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="JN1" s="1" t="s">
+      <c r="KI1" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="JO1" s="1" t="s">
+      <c r="KJ1" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="JP1" s="1" t="s">
+      <c r="KK1" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="JQ1" s="1" t="s">
+      <c r="KL1" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="JR1" s="1" t="s">
+      <c r="KM1" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="JS1" s="1" t="s">
+      <c r="KN1" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="JT1" s="1" t="s">
+      <c r="KO1" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="JU1" s="1" t="s">
+      <c r="KP1" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="JV1" s="1" t="s">
+      <c r="KQ1" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="JW1" s="1" t="s">
+      <c r="KR1" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="JX1" s="1" t="s">
+      <c r="KS1" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="KT1" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="JY1" s="1" t="s">
+      <c r="KU1" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="JZ1" s="1" t="s">
+      <c r="KV1" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="KA1" s="1" t="s">
+      <c r="KW1" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="KB1" s="1" t="s">
+      <c r="KX1" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="KC1" s="1" t="s">
+      <c r="KY1" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="KD1" s="1" t="s">
-        <v>584</v>
-      </c>
-      <c r="KE1" s="1" t="s">
+      <c r="KZ1" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="KF1" s="1" t="s">
+      <c r="LA1" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="KG1" s="1" t="s">
+      <c r="LB1" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="KH1" s="1" t="s">
+      <c r="LC1" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="KI1" s="1" t="s">
+      <c r="LD1" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="KJ1" s="1" t="s">
+      <c r="LE1" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="KK1" s="1" t="s">
+      <c r="LF1" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="KL1" s="1" t="s">
+      <c r="LG1" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="KM1" s="1" t="s">
+      <c r="LH1" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="LI1" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="KN1" s="1" t="s">
+      <c r="LJ1" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="KO1" s="1" t="s">
+      <c r="LK1" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="LL1" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="KP1" s="1" t="s">
+      <c r="LM1" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="KQ1" s="1" t="s">
+      <c r="LN1" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="LO1" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="KR1" s="1" t="s">
+      <c r="LP1" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="KS1" s="1" t="s">
+      <c r="LQ1" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="KT1" s="1" t="s">
+      <c r="LR1" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="KU1" s="1" t="s">
+      <c r="LS1" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="KV1" s="1" t="s">
+      <c r="LT1" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="KW1" s="1" t="s">
+      <c r="LU1" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="KX1" s="1" t="s">
+      <c r="LV1" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="LW1" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="KY1" s="1" t="s">
+      <c r="LX1" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="KZ1" s="1" t="s">
+      <c r="LY1" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="LA1" s="1" t="s">
+      <c r="LZ1" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="LB1" s="1" t="s">
+      <c r="MA1" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="LC1" s="1" t="s">
+      <c r="MB1" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="LD1" s="1" t="s">
+      <c r="MC1" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="LE1" s="1" t="s">
+      <c r="MD1" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="LF1" s="1" t="s">
+      <c r="ME1" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="LG1" s="1" t="s">
+      <c r="MF1" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="LH1" s="1" t="s">
-        <v>585</v>
-      </c>
-      <c r="LI1" s="1" t="s">
+      <c r="MG1" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="LJ1" s="1" t="s">
+      <c r="MH1" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="LK1" s="1" t="s">
+      <c r="MI1" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="LL1" s="1" t="s">
+      <c r="MJ1" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="MK1" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="LM1" s="1" t="s">
+      <c r="ML1" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="MM1" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="LN1" s="1" t="s">
+      <c r="MN1" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="LO1" s="1" t="s">
+      <c r="MO1" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="LP1" s="1" t="s">
+      <c r="MP1" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="LQ1" s="1" t="s">
+      <c r="MQ1" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="LR1" s="1" t="s">
+      <c r="MR1" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="LS1" s="1" t="s">
+      <c r="MS1" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="LT1" s="1" t="s">
+      <c r="MT1" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="LU1" s="1" t="s">
+      <c r="MU1" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="LV1" s="1" t="s">
+      <c r="MV1" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="LW1" s="1" t="s">
+      <c r="MW1" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="LX1" s="1" t="s">
-        <v>586</v>
-      </c>
-      <c r="LY1" s="1" t="s">
+      <c r="MX1" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="LZ1" s="1" t="s">
+      <c r="MY1" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="MA1" s="1" t="s">
+      <c r="MZ1" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="MB1" s="1" t="s">
+      <c r="NA1" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="MC1" s="1" t="s">
+      <c r="NB1" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="MD1" s="1" t="s">
+      <c r="NC1" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="ME1" s="1" t="s">
+      <c r="ND1" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="MF1" s="1" t="s">
+      <c r="NE1" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="MG1" s="1" t="s">
+      <c r="NF1" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="MH1" s="1" t="s">
+      <c r="NG1" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="MI1" s="1" t="s">
+      <c r="NH1" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="MJ1" s="1" t="s">
+      <c r="NI1" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="MK1" s="1" t="s">
+      <c r="NJ1" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="ML1" s="1" t="s">
+      <c r="NK1" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="MM1" s="1" t="s">
-        <v>587</v>
-      </c>
-      <c r="MN1" s="1" t="s">
+      <c r="NL1" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="MO1" s="1" t="s">
+      <c r="NM1" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="MP1" s="1" t="s">
-        <v>588</v>
-      </c>
-      <c r="MQ1" s="1" t="s">
+      <c r="NN1" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="MR1" s="1" t="s">
+      <c r="NO1" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="MS1" s="1" t="s">
+      <c r="NP1" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="MT1" s="1" t="s">
+      <c r="NQ1" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="MU1" s="1" t="s">
+      <c r="NR1" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="MV1" s="1" t="s">
+      <c r="NS1" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="MW1" s="1" t="s">
+      <c r="NT1" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="MX1" s="1" t="s">
+      <c r="NU1" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="MY1" s="1" t="s">
+      <c r="NV1" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="MZ1" s="1" t="s">
+      <c r="NW1" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="NA1" s="1" t="s">
+      <c r="NX1" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="NB1" s="1" t="s">
+      <c r="NY1" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="NC1" s="1" t="s">
+      <c r="NZ1" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="ND1" s="1" t="s">
+      <c r="OA1" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="NE1" s="1" t="s">
+      <c r="OB1" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="NF1" s="1" t="s">
+      <c r="OC1" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="NG1" s="1" t="s">
+      <c r="OD1" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="NH1" s="1" t="s">
+      <c r="OE1" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="NI1" s="1" t="s">
+      <c r="OF1" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="NJ1" s="1" t="s">
+      <c r="OG1" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="NK1" s="1" t="s">
+      <c r="OH1" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="NL1" s="1" t="s">
+      <c r="OI1" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="NM1" s="1" t="s">
+      <c r="OJ1" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="NN1" s="1" t="s">
+      <c r="OK1" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="NO1" s="1" t="s">
+      <c r="OL1" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="NP1" s="1" t="s">
-        <v>589</v>
-      </c>
-      <c r="NQ1" s="1" t="s">
+      <c r="OM1" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="NR1" s="1" t="s">
+      <c r="ON1" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="NS1" s="1" t="s">
+      <c r="OO1" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="NT1" s="1" t="s">
+      <c r="OP1" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="NU1" s="1" t="s">
+      <c r="OQ1" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="NV1" s="1" t="s">
-        <v>590</v>
-      </c>
-      <c r="NW1" s="1" t="s">
+      <c r="OR1" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="NX1" s="1" t="s">
+      <c r="OS1" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="NY1" s="1" t="s">
-        <v>591</v>
-      </c>
-      <c r="NZ1" s="1" t="s">
+      <c r="OT1" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="OA1" s="1" t="s">
+      <c r="OU1" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="OB1" s="1" t="s">
+      <c r="OV1" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="OC1" s="1" t="s">
+      <c r="OW1" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="OD1" s="1" t="s">
+      <c r="OX1" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="OE1" s="1" t="s">
+      <c r="OY1" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="OF1" s="1" t="s">
+      <c r="OZ1" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="OG1" s="1" t="s">
+      <c r="PA1" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="OH1" s="1" t="s">
+      <c r="PB1" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="OI1" s="1" t="s">
+      <c r="PC1" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="OJ1" s="1" t="s">
+      <c r="PD1" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="OK1" s="1" t="s">
+      <c r="PE1" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="OL1" s="1" t="s">
+      <c r="PF1" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="OM1" s="1" t="s">
+      <c r="PG1" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="ON1" s="1" t="s">
+      <c r="PH1" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="OO1" s="1" t="s">
+      <c r="PI1" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="OP1" s="1" t="s">
+      <c r="PJ1" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="OQ1" s="1" t="s">
+      <c r="PK1" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="OR1" s="1" t="s">
+      <c r="PL1" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="OS1" s="1" t="s">
+      <c r="PM1" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="OT1" s="1" t="s">
+      <c r="PN1" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="OU1" s="1" t="s">
+      <c r="PO1" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="OV1" s="1" t="s">
+      <c r="PP1" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="OW1" s="1" t="s">
+      <c r="PQ1" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="OX1" s="1" t="s">
+      <c r="PR1" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="OY1" s="1" t="s">
+      <c r="PS1" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="OZ1" s="1" t="s">
+      <c r="PT1" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="PA1" s="1" t="s">
+      <c r="PU1" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="PB1" s="1" t="s">
+      <c r="PV1" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="PC1" s="1" t="s">
+      <c r="PW1" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="PD1" s="1" t="s">
+      <c r="PX1" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="PE1" s="1" t="s">
+      <c r="PY1" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="PF1" s="1" t="s">
+      <c r="PZ1" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="PG1" s="1" t="s">
+      <c r="QA1" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="PH1" s="1" t="s">
+      <c r="QB1" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="PI1" s="1" t="s">
+      <c r="QC1" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="PJ1" s="1" t="s">
+      <c r="QD1" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="PK1" s="1" t="s">
+      <c r="QE1" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="PL1" s="1" t="s">
+      <c r="QF1" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="PM1" s="1" t="s">
+      <c r="QG1" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="PN1" s="1" t="s">
+      <c r="QH1" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="PO1" s="1" t="s">
+      <c r="QI1" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="PP1" s="1" t="s">
+      <c r="QJ1" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="PQ1" s="1" t="s">
+      <c r="QK1" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="PR1" s="1" t="s">
+      <c r="QL1" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="PS1" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="PT1" s="1" t="s">
+      <c r="QM1" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="PU1" s="1" t="s">
+      <c r="QN1" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="PV1" s="1" t="s">
+      <c r="QO1" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="PW1" s="1" t="s">
+      <c r="QP1" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="PX1" s="1" t="s">
+      <c r="QQ1" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="PY1" s="1" t="s">
+      <c r="QR1" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="PZ1" s="1" t="s">
+      <c r="QS1" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="QA1" s="1" t="s">
+      <c r="QT1" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="QB1" s="1" t="s">
+      <c r="QU1" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="QC1" s="1" t="s">
+      <c r="QV1" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="QD1" s="1" t="s">
+      <c r="QW1" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="QE1" s="1" t="s">
+      <c r="QX1" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="QF1" s="1" t="s">
+      <c r="QY1" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="QG1" s="1" t="s">
+      <c r="QZ1" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="QH1" s="1" t="s">
-        <v>593</v>
-      </c>
-      <c r="QI1" s="1" t="s">
+      <c r="RA1" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="QJ1" s="1" t="s">
+      <c r="RB1" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="QK1" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="QL1" s="1" t="s">
+      <c r="RC1" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="QM1" s="1" t="s">
+      <c r="RD1" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="QN1" s="1" t="s">
-        <v>595</v>
-      </c>
-      <c r="QO1" s="1" t="s">
+      <c r="RE1" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="QP1" s="1" t="s">
+      <c r="RF1" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="QQ1" s="1" t="s">
+      <c r="RG1" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="QR1" s="1" t="s">
+      <c r="RH1" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="QS1" s="1" t="s">
+      <c r="RI1" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="QT1" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="QU1" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="QV1" s="1" t="s">
-        <v>596</v>
-      </c>
-      <c r="QW1" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="QX1" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="QY1" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="QZ1" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="RA1" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="RB1" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="RC1" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="RD1" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="RE1" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="RF1" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="RG1" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="RH1" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="RI1" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="RJ1" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="RK1" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="RL1" s="1" t="s">
-        <v>598</v>
-      </c>
-      <c r="RM1" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="RN1" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="RO1" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="RP1" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="RQ1" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="RR1" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="RS1" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="RT1" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="RU1" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="RV1" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="RW1" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="RX1" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="RY1" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="RZ1" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="SA1" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="SB1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:477" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>451</v>
+      </c>
+      <c r="B2" t="s">
+        <v>451</v>
+      </c>
+      <c r="C2" t="s">
+        <v>455</v>
+      </c>
+      <c r="D2" t="s">
+        <v>451</v>
+      </c>
+      <c r="E2" t="s">
         <v>448</v>
       </c>
-      <c r="SC1" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="SD1" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="SE1" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="SF1" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="SG1" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="SH1" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="SI1" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="SJ1" s="1" t="s">
+      <c r="F2" t="s">
+        <v>451</v>
+      </c>
+      <c r="G2" t="s">
+        <v>451</v>
+      </c>
+      <c r="H2" t="s">
+        <v>451</v>
+      </c>
+      <c r="I2" t="s">
+        <v>451</v>
+      </c>
+      <c r="J2" t="s">
+        <v>451</v>
+      </c>
+      <c r="K2" t="s">
+        <v>451</v>
+      </c>
+      <c r="L2" t="s">
+        <v>451</v>
+      </c>
+      <c r="M2" t="s">
+        <v>451</v>
+      </c>
+      <c r="N2" t="s">
+        <v>451</v>
+      </c>
+      <c r="O2" t="s">
+        <v>451</v>
+      </c>
+      <c r="P2" t="s">
         <v>456</v>
       </c>
-      <c r="SK1" s="1" t="s">
+      <c r="Q2" t="s">
+        <v>451</v>
+      </c>
+      <c r="R2" t="s">
+        <v>451</v>
+      </c>
+      <c r="S2" t="s">
+        <v>451</v>
+      </c>
+      <c r="T2" t="s">
+        <v>451</v>
+      </c>
+      <c r="U2" t="s">
+        <v>451</v>
+      </c>
+      <c r="V2" t="s">
         <v>457</v>
       </c>
-      <c r="SL1" s="1" t="s">
+      <c r="W2" t="s">
+        <v>451</v>
+      </c>
+      <c r="X2" t="s">
+        <v>451</v>
+      </c>
+      <c r="Y2" t="s">
         <v>458</v>
       </c>
-      <c r="SM1" s="1" t="s">
+      <c r="Z2" t="s">
+        <v>451</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>451</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>451</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>451</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>451</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>451</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>451</v>
+      </c>
+      <c r="AG2" t="s">
         <v>459</v>
       </c>
-      <c r="SN1" s="1" t="s">
+      <c r="AH2" t="s">
+        <v>451</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>451</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>464</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>451</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>465</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>451</v>
+      </c>
+      <c r="AN2" t="s">
         <v>460</v>
       </c>
-      <c r="SO1" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="SP1" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="SQ1" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="SR1" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="SS1" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="ST1" s="1" t="s">
+      <c r="AO2" t="s">
+        <v>451</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>451</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>451</v>
+      </c>
+      <c r="AR2" t="s">
         <v>466</v>
       </c>
-      <c r="SU1" s="1" t="s">
+      <c r="AS2" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="AT2" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>451</v>
+      </c>
+      <c r="AV2" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>451</v>
+      </c>
+      <c r="AX2" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>451</v>
+      </c>
+      <c r="AZ2" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>451</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>475</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>451</v>
+      </c>
+      <c r="BD2" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>451</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>475</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>451</v>
+      </c>
+      <c r="BH2" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>451</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>475</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>451</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>451</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>451</v>
+      </c>
+      <c r="BN2" t="s">
         <v>467</v>
       </c>
-      <c r="SV1" s="1" t="s">
+      <c r="BO2" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="BP2" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="BQ2" t="s">
         <v>468</v>
       </c>
-      <c r="SW1" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="SX1" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="SY1" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="SZ1" s="1" t="s">
+      <c r="BR2" t="s">
+        <v>451</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>451</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>451</v>
+      </c>
+      <c r="BU2" t="s">
+        <v>459</v>
+      </c>
+      <c r="BV2" t="s">
+        <v>451</v>
+      </c>
+      <c r="BW2" t="s">
+        <v>451</v>
+      </c>
+      <c r="BX2" t="s">
+        <v>451</v>
+      </c>
+      <c r="BY2" t="s">
+        <v>451</v>
+      </c>
+      <c r="BZ2" t="s">
+        <v>451</v>
+      </c>
+      <c r="CA2" t="s">
+        <v>451</v>
+      </c>
+      <c r="CB2" t="s">
+        <v>451</v>
+      </c>
+      <c r="CC2" t="s">
+        <v>451</v>
+      </c>
+      <c r="CD2" t="s">
+        <v>451</v>
+      </c>
+      <c r="CE2" t="s">
+        <v>451</v>
+      </c>
+      <c r="CF2" t="s">
+        <v>451</v>
+      </c>
+      <c r="CG2" t="s">
+        <v>451</v>
+      </c>
+      <c r="CH2" t="s">
+        <v>451</v>
+      </c>
+      <c r="CI2" t="s">
+        <v>451</v>
+      </c>
+      <c r="CJ2" t="s">
+        <v>451</v>
+      </c>
+      <c r="CK2" t="s">
+        <v>451</v>
+      </c>
+      <c r="CL2" t="s">
+        <v>451</v>
+      </c>
+      <c r="CM2" t="s">
+        <v>478</v>
+      </c>
+      <c r="CN2" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="TA1" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="TB1" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="TC1" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="TD1" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="TE1" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="TF1" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="TG1" s="1" t="s">
+      <c r="CO2" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="CP2" t="s">
+        <v>451</v>
+      </c>
+      <c r="CQ2" t="s">
+        <v>451</v>
+      </c>
+      <c r="CR2" t="s">
+        <v>451</v>
+      </c>
+      <c r="CS2" t="s">
+        <v>451</v>
+      </c>
+      <c r="CT2" t="s">
+        <v>451</v>
+      </c>
+      <c r="CU2" t="s">
+        <v>451</v>
+      </c>
+      <c r="CV2" t="s">
         <v>479</v>
       </c>
-      <c r="TH1" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="TI1" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="TJ1" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="TK1" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="TL1" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="TM1" s="1" t="s">
+      <c r="CW2" t="s">
+        <v>451</v>
+      </c>
+      <c r="CX2" t="s">
+        <v>451</v>
+      </c>
+      <c r="CY2" t="s">
+        <v>451</v>
+      </c>
+      <c r="CZ2" t="s">
+        <v>451</v>
+      </c>
+      <c r="DA2" t="s">
+        <v>451</v>
+      </c>
+      <c r="DB2" t="s">
+        <v>451</v>
+      </c>
+      <c r="DC2" t="s">
+        <v>451</v>
+      </c>
+      <c r="DD2" t="s">
+        <v>451</v>
+      </c>
+      <c r="DE2" t="s">
+        <v>451</v>
+      </c>
+      <c r="DF2" t="s">
+        <v>451</v>
+      </c>
+      <c r="DG2" t="s">
         <v>485</v>
       </c>
-      <c r="TN1" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="TO1" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="TP1" s="1" t="s">
+      <c r="DH2" t="s">
+        <v>451</v>
+      </c>
+      <c r="DI2" t="s">
+        <v>451</v>
+      </c>
+      <c r="DJ2" t="s">
+        <v>451</v>
+      </c>
+      <c r="DK2" t="s">
+        <v>451</v>
+      </c>
+      <c r="DL2" t="s">
         <v>488</v>
       </c>
-      <c r="TQ1" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="TR1" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="TS1" s="1" t="s">
+      <c r="DM2" t="s">
+        <v>451</v>
+      </c>
+      <c r="DN2" t="s">
+        <v>451</v>
+      </c>
+      <c r="DO2" t="s">
+        <v>451</v>
+      </c>
+      <c r="DP2" t="s">
+        <v>451</v>
+      </c>
+      <c r="DQ2" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="TT1" s="1" t="s">
+      <c r="DR2" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="DS2" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="DT2" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="DU2" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="DV2" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="DW2" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="DX2" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="DY2" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="TU1" s="1" t="s">
+      <c r="DZ2" t="s">
+        <v>451</v>
+      </c>
+      <c r="EA2" t="s">
+        <v>451</v>
+      </c>
+      <c r="EB2" t="s">
+        <v>451</v>
+      </c>
+      <c r="EC2" t="s">
+        <v>451</v>
+      </c>
+      <c r="ED2" t="s">
+        <v>451</v>
+      </c>
+      <c r="EE2" t="s">
+        <v>451</v>
+      </c>
+      <c r="EF2" t="s">
         <v>493</v>
       </c>
-      <c r="TV1" s="1" t="s">
+      <c r="EG2" t="s">
         <v>494</v>
       </c>
-      <c r="TW1" s="1" t="s">
+      <c r="EH2" t="s">
+        <v>451</v>
+      </c>
+      <c r="EI2" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="EJ2" t="s">
+        <v>451</v>
+      </c>
+      <c r="EK2" t="s">
+        <v>451</v>
+      </c>
+      <c r="EL2" t="s">
+        <v>451</v>
+      </c>
+      <c r="EM2" t="s">
         <v>495</v>
       </c>
-      <c r="TX1" s="1" t="s">
+      <c r="EN2" t="s">
+        <v>451</v>
+      </c>
+      <c r="EO2" t="s">
+        <v>451</v>
+      </c>
+      <c r="EP2" t="s">
+        <v>451</v>
+      </c>
+      <c r="EQ2" t="s">
         <v>496</v>
       </c>
-      <c r="TY1" s="1" t="s">
+      <c r="ER2" t="s">
+        <v>451</v>
+      </c>
+      <c r="ES2" t="s">
+        <v>451</v>
+      </c>
+      <c r="ET2" t="s">
+        <v>451</v>
+      </c>
+      <c r="EU2" s="3" t="s">
         <v>497</v>
       </c>
-      <c r="TZ1" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="UA1" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="UB1" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="UC1" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="UD1" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="UE1" s="1" t="s">
+      <c r="EV2" t="s">
+        <v>451</v>
+      </c>
+      <c r="EW2" t="s">
+        <v>451</v>
+      </c>
+      <c r="EX2" t="s">
+        <v>451</v>
+      </c>
+      <c r="EY2" t="s">
+        <v>497</v>
+      </c>
+      <c r="EZ2" t="s">
+        <v>451</v>
+      </c>
+      <c r="FA2" t="s">
+        <v>451</v>
+      </c>
+      <c r="FB2" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="FC2" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="FD2" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="FE2" t="s">
+        <v>451</v>
+      </c>
+      <c r="FF2" t="s">
+        <v>451</v>
+      </c>
+      <c r="FG2" t="s">
+        <v>451</v>
+      </c>
+      <c r="FH2" t="s">
+        <v>451</v>
+      </c>
+      <c r="FI2" t="s">
+        <v>451</v>
+      </c>
+      <c r="FJ2" t="s">
+        <v>451</v>
+      </c>
+      <c r="FK2" t="s">
+        <v>451</v>
+      </c>
+      <c r="FL2" t="s">
+        <v>451</v>
+      </c>
+      <c r="FM2" t="s">
         <v>503</v>
       </c>
-      <c r="UF1" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="UG1" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="UH1" s="1" t="s">
+      <c r="FN2" t="s">
+        <v>451</v>
+      </c>
+      <c r="FO2" t="s">
+        <v>451</v>
+      </c>
+      <c r="FP2" t="s">
+        <v>451</v>
+      </c>
+      <c r="FQ2" t="s">
+        <v>451</v>
+      </c>
+      <c r="FR2" t="s">
+        <v>451</v>
+      </c>
+      <c r="FS2" t="s">
+        <v>451</v>
+      </c>
+      <c r="FT2" t="s">
+        <v>451</v>
+      </c>
+      <c r="FU2" t="s">
+        <v>451</v>
+      </c>
+      <c r="FV2" t="s">
+        <v>451</v>
+      </c>
+      <c r="FW2" t="s">
+        <v>451</v>
+      </c>
+      <c r="FX2" t="s">
+        <v>451</v>
+      </c>
+      <c r="FY2" t="s">
+        <v>451</v>
+      </c>
+      <c r="FZ2" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="GA2" t="s">
+        <v>451</v>
+      </c>
+      <c r="GB2" t="s">
+        <v>451</v>
+      </c>
+      <c r="GC2" t="s">
+        <v>451</v>
+      </c>
+      <c r="GD2" t="s">
+        <v>451</v>
+      </c>
+      <c r="GE2" t="s">
+        <v>451</v>
+      </c>
+      <c r="GF2" t="s">
+        <v>451</v>
+      </c>
+      <c r="GG2" t="s">
+        <v>451</v>
+      </c>
+      <c r="GH2" t="s">
+        <v>451</v>
+      </c>
+      <c r="GI2" t="s">
+        <v>451</v>
+      </c>
+      <c r="GJ2" t="s">
+        <v>451</v>
+      </c>
+      <c r="GK2" t="s">
+        <v>451</v>
+      </c>
+      <c r="GL2" t="s">
+        <v>451</v>
+      </c>
+      <c r="GM2" t="s">
+        <v>451</v>
+      </c>
+      <c r="GN2" t="s">
+        <v>451</v>
+      </c>
+      <c r="GO2" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="GP2" t="s">
+        <v>451</v>
+      </c>
+      <c r="GQ2" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="GR2" t="s">
+        <v>451</v>
+      </c>
+      <c r="GS2" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="GT2" t="s">
+        <v>451</v>
+      </c>
+      <c r="GU2" t="s">
+        <v>451</v>
+      </c>
+      <c r="GV2" t="s">
+        <v>451</v>
+      </c>
+      <c r="GW2" t="s">
+        <v>451</v>
+      </c>
+      <c r="GX2" t="s">
         <v>506</v>
       </c>
-      <c r="UI1" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="UJ1" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="UK1" s="1" t="s">
+      <c r="GY2" t="s">
+        <v>451</v>
+      </c>
+      <c r="GZ2" t="s">
+        <v>451</v>
+      </c>
+      <c r="HA2" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="HB2" t="s">
+        <v>451</v>
+      </c>
+      <c r="HC2" t="s">
+        <v>451</v>
+      </c>
+      <c r="HD2" t="s">
+        <v>451</v>
+      </c>
+      <c r="HE2" t="s">
+        <v>451</v>
+      </c>
+      <c r="HF2" t="s">
+        <v>451</v>
+      </c>
+      <c r="HG2" t="s">
+        <v>451</v>
+      </c>
+      <c r="HH2" t="s">
+        <v>451</v>
+      </c>
+      <c r="HI2" t="s">
+        <v>451</v>
+      </c>
+      <c r="HJ2" t="s">
+        <v>451</v>
+      </c>
+      <c r="HK2" t="s">
+        <v>451</v>
+      </c>
+      <c r="HL2" t="s">
+        <v>451</v>
+      </c>
+      <c r="HM2" t="s">
+        <v>451</v>
+      </c>
+      <c r="HN2" t="s">
+        <v>451</v>
+      </c>
+      <c r="HO2" t="s">
+        <v>451</v>
+      </c>
+      <c r="HP2" t="s">
+        <v>451</v>
+      </c>
+      <c r="HQ2" t="s">
+        <v>451</v>
+      </c>
+      <c r="HR2" t="s">
+        <v>451</v>
+      </c>
+      <c r="HS2" t="s">
+        <v>451</v>
+      </c>
+      <c r="HT2" t="s">
         <v>509</v>
       </c>
-      <c r="UL1" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="UM1" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="UN1" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="UO1" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="UP1" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="UQ1" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="UR1" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="US1" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="UT1" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="UU1" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="UV1" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="UW1" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="UX1" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="UY1" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="UZ1" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="VA1" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="VB1" s="1" t="s">
-        <v>526</v>
-      </c>
-      <c r="VC1" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="VD1" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="VE1" s="1" t="s">
-        <v>529</v>
-      </c>
-      <c r="VF1" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="VG1" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="VH1" s="1" t="s">
-        <v>532</v>
-      </c>
-      <c r="VI1" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="VJ1" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="VK1" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="VL1" s="1" t="s">
-        <v>536</v>
-      </c>
-      <c r="VM1" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="VN1" s="1" t="s">
-        <v>538</v>
-      </c>
-      <c r="VO1" s="1" t="s">
-        <v>539</v>
-      </c>
-      <c r="VP1" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="VQ1" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="VR1" s="1" t="s">
-        <v>542</v>
-      </c>
-      <c r="VS1" s="1" t="s">
-        <v>543</v>
-      </c>
-      <c r="VT1" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="VU1" s="1" t="s">
-        <v>545</v>
-      </c>
-      <c r="VV1" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="VW1" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="VX1" s="1" t="s">
-        <v>548</v>
-      </c>
-      <c r="VY1" s="1" t="s">
-        <v>549</v>
-      </c>
-      <c r="VZ1" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="WA1" s="1" t="s">
-        <v>551</v>
-      </c>
-      <c r="WB1" s="1" t="s">
-        <v>552</v>
-      </c>
-      <c r="WC1" s="1" t="s">
-        <v>553</v>
-      </c>
-      <c r="WD1" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="WE1" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="WF1" s="1" t="s">
-        <v>556</v>
-      </c>
-      <c r="WG1" s="1" t="s">
-        <v>557</v>
-      </c>
-      <c r="WH1" s="1" t="s">
-        <v>558</v>
-      </c>
-      <c r="WI1" s="1" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="2" spans="1:607" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>602</v>
-      </c>
-      <c r="B2" t="s">
-        <v>602</v>
-      </c>
-      <c r="C2" t="s">
-        <v>606</v>
-      </c>
-      <c r="D2" t="s">
-        <v>602</v>
-      </c>
-      <c r="E2" t="s">
-        <v>599</v>
-      </c>
-      <c r="F2" t="s">
-        <v>602</v>
-      </c>
-      <c r="G2" t="s">
-        <v>602</v>
-      </c>
-      <c r="H2" t="s">
-        <v>602</v>
-      </c>
-      <c r="I2" t="s">
-        <v>602</v>
-      </c>
-      <c r="J2" t="s">
-        <v>602</v>
-      </c>
-      <c r="K2" t="s">
-        <v>602</v>
-      </c>
-      <c r="L2" t="s">
-        <v>602</v>
-      </c>
-      <c r="M2" t="s">
-        <v>602</v>
-      </c>
-      <c r="N2" t="s">
-        <v>602</v>
-      </c>
-      <c r="O2" t="s">
-        <v>602</v>
-      </c>
-      <c r="P2" t="s">
-        <v>607</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>602</v>
-      </c>
-      <c r="R2" t="s">
-        <v>602</v>
-      </c>
-      <c r="S2" t="s">
-        <v>602</v>
-      </c>
-      <c r="T2" t="s">
-        <v>602</v>
-      </c>
-      <c r="U2" t="s">
-        <v>602</v>
-      </c>
-      <c r="V2" t="s">
-        <v>608</v>
-      </c>
-      <c r="W2" t="s">
-        <v>602</v>
-      </c>
-      <c r="X2" t="s">
-        <v>602</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>609</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>602</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>602</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>602</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>602</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>602</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>602</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>602</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>610</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>602</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>602</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>615</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>602</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>615</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>602</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>611</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>602</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>602</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>602</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>602</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>602</v>
-      </c>
-      <c r="AT2" t="s">
-        <v>602</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>602</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>602</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>602</v>
-      </c>
-      <c r="AX2" t="s">
-        <v>602</v>
-      </c>
-      <c r="AY2" t="s">
-        <v>602</v>
-      </c>
-      <c r="AZ2" t="s">
-        <v>602</v>
-      </c>
-      <c r="BA2" t="s">
-        <v>602</v>
-      </c>
-      <c r="BB2" t="s">
-        <v>602</v>
-      </c>
-      <c r="BC2" t="s">
-        <v>602</v>
-      </c>
-      <c r="BD2" t="s">
-        <v>602</v>
-      </c>
-      <c r="BE2" t="s">
-        <v>602</v>
-      </c>
-      <c r="BF2" t="s">
-        <v>602</v>
-      </c>
-      <c r="BG2" t="s">
-        <v>602</v>
-      </c>
-      <c r="BH2" t="s">
-        <v>602</v>
-      </c>
-      <c r="BI2" t="s">
-        <v>602</v>
-      </c>
-      <c r="BJ2" t="s">
-        <v>602</v>
-      </c>
-      <c r="BK2" t="s">
-        <v>602</v>
-      </c>
-      <c r="BL2" t="s">
-        <v>602</v>
-      </c>
-      <c r="BM2" t="s">
-        <v>602</v>
-      </c>
-      <c r="BN2" t="s">
-        <v>602</v>
-      </c>
-      <c r="BO2" t="s">
-        <v>602</v>
-      </c>
-      <c r="BP2" t="s">
-        <v>602</v>
-      </c>
-      <c r="BQ2" t="s">
-        <v>602</v>
-      </c>
-      <c r="BR2" t="s">
-        <v>602</v>
-      </c>
-      <c r="BS2" t="s">
-        <v>602</v>
-      </c>
-      <c r="BT2" t="s">
-        <v>602</v>
-      </c>
-      <c r="BU2" t="s">
-        <v>602</v>
-      </c>
-      <c r="BV2" t="s">
-        <v>602</v>
-      </c>
-      <c r="BW2" t="s">
-        <v>602</v>
-      </c>
-      <c r="BX2" t="s">
-        <v>602</v>
-      </c>
-      <c r="BY2" t="s">
-        <v>602</v>
-      </c>
-      <c r="BZ2" t="s">
-        <v>602</v>
-      </c>
-      <c r="CA2" t="s">
-        <v>602</v>
-      </c>
-      <c r="CB2" t="s">
-        <v>602</v>
-      </c>
-      <c r="CC2" t="s">
-        <v>602</v>
-      </c>
-      <c r="CD2" t="s">
-        <v>602</v>
-      </c>
-      <c r="CE2" t="s">
-        <v>602</v>
-      </c>
-      <c r="CF2" t="s">
-        <v>602</v>
-      </c>
-      <c r="CG2" t="s">
-        <v>602</v>
-      </c>
-      <c r="CH2" t="s">
-        <v>602</v>
-      </c>
-      <c r="CI2" t="s">
-        <v>602</v>
-      </c>
-      <c r="CJ2" t="s">
-        <v>602</v>
-      </c>
-      <c r="CK2" t="s">
-        <v>602</v>
-      </c>
-      <c r="CL2" t="s">
-        <v>602</v>
-      </c>
-      <c r="CM2" t="s">
-        <v>602</v>
-      </c>
-      <c r="CN2" t="s">
-        <v>602</v>
-      </c>
-      <c r="CO2" t="s">
-        <v>602</v>
-      </c>
-      <c r="CP2" t="s">
-        <v>602</v>
-      </c>
-      <c r="CQ2" t="s">
-        <v>602</v>
-      </c>
-      <c r="CR2" t="s">
-        <v>602</v>
-      </c>
-      <c r="CS2" t="s">
-        <v>602</v>
-      </c>
-      <c r="CT2" t="s">
-        <v>602</v>
-      </c>
-      <c r="CU2" t="s">
-        <v>602</v>
-      </c>
-      <c r="CV2" t="s">
-        <v>602</v>
-      </c>
-      <c r="CW2" t="s">
-        <v>602</v>
-      </c>
-      <c r="CX2" t="s">
-        <v>602</v>
-      </c>
-      <c r="CY2" t="s">
-        <v>602</v>
-      </c>
-      <c r="CZ2" t="s">
-        <v>602</v>
-      </c>
-      <c r="DA2" t="s">
-        <v>602</v>
-      </c>
-      <c r="DB2" t="s">
-        <v>602</v>
-      </c>
-      <c r="DC2" t="s">
-        <v>602</v>
-      </c>
-      <c r="DD2" t="s">
-        <v>602</v>
-      </c>
-      <c r="DE2" t="s">
-        <v>602</v>
-      </c>
-      <c r="DF2" t="s">
-        <v>602</v>
-      </c>
-      <c r="DG2" t="s">
-        <v>602</v>
-      </c>
-      <c r="DH2" t="s">
-        <v>602</v>
-      </c>
-      <c r="DI2" t="s">
-        <v>602</v>
-      </c>
-      <c r="DJ2" t="s">
-        <v>602</v>
-      </c>
-      <c r="DK2" t="s">
-        <v>602</v>
-      </c>
-      <c r="DL2" t="s">
-        <v>602</v>
-      </c>
-      <c r="DM2" t="s">
-        <v>602</v>
-      </c>
-      <c r="DN2" t="s">
-        <v>602</v>
-      </c>
-      <c r="DO2" t="s">
-        <v>602</v>
-      </c>
-      <c r="DP2" t="s">
-        <v>602</v>
-      </c>
-      <c r="DQ2" t="s">
-        <v>602</v>
-      </c>
-      <c r="DR2" t="s">
-        <v>602</v>
-      </c>
-      <c r="DS2" t="s">
-        <v>602</v>
-      </c>
-      <c r="DT2" t="s">
-        <v>602</v>
-      </c>
-      <c r="DU2" t="s">
-        <v>602</v>
-      </c>
-      <c r="DV2" t="s">
-        <v>602</v>
-      </c>
-      <c r="DW2" t="s">
-        <v>602</v>
-      </c>
-      <c r="DX2" t="s">
-        <v>602</v>
-      </c>
-      <c r="DY2" t="s">
-        <v>602</v>
-      </c>
-      <c r="DZ2" t="s">
-        <v>602</v>
-      </c>
-      <c r="EA2" t="s">
-        <v>602</v>
-      </c>
-      <c r="EB2" t="s">
-        <v>602</v>
-      </c>
-      <c r="EC2" t="s">
-        <v>602</v>
-      </c>
-      <c r="ED2" t="s">
-        <v>602</v>
-      </c>
-      <c r="EE2" t="s">
-        <v>602</v>
-      </c>
-      <c r="EF2" t="s">
-        <v>602</v>
-      </c>
-      <c r="EG2" t="s">
-        <v>602</v>
-      </c>
-      <c r="EH2" t="s">
-        <v>602</v>
-      </c>
-      <c r="EI2" t="s">
-        <v>602</v>
-      </c>
-      <c r="EJ2" t="s">
-        <v>602</v>
-      </c>
-      <c r="EK2" t="s">
-        <v>602</v>
-      </c>
-      <c r="EL2" t="s">
-        <v>602</v>
-      </c>
-      <c r="EM2" t="s">
-        <v>602</v>
-      </c>
-      <c r="EN2" t="s">
-        <v>602</v>
-      </c>
-      <c r="EO2" t="s">
-        <v>602</v>
-      </c>
-      <c r="EP2" t="s">
-        <v>602</v>
-      </c>
-      <c r="EQ2" t="s">
-        <v>602</v>
-      </c>
-      <c r="ER2" t="s">
-        <v>602</v>
-      </c>
-      <c r="ES2" t="s">
-        <v>602</v>
-      </c>
-      <c r="ET2" t="s">
-        <v>602</v>
-      </c>
-      <c r="EU2" t="s">
-        <v>602</v>
-      </c>
-      <c r="EV2" t="s">
-        <v>602</v>
-      </c>
-      <c r="EW2" t="s">
-        <v>602</v>
-      </c>
-      <c r="EX2" t="s">
-        <v>602</v>
-      </c>
-      <c r="EY2" t="s">
-        <v>602</v>
-      </c>
-      <c r="EZ2" t="s">
-        <v>602</v>
-      </c>
-      <c r="FA2" t="s">
-        <v>602</v>
-      </c>
-      <c r="FB2" t="s">
-        <v>602</v>
-      </c>
-      <c r="FC2" t="s">
-        <v>602</v>
-      </c>
-      <c r="FD2" t="s">
-        <v>602</v>
-      </c>
-      <c r="FE2" t="s">
-        <v>602</v>
-      </c>
-      <c r="FF2" t="s">
-        <v>602</v>
-      </c>
-      <c r="FG2" t="s">
-        <v>602</v>
-      </c>
-      <c r="FH2" t="s">
-        <v>602</v>
-      </c>
-      <c r="FI2" t="s">
-        <v>602</v>
-      </c>
-      <c r="FJ2" t="s">
-        <v>602</v>
-      </c>
-      <c r="FK2" t="s">
-        <v>602</v>
-      </c>
-      <c r="FL2" t="s">
-        <v>602</v>
-      </c>
-      <c r="FM2" t="s">
-        <v>602</v>
-      </c>
-      <c r="FN2" t="s">
-        <v>602</v>
-      </c>
-      <c r="FO2" t="s">
-        <v>602</v>
-      </c>
-      <c r="FP2" t="s">
-        <v>602</v>
-      </c>
-      <c r="FQ2" t="s">
-        <v>602</v>
-      </c>
-      <c r="FR2" t="s">
-        <v>602</v>
-      </c>
-      <c r="FS2" t="s">
-        <v>602</v>
-      </c>
-      <c r="FT2" t="s">
-        <v>602</v>
-      </c>
-      <c r="FU2" t="s">
-        <v>602</v>
-      </c>
-      <c r="FV2" t="s">
-        <v>602</v>
-      </c>
-      <c r="FW2" t="s">
-        <v>602</v>
-      </c>
-      <c r="FX2" t="s">
-        <v>602</v>
-      </c>
-      <c r="FY2" t="s">
-        <v>602</v>
-      </c>
-      <c r="FZ2" t="s">
-        <v>602</v>
-      </c>
-      <c r="GA2" t="s">
-        <v>602</v>
-      </c>
-      <c r="GB2" t="s">
-        <v>602</v>
-      </c>
-      <c r="GC2" t="s">
-        <v>602</v>
-      </c>
-      <c r="GD2" t="s">
-        <v>602</v>
-      </c>
-      <c r="GE2" t="s">
-        <v>602</v>
-      </c>
-      <c r="GF2" t="s">
-        <v>602</v>
-      </c>
-      <c r="GG2" t="s">
-        <v>602</v>
-      </c>
-      <c r="GH2" t="s">
-        <v>602</v>
-      </c>
-      <c r="GI2" t="s">
-        <v>602</v>
-      </c>
-      <c r="GJ2" t="s">
-        <v>602</v>
-      </c>
-      <c r="GK2" t="s">
-        <v>602</v>
-      </c>
-      <c r="GL2" t="s">
-        <v>602</v>
-      </c>
-      <c r="GM2" t="s">
-        <v>602</v>
-      </c>
-      <c r="GN2" t="s">
-        <v>602</v>
-      </c>
-      <c r="GO2" t="s">
-        <v>602</v>
-      </c>
-      <c r="GP2" t="s">
-        <v>602</v>
-      </c>
-      <c r="GQ2" t="s">
-        <v>602</v>
-      </c>
-      <c r="GR2" t="s">
-        <v>602</v>
-      </c>
-      <c r="GS2" t="s">
-        <v>602</v>
-      </c>
-      <c r="GT2" t="s">
-        <v>602</v>
-      </c>
-      <c r="GU2" t="s">
-        <v>602</v>
-      </c>
-      <c r="GV2" t="s">
-        <v>602</v>
-      </c>
-      <c r="GW2" t="s">
-        <v>602</v>
-      </c>
-      <c r="GX2" t="s">
-        <v>602</v>
-      </c>
-      <c r="GY2" t="s">
-        <v>602</v>
-      </c>
-      <c r="GZ2" t="s">
-        <v>602</v>
-      </c>
-      <c r="HA2" t="s">
-        <v>602</v>
-      </c>
-      <c r="HB2" t="s">
-        <v>602</v>
-      </c>
-      <c r="HC2" t="s">
-        <v>602</v>
-      </c>
-      <c r="HD2" t="s">
-        <v>602</v>
-      </c>
-      <c r="HE2" t="s">
-        <v>602</v>
-      </c>
-      <c r="HF2" t="s">
-        <v>602</v>
-      </c>
-      <c r="HG2" t="s">
-        <v>602</v>
-      </c>
-      <c r="HH2" t="s">
-        <v>602</v>
-      </c>
-      <c r="HI2" t="s">
-        <v>602</v>
-      </c>
-      <c r="HJ2" t="s">
-        <v>602</v>
-      </c>
-      <c r="HK2" t="s">
-        <v>602</v>
-      </c>
-      <c r="HL2" t="s">
-        <v>602</v>
-      </c>
-      <c r="HM2" t="s">
-        <v>602</v>
-      </c>
-      <c r="HN2" t="s">
-        <v>602</v>
-      </c>
-      <c r="HO2" t="s">
-        <v>602</v>
-      </c>
-      <c r="HP2" t="s">
-        <v>602</v>
-      </c>
-      <c r="HQ2" t="s">
-        <v>602</v>
-      </c>
-      <c r="HR2" t="s">
-        <v>602</v>
-      </c>
-      <c r="HS2" t="s">
-        <v>602</v>
-      </c>
-      <c r="HT2" t="s">
-        <v>602</v>
-      </c>
       <c r="HU2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="HV2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="HW2" t="s">
-        <v>602</v>
+        <v>497</v>
       </c>
       <c r="HX2" t="s">
-        <v>602</v>
-      </c>
-      <c r="HY2" t="s">
-        <v>602</v>
-      </c>
-      <c r="HZ2" t="s">
-        <v>602</v>
-      </c>
-      <c r="IA2" t="s">
-        <v>602</v>
-      </c>
-      <c r="IB2" t="s">
-        <v>602</v>
-      </c>
-      <c r="IC2" t="s">
-        <v>602</v>
-      </c>
-      <c r="ID2" t="s">
-        <v>602</v>
-      </c>
-      <c r="IE2" t="s">
-        <v>602</v>
-      </c>
-      <c r="IF2" t="s">
-        <v>602</v>
+        <v>451</v>
+      </c>
+      <c r="HY2" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="HZ2" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="IA2" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="IB2" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="IC2" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="ID2" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="IE2" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="IF2" s="2" t="s">
+        <v>472</v>
       </c>
       <c r="IG2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="IH2" t="s">
-        <v>602</v>
-      </c>
-      <c r="II2" t="s">
-        <v>602</v>
+        <v>451</v>
+      </c>
+      <c r="II2" s="2" t="s">
+        <v>472</v>
       </c>
       <c r="IJ2" t="s">
-        <v>602</v>
-      </c>
-      <c r="IK2" t="s">
-        <v>602</v>
+        <v>451</v>
+      </c>
+      <c r="IK2" s="2" t="s">
+        <v>472</v>
       </c>
       <c r="IL2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="IM2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="IN2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="IO2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="IP2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="IQ2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="IR2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="IS2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="IT2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="IU2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="IV2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="IW2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="IX2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="IY2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="IZ2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="JA2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="JB2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="JC2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="JD2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="JE2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="JF2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="JG2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="JH2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="JI2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="JJ2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="JK2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="JL2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="JM2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="JN2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="JO2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="JP2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="JQ2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="JR2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="JS2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="JT2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="JU2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="JV2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="JW2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="JX2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="JY2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="JZ2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="KA2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="KB2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="KC2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="KD2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="KE2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="KF2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="KG2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="KH2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="KI2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="KJ2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="KK2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="KL2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="KM2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="KN2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="KO2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="KP2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="KQ2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="KR2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="KS2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="KT2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="KU2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="KV2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="KW2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="KX2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="KY2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="KZ2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="LA2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="LB2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="LC2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="LD2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="LE2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="LF2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="LG2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="LH2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="LI2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="LJ2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="LK2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="LL2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="LM2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="LN2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="LO2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="LP2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="LQ2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="LR2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="LS2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="LT2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="LU2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="LV2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="LW2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="LX2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="LY2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="LZ2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="MA2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="MB2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="MC2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="MD2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="ME2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="MF2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="MG2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="MH2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="MI2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="MJ2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="MK2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="ML2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="MM2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="MN2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="MO2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="MP2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="MQ2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="MR2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="MS2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="MT2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="MU2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="MV2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="MW2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="MX2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="MY2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="MZ2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="NA2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="NB2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="NC2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="ND2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="NE2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="NF2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="NG2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="NH2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="NI2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="NJ2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="NK2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="NL2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="NM2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="NN2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="NO2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="NP2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="NQ2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="NR2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="NS2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="NT2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="NU2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="NV2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="NW2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="NX2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="NY2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="NZ2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="OA2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="OB2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="OC2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="OD2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="OE2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="OF2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="OG2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="OH2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="OI2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="OJ2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="OK2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="OL2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="OM2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="ON2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="OO2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="OP2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="OQ2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="OR2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="OS2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="OT2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="OU2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="OV2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="OW2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="OX2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="OY2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="OZ2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="PA2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="PB2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="PC2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="PD2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="PE2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="PF2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="PG2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="PH2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="PI2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="PJ2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="PK2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="PL2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="PM2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="PN2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="PO2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="PP2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="PQ2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="PR2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="PS2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="PT2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="PU2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="PV2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="PW2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="PX2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="PY2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="PZ2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="QA2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="QB2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="QC2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="QD2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="QE2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="QF2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="QG2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="QH2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="QI2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="QJ2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="QK2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="QL2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="QM2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="QN2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="QO2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="QP2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="QQ2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="QR2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="QS2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="QT2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="QU2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="QV2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="QW2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="QX2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="QY2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="QZ2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="RA2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="RB2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="RC2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="RD2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="RE2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="RF2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="RG2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="RH2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
       <c r="RI2" t="s">
-        <v>602</v>
-      </c>
-      <c r="RJ2" t="s">
-        <v>602</v>
-      </c>
-      <c r="RK2" t="s">
-        <v>602</v>
-      </c>
-      <c r="RL2" t="s">
-        <v>602</v>
-      </c>
-      <c r="RM2" t="s">
-        <v>602</v>
-      </c>
-      <c r="RN2" t="s">
-        <v>602</v>
-      </c>
-      <c r="RO2" t="s">
-        <v>602</v>
-      </c>
-      <c r="RP2" t="s">
-        <v>602</v>
-      </c>
-      <c r="RQ2" t="s">
-        <v>602</v>
-      </c>
-      <c r="RR2" t="s">
-        <v>602</v>
-      </c>
-      <c r="RS2" t="s">
-        <v>602</v>
-      </c>
-      <c r="RT2" t="s">
-        <v>602</v>
-      </c>
-      <c r="RU2" t="s">
-        <v>602</v>
-      </c>
-      <c r="RV2" t="s">
-        <v>602</v>
-      </c>
-      <c r="RW2" t="s">
-        <v>602</v>
-      </c>
-      <c r="RX2" t="s">
-        <v>602</v>
-      </c>
-      <c r="RY2" t="s">
-        <v>602</v>
-      </c>
-      <c r="RZ2" t="s">
-        <v>602</v>
-      </c>
-      <c r="SA2" t="s">
-        <v>602</v>
-      </c>
-      <c r="SB2" t="s">
-        <v>602</v>
-      </c>
-      <c r="SC2" t="s">
-        <v>602</v>
-      </c>
-      <c r="SD2" t="s">
-        <v>602</v>
-      </c>
-      <c r="SE2" t="s">
-        <v>602</v>
-      </c>
-      <c r="SF2" t="s">
-        <v>602</v>
-      </c>
-      <c r="SG2" t="s">
-        <v>602</v>
-      </c>
-      <c r="SH2" t="s">
-        <v>602</v>
-      </c>
-      <c r="SI2" t="s">
-        <v>602</v>
-      </c>
-      <c r="SJ2" t="s">
-        <v>602</v>
-      </c>
-      <c r="SK2" t="s">
-        <v>602</v>
-      </c>
-      <c r="SL2" t="s">
-        <v>602</v>
-      </c>
-      <c r="SM2" t="s">
-        <v>602</v>
-      </c>
-      <c r="SN2" t="s">
-        <v>602</v>
-      </c>
-      <c r="SO2" t="s">
-        <v>602</v>
-      </c>
-      <c r="SP2" t="s">
-        <v>602</v>
-      </c>
-      <c r="SQ2" t="s">
-        <v>602</v>
-      </c>
-      <c r="SR2" t="s">
-        <v>602</v>
-      </c>
-      <c r="SS2" t="s">
-        <v>602</v>
-      </c>
-      <c r="ST2" t="s">
-        <v>602</v>
-      </c>
-      <c r="SU2" t="s">
-        <v>602</v>
-      </c>
-      <c r="SV2" t="s">
-        <v>602</v>
-      </c>
-      <c r="SW2" t="s">
-        <v>602</v>
-      </c>
-      <c r="SX2" t="s">
-        <v>602</v>
-      </c>
-      <c r="SY2" t="s">
-        <v>602</v>
-      </c>
-      <c r="SZ2" t="s">
-        <v>602</v>
-      </c>
-      <c r="TA2" t="s">
-        <v>602</v>
-      </c>
-      <c r="TB2" t="s">
-        <v>602</v>
-      </c>
-      <c r="TC2" t="s">
-        <v>602</v>
-      </c>
-      <c r="TD2" t="s">
-        <v>602</v>
-      </c>
-      <c r="TE2" t="s">
-        <v>602</v>
-      </c>
-      <c r="TF2" t="s">
-        <v>602</v>
-      </c>
-      <c r="TG2" t="s">
-        <v>602</v>
-      </c>
-      <c r="TH2" t="s">
-        <v>602</v>
-      </c>
-      <c r="TI2" t="s">
-        <v>602</v>
-      </c>
-      <c r="TJ2" t="s">
-        <v>602</v>
-      </c>
-      <c r="TK2" t="s">
-        <v>602</v>
-      </c>
-      <c r="TL2" t="s">
-        <v>602</v>
-      </c>
-      <c r="TM2" t="s">
-        <v>602</v>
-      </c>
-      <c r="TN2" t="s">
-        <v>602</v>
-      </c>
-      <c r="TO2" t="s">
-        <v>602</v>
-      </c>
-      <c r="TP2" t="s">
-        <v>602</v>
-      </c>
-      <c r="TQ2" t="s">
-        <v>602</v>
-      </c>
-      <c r="TR2" t="s">
-        <v>602</v>
-      </c>
-      <c r="TS2" t="s">
-        <v>602</v>
-      </c>
-      <c r="TT2" t="s">
-        <v>602</v>
-      </c>
-      <c r="TU2" t="s">
-        <v>602</v>
-      </c>
-      <c r="TV2" t="s">
-        <v>602</v>
-      </c>
-      <c r="TW2" t="s">
-        <v>602</v>
-      </c>
-      <c r="TX2" t="s">
-        <v>602</v>
-      </c>
-      <c r="TY2" t="s">
-        <v>602</v>
-      </c>
-      <c r="TZ2" t="s">
-        <v>602</v>
-      </c>
-      <c r="UA2" t="s">
-        <v>602</v>
-      </c>
-      <c r="UB2" t="s">
-        <v>602</v>
-      </c>
-      <c r="UC2" t="s">
-        <v>602</v>
-      </c>
-      <c r="UD2" t="s">
-        <v>602</v>
-      </c>
-      <c r="UE2" t="s">
-        <v>602</v>
-      </c>
-      <c r="UF2" t="s">
-        <v>602</v>
-      </c>
-      <c r="UG2" t="s">
-        <v>602</v>
-      </c>
-      <c r="UH2" t="s">
-        <v>602</v>
-      </c>
-      <c r="UI2" t="s">
-        <v>602</v>
-      </c>
-      <c r="UJ2" t="s">
-        <v>602</v>
-      </c>
-      <c r="UK2" t="s">
-        <v>602</v>
-      </c>
-      <c r="UL2" t="s">
-        <v>602</v>
-      </c>
-      <c r="UM2" t="s">
-        <v>602</v>
-      </c>
-      <c r="UN2" t="s">
-        <v>602</v>
-      </c>
-      <c r="UO2" t="s">
-        <v>602</v>
-      </c>
-      <c r="UP2" t="s">
-        <v>602</v>
-      </c>
-      <c r="UQ2" t="s">
-        <v>602</v>
-      </c>
-      <c r="UR2" t="s">
-        <v>602</v>
-      </c>
-      <c r="US2" t="s">
-        <v>602</v>
-      </c>
-      <c r="UT2" t="s">
-        <v>602</v>
-      </c>
-      <c r="UU2" t="s">
-        <v>602</v>
-      </c>
-      <c r="UV2" t="s">
-        <v>602</v>
-      </c>
-      <c r="UW2" t="s">
-        <v>602</v>
-      </c>
-      <c r="UX2" t="s">
-        <v>602</v>
-      </c>
-      <c r="UY2" t="s">
-        <v>602</v>
-      </c>
-      <c r="UZ2" t="s">
-        <v>602</v>
-      </c>
-      <c r="VA2" t="s">
-        <v>602</v>
-      </c>
-      <c r="VB2" t="s">
-        <v>602</v>
-      </c>
-      <c r="VC2" t="s">
-        <v>602</v>
-      </c>
-      <c r="VD2" t="s">
-        <v>602</v>
-      </c>
-      <c r="VE2" t="s">
-        <v>602</v>
-      </c>
-      <c r="VF2" t="s">
-        <v>602</v>
-      </c>
-      <c r="VG2" t="s">
-        <v>602</v>
-      </c>
-      <c r="VH2" t="s">
-        <v>602</v>
-      </c>
-      <c r="VI2" t="s">
-        <v>602</v>
-      </c>
-      <c r="VJ2" t="s">
-        <v>602</v>
-      </c>
-      <c r="VK2" t="s">
-        <v>602</v>
-      </c>
-      <c r="VL2" t="s">
-        <v>602</v>
-      </c>
-      <c r="VM2" t="s">
-        <v>602</v>
-      </c>
-      <c r="VN2" t="s">
-        <v>602</v>
-      </c>
-      <c r="VO2" t="s">
-        <v>602</v>
-      </c>
-      <c r="VP2" t="s">
-        <v>602</v>
-      </c>
-      <c r="VQ2" t="s">
-        <v>602</v>
-      </c>
-      <c r="VR2" t="s">
-        <v>602</v>
-      </c>
-      <c r="VS2" t="s">
-        <v>602</v>
-      </c>
-      <c r="VT2" t="s">
-        <v>602</v>
-      </c>
-      <c r="VU2" t="s">
-        <v>602</v>
-      </c>
-      <c r="VV2" t="s">
-        <v>602</v>
-      </c>
-      <c r="VW2" t="s">
-        <v>602</v>
-      </c>
-      <c r="VX2" t="s">
-        <v>602</v>
-      </c>
-      <c r="VY2" t="s">
-        <v>602</v>
-      </c>
-      <c r="VZ2" t="s">
-        <v>602</v>
-      </c>
-      <c r="WA2" t="s">
-        <v>602</v>
-      </c>
-      <c r="WB2" t="s">
-        <v>602</v>
-      </c>
-      <c r="WC2" t="s">
-        <v>602</v>
-      </c>
-      <c r="WD2" t="s">
-        <v>602</v>
-      </c>
-      <c r="WE2" t="s">
-        <v>602</v>
-      </c>
-      <c r="WF2" t="s">
-        <v>602</v>
-      </c>
-      <c r="WG2" t="s">
-        <v>602</v>
-      </c>
-      <c r="WH2" t="s">
-        <v>602</v>
-      </c>
-      <c r="WI2" t="s">
-        <v>602</v>
+        <v>451</v>
       </c>
     </row>
   </sheetData>
